--- a/files/respuestas/2023/respuestas_2023.xlsx
+++ b/files/respuestas/2023/respuestas_2023.xlsx
@@ -24681,13 +24681,13 @@
         <v>0</v>
       </c>
       <c r="CN36">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="CO36">
-        <v>0</v>
+        <v>555</v>
       </c>
       <c r="CP36">
-        <v>0</v>
+        <v>0.3272381673820947</v>
       </c>
       <c r="CQ36">
         <v>0</v>

--- a/files/respuestas/2023/respuestas_2023.xlsx
+++ b/files/respuestas/2023/respuestas_2023.xlsx
@@ -20132,13 +20132,13 @@
         <v>0</v>
       </c>
       <c r="CN28">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="CO28">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="CP28">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="CQ28">
         <v>0</v>
@@ -24681,13 +24681,13 @@
         <v>0</v>
       </c>
       <c r="CN36">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="CO36">
-        <v>555</v>
+        <v>0</v>
       </c>
       <c r="CP36">
-        <v>0.3272381673820947</v>
+        <v>0</v>
       </c>
       <c r="CQ36">
         <v>0</v>

--- a/files/respuestas/2023/respuestas_2023.xlsx
+++ b/files/respuestas/2023/respuestas_2023.xlsx
@@ -20132,13 +20132,13 @@
         <v>0</v>
       </c>
       <c r="CN28">
-        <v>12</v>
+        <v>1.2</v>
       </c>
       <c r="CO28">
         <v>0.6</v>
       </c>
       <c r="CP28">
-        <v>0.8</v>
+        <v>0.8000000000000002</v>
       </c>
       <c r="CQ28">
         <v>0</v>

--- a/files/respuestas/2023/respuestas_2023.xlsx
+++ b/files/respuestas/2023/respuestas_2023.xlsx
@@ -3122,12 +3122,12 @@
       </c>
       <c r="CK4" t="inlineStr">
         <is>
-          <t>La Secretaría Distrital de Gobierno lidera la convivencia pacífica, el ejercicio de la ciudadanía, la promoción de la organización y de la participación ciudadana, y la coordinación de las relaciones políticas de la Administración Distrital en sus distintos niveles, para fortalecer la gobernabilidad democrática en el ámbito distrital y local, y garantizar el goce efectivo de los derechos humanos y constitucionales.</t>
+          <t>Nuestro propósito como Empresa Metro de Bogotá es transformar positivamente la movilidad del Distrito Capital mediante la implementación y operación del modo ferroviario del SITP; con conexión a las redes de integración regional, aportando al desarrollo y renovación urbana de la ciudad, con el fin de generar acceso a oportunidades urbanas y mejorar la calidad de vida de los ciudadanos.</t>
         </is>
       </c>
       <c r="CL4" t="inlineStr">
         <is>
-          <t>En el 2024 la Secretaría Distrital de Gobierno habrá puesto en marcha una nueva etapa renovada de participación ciudadana en Bogotá, resignificando el trabajo colaborativo entre la institucionalidad y la ciudadanía, construyendo comunidades empoderadas desde la convivencia pacífica, y fortaleciendo un gobierno local, cercano y transparente, con la implementación de mecanismos innovadores, una relación de confianza entorno al diálogo para la garantía de los derechos y el cumplimiento de los deberes de cada uno, de acuerdo con los compromisos establecidos en la alianza para el Gobierno Abierto.</t>
+          <t>En el año 2028, con la entrada en operación de la PLMB, la Empresa será reconocida como ejemplo de gestión de movilidad sostenible, segura, confiable, eficiente y con altos estándares tecnológicos. Se habrá definido la expansión de la PLMB, conectándose con el SITP y fortaleciendo la consolidación del modo férreo regional. La EMB, será un referente de cultura, valores y motivo de orgullo y apropiación ciudadana, por su contribución a la transformación positiva de la capital. Adicionalmente, será reconocida en América por la generación de otras fuentes de financiación que contribuyan a su sostenibilidad en el tiempo.</t>
         </is>
       </c>
       <c r="CM4" t="n">
@@ -3784,12 +3784,12 @@
       </c>
       <c r="CK5" t="inlineStr">
         <is>
-          <t>La Secretaría Distrital de Gobierno lidera la convivencia pacífica, el ejercicio de la ciudadanía, la promoción de la organización y de la participación ciudadana, y la coordinación de las relaciones políticas de la Administración Distrital en sus distintos niveles, para fortalecer la gobernabilidad democrática en el ámbito distrital y local, y garantizar el goce efectivo de los derechos humanos y constitucionales.</t>
+          <t>Somos una Empresa Social del Estado innovadora y socialmente responsable, que presta servicios de salud integrales y de calidad, con participación activa en la formación de talento humano y desarrollo de la docencia y la investigación, contribuyendo al mejoramiento de la calidad de vida de la población.</t>
         </is>
       </c>
       <c r="CL5" t="inlineStr">
         <is>
-          <t>En el 2024 la Secretaría Distrital de Gobierno habrá puesto en marcha una nueva etapa renovada de participación ciudadana en Bogotá, resignificando el trabajo colaborativo entre la institucionalidad y la ciudadanía, construyendo comunidades empoderadas desde la convivencia pacífica, y fortaleciendo un gobierno local, cercano y transparente, con la implementación de mecanismos innovadores, una relación de confianza entorno al diálogo para la garantía de los derechos y el cumplimiento de los deberes de cada uno, de acuerdo con los compromisos establecidos en la alianza para el Gobierno Abierto.</t>
+          <t>Para el 2030, la Subred Norte será reconocida como la Empresa Social del Estado, líder en la prestación de servicios asistenciales de excelencia, centrada en la persona, con atención humanizada, a través de la formación del talento humano asistencial y administrativo de alta calidad, inspirada por la docencia, la investigación y el desarrollo. Tendremos un modelo de gestión económico, ambientalmente sostenible, generador de equidad y legitimidad social..</t>
         </is>
       </c>
       <c r="CM5" t="n">
@@ -4398,12 +4398,12 @@
       </c>
       <c r="CK6" t="inlineStr">
         <is>
-          <t>La Secretaría Distrital de Gobierno lidera la convivencia pacífica, el ejercicio de la ciudadanía, la promoción de la organización y de la participación ciudadana, y la coordinación de las relaciones políticas de la Administración Distrital en sus distintos niveles, para fortalecer la gobernabilidad democrática en el ámbito distrital y local, y garantizar el goce efectivo de los derechos humanos y constitucionales.</t>
+          <t>Entidad rectora y articuladora del servicio civil en Bogotá, responsable de promover y orientar técnicamente el fortalecimiento de la Gestión Integral del Talento Humano para que responda a las necesidades de la ciudadanía.</t>
         </is>
       </c>
       <c r="CL6" t="inlineStr">
         <is>
-          <t>En el 2024 la Secretaría Distrital de Gobierno habrá puesto en marcha una nueva etapa renovada de participación ciudadana en Bogotá, resignificando el trabajo colaborativo entre la institucionalidad y la ciudadanía, construyendo comunidades empoderadas desde la convivencia pacífica, y fortaleciendo un gobierno local, cercano y transparente, con la implementación de mecanismos innovadores, una relación de confianza entorno al diálogo para la garantía de los derechos y el cumplimiento de los deberes de cada uno, de acuerdo con los compromisos establecidos en la alianza para el Gobierno Abierto.</t>
+          <t>En 2030, el DASCD tendrá un posicionamiento local e internacional en la gestión estratégica del talento humano por lograr una administración pública distrital con capacidad técnica, creativa, innovadora, empática y diversa para el goce efectivo de los derechos de la ciudadanía en Bogotá región.</t>
         </is>
       </c>
       <c r="CM6" t="n">
@@ -5750,12 +5750,12 @@
       </c>
       <c r="CK8" t="inlineStr">
         <is>
-          <t>La Secretaría Distrital de Gobierno lidera la convivencia pacífica, el ejercicio de la ciudadanía, la promoción de la organización y de la participación ciudadana, y la coordinación de las relaciones políticas de la Administración Distrital en sus distintos niveles, para fortalecer la gobernabilidad democrática en el ámbito distrital y local, y garantizar el goce efectivo de los derechos humanos y constitucionales.</t>
+          <t>Capital es el sistema de comunicación pública de Bogotá-región que ubica a la ciudadanía en el centro a través del diseño, producción y circulación de contenidos y estrategias de comunicación, pertinentes para los grupos de interés, que aportan referentes de inteligencia colectiva para la construcción de una sociedad plural y participativa.</t>
         </is>
       </c>
       <c r="CL8" t="inlineStr">
         <is>
-          <t>En el 2024 la Secretaría Distrital de Gobierno habrá puesto en marcha una nueva etapa renovada de participación ciudadana en Bogotá, resignificando el trabajo colaborativo entre la institucionalidad y la ciudadanía, construyendo comunidades empoderadas desde la convivencia pacífica, y fortaleciendo un gobierno local, cercano y transparente, con la implementación de mecanismos innovadores, una relación de confianza entorno al diálogo para la garantía de los derechos y el cumplimiento de los deberes de cada uno, de acuerdo con los compromisos establecidos en la alianza para el Gobierno Abierto.</t>
+          <t>En 2024 Capital será el sistema de comunicación pública, que fomenta la innovación audiovisual de Bogotá-Región y es reconocido y valorado por la ciudadanía como un espacio participativo y plural, garante del libre acceso a la información y gestor del conocimiento.</t>
         </is>
       </c>
       <c r="CM8" t="n">
@@ -7082,12 +7082,12 @@
       </c>
       <c r="CK10" t="inlineStr">
         <is>
-          <t>La Secretaría Distrital de Gobierno lidera la convivencia pacífica, el ejercicio de la ciudadanía, la promoción de la organización y de la participación ciudadana, y la coordinación de las relaciones políticas de la Administración Distrital en sus distintos niveles, para fortalecer la gobernabilidad democrática en el ámbito distrital y local, y garantizar el goce efectivo de los derechos humanos y constitucionales.</t>
+          <t>La Secretaría Distrital de Movilidad como líder del sector, formula políticas e implementa estrategias de movilidad multimodal, incluyente y sostenible que contribuyen a la equidad y mejoran la calidad de vida de la ciudadanía y la seguridad de los actores viales, potenciando la productividad, la competitividad y la integración de Bogotá y la región, con una gestión íntegra y transparente.</t>
         </is>
       </c>
       <c r="CL10" t="inlineStr">
         <is>
-          <t>En el 2024 la Secretaría Distrital de Gobierno habrá puesto en marcha una nueva etapa renovada de participación ciudadana en Bogotá, resignificando el trabajo colaborativo entre la institucionalidad y la ciudadanía, construyendo comunidades empoderadas desde la convivencia pacífica, y fortaleciendo un gobierno local, cercano y transparente, con la implementación de mecanismos innovadores, una relación de confianza entorno al diálogo para la garantía de los derechos y el cumplimiento de los deberes de cada uno, de acuerdo con los compromisos establecidos en la alianza para el Gobierno Abierto.</t>
+          <t>A 2030 la Secretaría Distrital de Movilidad de Bogotá D.C. será referente mundial en movilidad sostenible, accesible, equitativa, y segura mediante la promoción de cambios comportamentales en la ciudadanía y los actores viales, la incorporación de enfoques territorial, de género y diferencial, la distribución eficiente y equitativa del espacio público, el incremento de la satisfacción en las experiencias de viaje, y la transformación digital y virtual de los trámites y servicios, con un equipo humano comprometido y competente</t>
         </is>
       </c>
       <c r="CM10" t="n">
@@ -7736,12 +7736,12 @@
       </c>
       <c r="CK11" t="inlineStr">
         <is>
-          <t>La Secretaría Distrital de Gobierno lidera la convivencia pacífica, el ejercicio de la ciudadanía, la promoción de la organización y de la participación ciudadana, y la coordinación de las relaciones políticas de la Administración Distrital en sus distintos niveles, para fortalecer la gobernabilidad democrática en el ámbito distrital y local, y garantizar el goce efectivo de los derechos humanos y constitucionales.</t>
+          <t>Garantizar el pleno ejercicio y disfrute de los derechos culturales por parte de la ciudadanía, acercando las prácticas artísticas y la vivencia de sus diferentes dimensiones a la vida cotidiana de las personas; mediante la ejecución de las políticas públicas, proyectos, planes y programas que aporten a la construcción de un nuevo contrato social que contribuya al desarrollo de las personas como seres creativos, sensibles, solidarios y corresponsables con los otros seres vivos que les rodean.</t>
         </is>
       </c>
       <c r="CL11" t="inlineStr">
         <is>
-          <t>En el 2024 la Secretaría Distrital de Gobierno habrá puesto en marcha una nueva etapa renovada de participación ciudadana en Bogotá, resignificando el trabajo colaborativo entre la institucionalidad y la ciudadanía, construyendo comunidades empoderadas desde la convivencia pacífica, y fortaleciendo un gobierno local, cercano y transparente, con la implementación de mecanismos innovadores, una relación de confianza entorno al diálogo para la garantía de los derechos y el cumplimiento de los deberes de cada uno, de acuerdo con los compromisos establecidos en la alianza para el Gobierno Abierto.</t>
+          <t>En 2030 Idartes será la entidad líder en la gestión de las artes en la Ciudad Región, movilizando las dimensiones y procesos de las prácticas artísticas para integrarlas en la vida cotidiana de las personas, a través de: la articulación con los demás sectores de la sociedad; la ejecución de las políticas públicas culturales; la potenciación de las ciudadanías creativas; la construcción de memoria para la transformación social y la integración de las ciencias y las tecnologías, desde una mirada intercultural que reconoce el valor del territorio y su interrelación en un entorno local y global.</t>
         </is>
       </c>
       <c r="CM11" t="n">
@@ -8414,12 +8414,12 @@
       </c>
       <c r="CK12" t="inlineStr">
         <is>
-          <t>La Secretaría Distrital de Gobierno lidera la convivencia pacífica, el ejercicio de la ciudadanía, la promoción de la organización y de la participación ciudadana, y la coordinación de las relaciones políticas de la Administración Distrital en sus distintos niveles, para fortalecer la gobernabilidad democrática en el ámbito distrital y local, y garantizar el goce efectivo de los derechos humanos y constitucionales.</t>
+          <t>La Secretaría Distrital de Integración Social, es una entidad pública de nivel central de la ciudad de Bogotá, líder del sector social, responsable de la formulación e implementación de políticas públicas poblacionales orientadas al ejercicio de derechos, ofrece servicios sociales y promueve de forma articulada, la inclusión social, el desarrollo de capacidades y la mejora en la calidad de vida de la población en mayor condición de vulnerabilidad, con un enfoque territorial.</t>
         </is>
       </c>
       <c r="CL12" t="inlineStr">
         <is>
-          <t>En el 2024 la Secretaría Distrital de Gobierno habrá puesto en marcha una nueva etapa renovada de participación ciudadana en Bogotá, resignificando el trabajo colaborativo entre la institucionalidad y la ciudadanía, construyendo comunidades empoderadas desde la convivencia pacífica, y fortaleciendo un gobierno local, cercano y transparente, con la implementación de mecanismos innovadores, una relación de confianza entorno al diálogo para la garantía de los derechos y el cumplimiento de los deberes de cada uno, de acuerdo con los compromisos establecidos en la alianza para el Gobierno Abierto.</t>
+          <t>La Secretaría Distrital de Integración Social será en el año 2030, una entidad líder, a nivel nacional, en materia de política social y un referente en la promoción de derechos, por contribuir a la inclusión social, al desarrollo de capacidades y a la prestación de los servicios sociales de alta calidad, a través de la transformación de los servicios sociales, la modernización institucional y una estrategia territorial integral social que responde a las necesidades sociales mediante acciones transectoriales, integradoras e innovadoras. Lo anterior para hacer de Bogotá una ciudad más cuidadora, incluyente, sostenible y consciente.</t>
         </is>
       </c>
       <c r="CM12" t="n">
@@ -9092,12 +9092,12 @@
       </c>
       <c r="CK13" t="inlineStr">
         <is>
-          <t>La Secretaría Distrital de Gobierno lidera la convivencia pacífica, el ejercicio de la ciudadanía, la promoción de la organización y de la participación ciudadana, y la coordinación de las relaciones políticas de la Administración Distrital en sus distintos niveles, para fortalecer la gobernabilidad democrática en el ámbito distrital y local, y garantizar el goce efectivo de los derechos humanos y constitucionales.</t>
+          <t>Liderar la formulación e implementación de políticas de gestión del territorio urbano y rural, en el marco de un enfoque de desarrollo sostenible con el fin de facilitar el acceso a la vivienda y promover el mejoramiento integral del Hábitat en el Distrito Capital.</t>
         </is>
       </c>
       <c r="CL13" t="inlineStr">
         <is>
-          <t>En el 2024 la Secretaría Distrital de Gobierno habrá puesto en marcha una nueva etapa renovada de participación ciudadana en Bogotá, resignificando el trabajo colaborativo entre la institucionalidad y la ciudadanía, construyendo comunidades empoderadas desde la convivencia pacífica, y fortaleciendo un gobierno local, cercano y transparente, con la implementación de mecanismos innovadores, una relación de confianza entorno al diálogo para la garantía de los derechos y el cumplimiento de los deberes de cada uno, de acuerdo con los compromisos establecidos en la alianza para el Gobierno Abierto.</t>
+          <t>Ser la entidad líder en la transformación y sostenibilidad del Hábitat, a través de la innovación y el trabajo colaborativo, que permita mejorar las condiciones del territorio, promoviendo el acceso a soluciones habitacionales y a la prestación de servicios públicos en el Distrito Capital.</t>
         </is>
       </c>
       <c r="CM13" t="n">
@@ -9770,12 +9770,12 @@
       </c>
       <c r="CK14" t="inlineStr">
         <is>
-          <t>La Secretaría Distrital de Gobierno lidera la convivencia pacífica, el ejercicio de la ciudadanía, la promoción de la organización y de la participación ciudadana, y la coordinación de las relaciones políticas de la Administración Distrital en sus distintos niveles, para fortalecer la gobernabilidad democrática en el ámbito distrital y local, y garantizar el goce efectivo de los derechos humanos y constitucionales.</t>
+          <t>Brindar servicios de salud con altos estándares de calidad, a través del Modelo de Atención Integral basado en Atención Primaria en Salud, gestión asistencial excelente, segura, humanizada, eficiente, promoción de la docencia, investigación e innovación con talento humano íntegro para contribuir al bienestar y calidad de vida de la población.</t>
         </is>
       </c>
       <c r="CL14" t="inlineStr">
         <is>
-          <t>En el 2024 la Secretaría Distrital de Gobierno habrá puesto en marcha una nueva etapa renovada de participación ciudadana en Bogotá, resignificando el trabajo colaborativo entre la institucionalidad y la ciudadanía, construyendo comunidades empoderadas desde la convivencia pacífica, y fortaleciendo un gobierno local, cercano y transparente, con la implementación de mecanismos innovadores, una relación de confianza entorno al diálogo para la garantía de los derechos y el cumplimiento de los deberes de cada uno, de acuerdo con los compromisos establecidos en la alianza para el Gobierno Abierto.</t>
+          <t>En el año 2030, la Subred Sur Occidente será reconocida a nivel nacional por su modelo de atención con enfoque diferencial, de género, territorial y participativo, logrando estándares superiores de calidad, promoviendo la docencia, investigación e innovación, auto sostenibilidad y gestión ambiental, fomentando el bienestar de los colaboradores de tal manera que impacté positivamente en la calidad de vida de la ciudadanía.</t>
         </is>
       </c>
       <c r="CM14" t="n">
@@ -10424,12 +10424,12 @@
       </c>
       <c r="CK15" t="inlineStr">
         <is>
-          <t>La Secretaría Distrital de Gobierno lidera la convivencia pacífica, el ejercicio de la ciudadanía, la promoción de la organización y de la participación ciudadana, y la coordinación de las relaciones políticas de la Administración Distrital en sus distintos niveles, para fortalecer la gobernabilidad democrática en el ámbito distrital y local, y garantizar el goce efectivo de los derechos humanos y constitucionales.</t>
+          <t>La Fuga es la plataforma pública de la administración distrital, que articula y gestiona la revitalización y transformación participativa del centro de Bogotá a través de su potencial creativo, el arte y la cultura.</t>
         </is>
       </c>
       <c r="CL15" t="inlineStr">
         <is>
-          <t>En el 2024 la Secretaría Distrital de Gobierno habrá puesto en marcha una nueva etapa renovada de participación ciudadana en Bogotá, resignificando el trabajo colaborativo entre la institucionalidad y la ciudadanía, construyendo comunidades empoderadas desde la convivencia pacífica, y fortaleciendo un gobierno local, cercano y transparente, con la implementación de mecanismos innovadores, una relación de confianza entorno al diálogo para la garantía de los derechos y el cumplimiento de los deberes de cada uno, de acuerdo con los compromisos establecidos en la alianza para el Gobierno Abierto.</t>
+          <t>En 2030, la Fuga será referente de articulación y gestión de iniciativas de transformación del territorio del centro de Bogotá, como símbolo distrital de desarrollo desde el potencial creativo, el arte y la cultura.</t>
         </is>
       </c>
       <c r="CM15" t="n">
@@ -11102,12 +11102,12 @@
       </c>
       <c r="CK16" t="inlineStr">
         <is>
-          <t>La Secretaría Distrital de Gobierno lidera la convivencia pacífica, el ejercicio de la ciudadanía, la promoción de la organización y de la participación ciudadana, y la coordinación de las relaciones políticas de la Administración Distrital en sus distintos niveles, para fortalecer la gobernabilidad democrática en el ámbito distrital y local, y garantizar el goce efectivo de los derechos humanos y constitucionales.</t>
+          <t>Liderar, orientar y coordinar la formulación, implementación, seguimiento y evaluación de la Política Pública de Mujeres y Equidad de Género, así como la transversalización de los enfoques de derechos de las mujeres, de género y diferencial, en los planes, programas, proyectos y políticas públicas distritales, para la protección, garantía y materialización de los derechos humanos de las mujeres en las diferencias y diversidades que las constituyen, promoviendo su autonomía y el ejercicio pleno de su ciudadanía en el Distrito Capital</t>
         </is>
       </c>
       <c r="CL16" t="inlineStr">
         <is>
-          <t>En el 2024 la Secretaría Distrital de Gobierno habrá puesto en marcha una nueva etapa renovada de participación ciudadana en Bogotá, resignificando el trabajo colaborativo entre la institucionalidad y la ciudadanía, construyendo comunidades empoderadas desde la convivencia pacífica, y fortaleciendo un gobierno local, cercano y transparente, con la implementación de mecanismos innovadores, una relación de confianza entorno al diálogo para la garantía de los derechos y el cumplimiento de los deberes de cada uno, de acuerdo con los compromisos establecidos en la alianza para el Gobierno Abierto.</t>
+          <t>La Secretaría Distrital de la Mujer en el año 2027 será reconocida distrital, nacional e internacionalmente por su contribución al reconocimiento, la garantía y el restablecimiento de los derechos humanos de las mujeres y al logro de la igualdad de género, incorporando efectivamente los enfoques de derechos de las mujeres, de género y diferencial en las políticas públicas y el quehacer institucional de la Administración distrital.</t>
         </is>
       </c>
       <c r="CM16" t="n">
@@ -11780,12 +11780,12 @@
       </c>
       <c r="CK17" t="inlineStr">
         <is>
-          <t>La Secretaría Distrital de Gobierno lidera la convivencia pacífica, el ejercicio de la ciudadanía, la promoción de la organización y de la participación ciudadana, y la coordinación de las relaciones políticas de la Administración Distrital en sus distintos niveles, para fortalecer la gobernabilidad democrática en el ámbito distrital y local, y garantizar el goce efectivo de los derechos humanos y constitucionales.</t>
+          <t>Somos la entidad Distrital que lidera la formulación, gestión y ejecución de políticas de desarrollo económico, competitividad y economía rural, orientadas a promover y fortalecer las empresas y emprendedores, el abastecimiento alimentario y la promoción de empleo y de nuevos ingresos para los ciudadanos y ciudadanas en la Bogotá -Región.</t>
         </is>
       </c>
       <c r="CL17" t="inlineStr">
         <is>
-          <t>En el 2024 la Secretaría Distrital de Gobierno habrá puesto en marcha una nueva etapa renovada de participación ciudadana en Bogotá, resignificando el trabajo colaborativo entre la institucionalidad y la ciudadanía, construyendo comunidades empoderadas desde la convivencia pacífica, y fortaleciendo un gobierno local, cercano y transparente, con la implementación de mecanismos innovadores, una relación de confianza entorno al diálogo para la garantía de los derechos y el cumplimiento de los deberes de cada uno, de acuerdo con los compromisos establecidos en la alianza para el Gobierno Abierto.</t>
+          <t>La SDDE será reconocida en el año 2024 como una entidad efectiva en la implementación y en la gestión de políticas de desarrollo económico, orientadas a la inclusión productiva, el emprendimiento y la empleabilidad para alcanzar la reactivación y adaptación económica, a través del fortalecimiento y promoción de los corazones productivos y desarrollo de sectores de alto impacto, la innovación y la creatividad en la Bogotá-Región.</t>
         </is>
       </c>
       <c r="CM17" t="n">
@@ -12450,12 +12450,12 @@
       </c>
       <c r="CK18" t="inlineStr">
         <is>
-          <t>La Secretaría Distrital de Gobierno lidera la convivencia pacífica, el ejercicio de la ciudadanía, la promoción de la organización y de la participación ciudadana, y la coordinación de las relaciones políticas de la Administración Distrital en sus distintos niveles, para fortalecer la gobernabilidad democrática en el ámbito distrital y local, y garantizar el goce efectivo de los derechos humanos y constitucionales.</t>
+          <t>Somos una entidad técnica descentralizada y adscrita al sector movilidad de Bogotá D.C, encargada de conservar la malla vial local, intermedia y rural, así como la ciclo-infraestructura y de atender situaciones imprevistas que dificultan la movilidad. Además, brindamos apoyo interinstitucional y realizamos obras complementarias para la mejora de la seguridad vial y la adecuación del espacio público peatonal cuando sea requerido, con el fin de mejorar la calidad de vida de los ciudadanos.</t>
         </is>
       </c>
       <c r="CL18" t="inlineStr">
         <is>
-          <t>En el 2024 la Secretaría Distrital de Gobierno habrá puesto en marcha una nueva etapa renovada de participación ciudadana en Bogotá, resignificando el trabajo colaborativo entre la institucionalidad y la ciudadanía, construyendo comunidades empoderadas desde la convivencia pacífica, y fortaleciendo un gobierno local, cercano y transparente, con la implementación de mecanismos innovadores, una relación de confianza entorno al diálogo para la garantía de los derechos y el cumplimiento de los deberes de cada uno, de acuerdo con los compromisos establecidos en la alianza para el Gobierno Abierto.</t>
+          <t>En el 2030 seremos una entidad reconocida por su gestión eficiente para el mejoramiento del subsistema vial, con total autonomía presupuestal y referente nacional e internacional por el desarrollo de un modelo sostenible de conservación que genera valor público y facilita la conectividad multimodal para el uso y disfrute de los habitantes de la ciudad-región</t>
         </is>
       </c>
       <c r="CM18" t="n">
@@ -13128,12 +13128,12 @@
       </c>
       <c r="CK19" t="inlineStr">
         <is>
-          <t>La Secretaría Distrital de Gobierno lidera la convivencia pacífica, el ejercicio de la ciudadanía, la promoción de la organización y de la participación ciudadana, y la coordinación de las relaciones políticas de la Administración Distrital en sus distintos niveles, para fortalecer la gobernabilidad democrática en el ámbito distrital y local, y garantizar el goce efectivo de los derechos humanos y constitucionales.</t>
+          <t>Cultivar y enriquecer la ciudadanía, con la interpretación y enseñanza de nuestro nutrido y diverso repertorio, por medio de la música sinfónica y el canto lirico.</t>
         </is>
       </c>
       <c r="CL19" t="inlineStr">
         <is>
-          <t>En el 2024 la Secretaría Distrital de Gobierno habrá puesto en marcha una nueva etapa renovada de participación ciudadana en Bogotá, resignificando el trabajo colaborativo entre la institucionalidad y la ciudadanía, construyendo comunidades empoderadas desde la convivencia pacífica, y fortaleciendo un gobierno local, cercano y transparente, con la implementación de mecanismos innovadores, una relación de confianza entorno al diálogo para la garantía de los derechos y el cumplimiento de los deberes de cada uno, de acuerdo con los compromisos establecidos en la alianza para el Gobierno Abierto.</t>
+          <t>En el año 2024 la Orquesta Filarmónica de Bogotá será un referente musical y educativo en Colombia por la calidad de sus agrupaciones musicales, de sus procesos de formación musical y por la diversidad y acogida de su repertorio musical.</t>
         </is>
       </c>
       <c r="CM19" t="n">
@@ -13790,12 +13790,12 @@
       </c>
       <c r="CK20" t="inlineStr">
         <is>
-          <t>La Secretaría Distrital de Gobierno lidera la convivencia pacífica, el ejercicio de la ciudadanía, la promoción de la organización y de la participación ciudadana, y la coordinación de las relaciones políticas de la Administración Distrital en sus distintos niveles, para fortalecer la gobernabilidad democrática en el ámbito distrital y local, y garantizar el goce efectivo de los derechos humanos y constitucionales.</t>
+          <t>La Secretaría Distrital de Hacienda tiene la misión de contribuir al desarrollo sostenible de Bogotá y al mejoramiento de la calidad de vida de sus habitantes, mediante una recaudación eficiente y distribución efectiva de recursos, para la implementación de políticas y proyectos de alto impacto.</t>
         </is>
       </c>
       <c r="CL20" t="inlineStr">
         <is>
-          <t>En el 2024 la Secretaría Distrital de Gobierno habrá puesto en marcha una nueva etapa renovada de participación ciudadana en Bogotá, resignificando el trabajo colaborativo entre la institucionalidad y la ciudadanía, construyendo comunidades empoderadas desde la convivencia pacífica, y fortaleciendo un gobierno local, cercano y transparente, con la implementación de mecanismos innovadores, una relación de confianza entorno al diálogo para la garantía de los derechos y el cumplimiento de los deberes de cada uno, de acuerdo con los compromisos establecidos en la alianza para el Gobierno Abierto.</t>
+          <t>Para el 2030, la Secretaría Distrital de Hacienda fortalecerá la confianza de los ciudadanos y contribuyentes a través de la visibilización de un gasto público efectivo, de calidad y transparente, para la construcción colectiva de una ciudad desarrollada y sostenible.</t>
         </is>
       </c>
       <c r="CM20" t="n">
@@ -14464,12 +14464,12 @@
       </c>
       <c r="CK21" t="inlineStr">
         <is>
-          <t>La Secretaría Distrital de Gobierno lidera la convivencia pacífica, el ejercicio de la ciudadanía, la promoción de la organización y de la participación ciudadana, y la coordinación de las relaciones políticas de la Administración Distrital en sus distintos niveles, para fortalecer la gobernabilidad democrática en el ámbito distrital y local, y garantizar el goce efectivo de los derechos humanos y constitucionales.</t>
+          <t>Generar y fomentar espacios para la recreación, el deporte, la actividad física y la sostenibilidad de los parques y escenarios, mejorando la calidad de vida, el sentido de pertenencia y la felicidad de los habitantes de Bogotá D.C.</t>
         </is>
       </c>
       <c r="CL21" t="inlineStr">
         <is>
-          <t>En el 2024 la Secretaría Distrital de Gobierno habrá puesto en marcha una nueva etapa renovada de participación ciudadana en Bogotá, resignificando el trabajo colaborativo entre la institucionalidad y la ciudadanía, construyendo comunidades empoderadas desde la convivencia pacífica, y fortaleciendo un gobierno local, cercano y transparente, con la implementación de mecanismos innovadores, una relación de confianza entorno al diálogo para la garantía de los derechos y el cumplimiento de los deberes de cada uno, de acuerdo con los compromisos establecidos en la alianza para el Gobierno Abierto.</t>
+          <t>En el 2038, el IDRD logrará que la mayor parte de la población bogotana realice actividad física  y acceda al deporte y la recreación con enfoque diferencial e incluyente,  con una infraestructura  de parques y escenarios innovadora, accesible y sostenible,  que genere bienestar, salud física y mental. Bogotá será campeona en deporte convencional y paralímpico a nivel nacional.</t>
         </is>
       </c>
       <c r="CM21" t="n">
@@ -14818,7 +14818,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Caja De La Vivienda Popular</t>
+          <t>Caja De Vivienda Popular</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -15142,12 +15142,12 @@
       </c>
       <c r="CK22" t="inlineStr">
         <is>
-          <t>La Caja de la Vivienda Popular tiene como misión transformar y mejorar la vivienda, el hábitat y las condiciones de vida la población de estratos 1 y 2 de Bogotá Región, a través de la implementación de los programas de Reasentamientos, Titulación de Predios y Mejoramiento de Vivienda y de Barrios, en cuyo marco desarrolla intervenciones integrales y sostenibles que reconocen las particularidades del hábitat popular. La CVP promueve el ejercicio de los derechos ciudadanos, la participación activa de la ciudadanía y el goce efectivo de la ciudad, contribuyendo a la disminución de la segregación socio espacial de la ciudad y a la mitigación de los impactos ambientales que genera la ocupación del territorio de la ciudad y su región.</t>
+          <t>Somos la EPS que garantiza el aseguramiento, el bienestar y la salud de sus afiliados; basada en un modelo de atención integral en salud, con altos estándares de calidad, trato humanizado, renovación tecnológica, con un equipo de trabajo competente enfocada en la satisfacción de nuestros afiliados y sus familias.</t>
         </is>
       </c>
       <c r="CL22" t="inlineStr">
         <is>
-          <t>En 2024 la Caja de la Vivienda Popular será reconocida por su liderazgo e impacto en el mejoramiento integral de la vivienda y la calidad de vida de los hogares de estratos 1 y 2 de Bogotá Región, y por generar, a través de su conocimiento del hábitat popular, procesos sostenibles de construcción y transformación del hábitat, que aporten a consolidar un nuevo contrato social y ambiental en la ciudad y su entorno.</t>
+          <t>En el año 2024, CAPITAL SALUD EPS-S será la EAPB reconocida por su enfoque social y humano, con estándares superiores de calidad, basados en la innovación de sus procesos y sostenibilidad.</t>
         </is>
       </c>
       <c r="CM22" t="n">
@@ -15820,12 +15820,12 @@
       </c>
       <c r="CK23" t="inlineStr">
         <is>
-          <t>Capital es el sistema de comunicación pública de Bogotá-región que ubica a la ciudadanía en el centro a través del diseño, producción y circulación de contenidos y estrategias de comunicación, pertinentes para los grupos de interés, que aportan referentes de inteligencia colectiva para la construcción de una sociedad plural y participativa.</t>
+          <t>En la SDP planeamos y orientamos la transformación - territorial, económica, social y ambiental – del distrito capital para mejorar el bienestar colectivo y la competitividad de nuestra ciudad región - incluyente, cuidadora, equitativa y solidaria -, a través de las políticas públicas, la participación ciudadana y una gestión pública efectiva, digital e innovadora.</t>
         </is>
       </c>
       <c r="CL23" t="inlineStr">
         <is>
-          <t>En 2024 Capital será el sistema de comunicación pública, que fomenta la innovación audiovisual de Bogotá-Región y es reconocido y valorado por la ciudadanía como un espacio participativo y plural, garante del libre acceso a la información y gestor del conocimiento.</t>
+          <t>En 2024 la SDP será reconocida por su gestión pública efectiva en la recuperación social y económica de Bogotá, en el contexto de la post-pandemia, gracias a una planeación integral del territorio, la articulación de políticas públicas y las acciones intersectoriales para el desarrollo sostenible del Distrito Capital.</t>
         </is>
       </c>
       <c r="CM23" t="n">
@@ -16494,12 +16494,12 @@
       </c>
       <c r="CK24" t="inlineStr">
         <is>
-          <t>Somos la EPS que garantiza el aseguramiento, el bienestar y la salud de sus afiliados; basada en un modelo de atención integral en salud, con altos estándares de calidad, trato humanizado, renovación tecnológica, con un equipo de trabajo competente enfocada en la satisfacción de nuestros afiliados y sus familias.</t>
+          <t>Garantizar el derecho a la salud a través del modelo de atención integral incluyente, con enfoques poblacional-diferencial, de cultura ciudadana, de género, participativo, territorial y resolutivo, que contribuya al mejoramiento de la calidad de vida y de la salud de la población de la ciudad-región de Bogotá.</t>
         </is>
       </c>
       <c r="CL24" t="inlineStr">
         <is>
-          <t>En el año 2024, CAPITAL SALUD EPS-S será la EAPB reconocida por su enfoque social y humano, con estándares superiores de calidad, basados en la innovación de sus procesos y sostenibilidad.</t>
+          <t>A 2024 la Secretaría Distrital de Salud será reconocida por la población de ​la ciudad-región de Bogotá por su liderazgo en el mejoramiento de las condiciones de los servicios de salud y de la calidad de vida.</t>
         </is>
       </c>
       <c r="CM24" t="n">
@@ -17172,12 +17172,12 @@
       </c>
       <c r="CK25" t="inlineStr">
         <is>
-          <t>Contribuir al mejoramiento de la calidad de vida en Bogotá, por medio de una eficaz defensa del espacio público, de una óptima administración del patrimonio inmobiliario de la ciudad y de la construcción de una nueva cultura del espacio público, que garantice su uso y disfrute colectivo y estimule la participación comunitaria.</t>
+          <t>Somos la Secretaría Jurídica Distrital, que trabaja en defensa de los intereses de la ciudad, de manera íntegra, responsable y comprometida con el desarrollo sostenible de Bogotá D.C. Contamos con un equipo humano confiable, experto e innovador, que genera soluciones oportunas y efectivas, para el bienestar de todos los ciudadanos.</t>
         </is>
       </c>
       <c r="CL25" t="inlineStr">
         <is>
-          <t>En 2024, el Departamento Administrativo de la Defensoría del Espacio Público será una entidad reconocida a nivel distrital y nacional como líder en la protección integral del espacio público y del patrimonio inmobiliario distrital, la gestión del conocimiento urbanístico de los bienes de uso público y fiscales del nivel central de Bogotá, y por promover la participación ciudadana, la corresponsabilidad y la coordinación interinstitucional.</t>
+          <t>Contribuir a la protección de los intereses y patrimonio público distrital, con soluciones jurídicas integrales para el bienestar de todos los habitantes de la ciudad.</t>
         </is>
       </c>
       <c r="CM25" t="n">
@@ -17850,12 +17850,12 @@
       </c>
       <c r="CK26" t="inlineStr">
         <is>
-          <t>Entidad rectora y articuladora del servicio civil en Bogotá, responsable de promover y orientar técnicamente el fortalecimiento de la Gestión Integral del Talento Humano para que responda a las necesidades de la ciudadanía.</t>
+          <t>La Secretaría Distrital de Gobierno lidera la convivencia pacífica, el ejercicio de la ciudadanía, la promoción de la organización y de la participación ciudadana, y la coordinación de las relaciones políticas de la Administración Distrital en sus distintos niveles, para fortalecer la gobernabilidad democrática en el ámbito distrital y local, y garantizar el goce efectivo de los derechos humanos y constitucionales.</t>
         </is>
       </c>
       <c r="CL26" t="inlineStr">
         <is>
-          <t>En 2030, el DASCD tendrá un posicionamiento local e internacional en la gestión estratégica del talento humano por lograr una administración pública distrital con capacidad técnica, creativa, innovadora, empática y diversa para el goce efectivo de los derechos de la ciudadanía en Bogotá región.</t>
+          <t>En el 2024 la Secretaría Distrital de Gobierno habrá puesto en marcha una nueva etapa renovada de participación ciudadana en Bogotá, resignificando el trabajo colaborativo entre la institucionalidad y la ciudadanía, construyendo comunidades empoderadas desde la convivencia pacífica, y fortaleciendo un gobierno local, cercano y transparente, con la implementación de mecanismos innovadores, una relación de confianza entorno al diálogo para la garantía de los derechos y el cumplimiento de los deberes de cada uno, de acuerdo con los compromisos establecidos en la alianza para el Gobierno Abierto.</t>
         </is>
       </c>
       <c r="CM26" t="n">
@@ -18528,12 +18528,12 @@
       </c>
       <c r="CK27" t="inlineStr">
         <is>
-          <t>Agua para la vida, generando bienestar para la gente.</t>
+          <t>Contribuir al mejoramiento de la calidad de vida en Bogotá, por medio de una eficaz defensa del espacio público, de una óptima administración del patrimonio inmobiliario de la ciudad y de la construcción de una nueva cultura del espacio público, que garantice su uso y disfrute colectivo y estimule la participación comunitaria.</t>
         </is>
       </c>
       <c r="CL27" t="inlineStr">
         <is>
-          <t>Excelencia en la gestión empresarial del agua, compromiso y empresa para todos.</t>
+          <t>En 2024, el Departamento Administrativo de la Defensoría del Espacio Público será una entidad reconocida a nivel distrital y nacional como líder en la protección integral del espacio público y del patrimonio inmobiliario distrital, la gestión del conocimiento urbanístico de los bienes de uso público y fiscales del nivel central de Bogotá, y por promover la participación ciudadana, la corresponsabilidad y la coordinación interinstitucional.</t>
         </is>
       </c>
       <c r="CM27" t="n">
@@ -19864,12 +19864,12 @@
       </c>
       <c r="CK29" t="inlineStr">
         <is>
-          <t>Gestionar el desarrollo del Sistema Integrado de Transporte Público en Bogotá, en el marco del Plan Maestro de Movilidad, con estándares de calidad, dignidad y comodidad, con criterios de intermodalidad, con sostenibilidad financiera y ambiental, con una orientación hacia el mejoramiento de la calidad de vida de los usuarios y procurando la integración de la ciudad con la Región.</t>
+          <t>Estructuramos y desarrollamos proyectos de infraestructura vial y movilidad multimodal, de forma sostenible, incluyente, innovadora y eficiente, para contribuir al desarrollo urbano de Bogotá Región y mejorar la calidad de vida de su gente.</t>
         </is>
       </c>
       <c r="CL29" t="inlineStr">
         <is>
-          <t>En el 2023, el Sistema Integrado de Transporte Público gestionado por TRANSMILENIO S.A. tendrá cobertura en toda la ciudad. La sostenibilidad operacional, financiera y ambiental de este Sistema estará asegurada mediante políticas públicas Distritales y Nacionales de movilidad y fuentes de financiamiento determinadas por las autoridades competentes.</t>
+          <t>Consolidarnos en el 2030 como la entidad LIDER en estructuración, ejecución y conservación de proyectos integrales de infraestructura vial, transporte y movilidad multimodal para Bogotá región.</t>
         </is>
       </c>
       <c r="CM29" t="n">
@@ -20542,12 +20542,12 @@
       </c>
       <c r="CK30" t="inlineStr">
         <is>
-          <t>Nuestro propósito como Empresa Metro de Bogotá es transformar positivamente la movilidad del Distrito Capital mediante la implementación y operación del modo ferroviario del SITP; con conexión a las redes de integración regional, aportando al desarrollo y renovación urbana de la ciudad, con el fin de generar acceso a oportunidades urbanas y mejorar la calidad de vida de los ciudadanos.</t>
+          <t>Agua para la vida, generando bienestar para la gente.</t>
         </is>
       </c>
       <c r="CL30" t="inlineStr">
         <is>
-          <t>En el año 2028, con la entrada en operación de la PLMB, la Empresa será reconocida como ejemplo de gestión de movilidad sostenible, segura, confiable, eficiente y con altos estándares tecnológicos. Se habrá definido la expansión de la PLMB, conectándose con el SITP y fortaleciendo la consolidación del modo férreo regional. La EMB, será un referente de cultura, valores y motivo de orgullo y apropiación ciudadana, por su contribución a la transformación positiva de la capital. Adicionalmente, será reconocida en América por la generación de otras fuentes de financiación que contribuyan a su sostenibilidad en el tiempo.</t>
+          <t>Excelencia en la gestión empresarial del agua, compromiso y empresa para todos.</t>
         </is>
       </c>
       <c r="CM30" t="n">
@@ -20896,7 +20896,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Fondo De Prestaciones Economicas, Cesantias Y Pensiones</t>
+          <t>Fondo De Prestaciones Economicas Cesantias Y Pensiones</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -21220,12 +21220,12 @@
       </c>
       <c r="CK31" t="inlineStr">
         <is>
-          <t>Somos el Fondo de Prestaciones Económicas, Cesantías y Pensiones de Bogotá, FONCEP, que garantiza el reconocimiento de los derechos prestacionales y el pago de las obligaciones pensionales a nuestros afiliados, con el fin de brindarles amparo en la vejez, invalidez y sobrevivencia a favor de sus beneficiarios.</t>
+          <t>Investigar y conservar las coberturas vegetales de los ecosistemas alto andinos y de páramo, contribuyendo a la generación, aplicación y apropiación social del conocimiento para la adaptación al cambio climático, al mejoramiento de la calidad de vida y al desarrollo sostenible en el Distrito Capital y la Región.</t>
         </is>
       </c>
       <c r="CL31" t="inlineStr">
         <is>
-          <t>A 2024 FONCEP habrá fortalecido la eficiencia de la gestión pensional del Distrito, a partir de su articulación integral y efectiva y la implementación de una política pública de atención al pensionado que potencie los beneficios y oportunidades para esta población.</t>
+          <t>En el 2038 seremos reconocidos nacional e internacionalmente como un centro de investigación de referencia en los ecosistemas alto andinos y de páramo y como destino de naturaleza, que contribuye a la transformación del pensamiento ambiental para la sostenibilidad del territorio.</t>
         </is>
       </c>
       <c r="CM31" t="n">
@@ -21898,12 +21898,12 @@
       </c>
       <c r="CK32" t="inlineStr">
         <is>
-          <t>La Fuga es la plataforma pública de la administración distrital, que articula y gestiona la revitalización y transformación participativa del centro de Bogotá a través de su potencial creativo, el arte y la cultura.</t>
+          <t>Liderar, planear, implementar y evaluar la política pública en materia de seguridad, convivencia y acceso a la justicia, así como gestionar los servicios de emergencias, para garantizar el ejercicio de los derechos y libertades de los ciudadanos del Distrito Capital.</t>
         </is>
       </c>
       <c r="CL32" t="inlineStr">
         <is>
-          <t>En 2030, la Fuga será referente de articulación y gestión de iniciativas de transformación del territorio del centro de Bogotá, como símbolo distrital de desarrollo desde el potencial creativo, el arte y la cultura.</t>
+          <t>En 2024 la Secretaría Distrital de Seguridad,Convivencia y Justicia estará consolidada como el organismo distrital que lidera y articula, con otras entidades distritales y nacionales, la ejecución de las políticas en materia de seguridad, convivencia, acceso a la justicia, prevención del delito, reducción de riesgos yatención de incidentes.</t>
         </is>
       </c>
       <c r="CM32" t="n">
@@ -22576,12 +22576,12 @@
       </c>
       <c r="CK33" t="inlineStr">
         <is>
-          <t>Estructuramos y desarrollamos proyectos de infraestructura vial y movilidad multimodal, de forma sostenible, incluyente, innovadora y eficiente, para contribuir al desarrollo urbano de Bogotá Región y mejorar la calidad de vida de su gente.</t>
+          <t>Promover la oferta educativa en la ciudad para garantizar el acceso y la permanencia de los niños, niñas y jóvenes en el sistema educativo, en sus distintas formas, niveles y modalidades; la calidad y pertinencia de la educación, con el propósito de formar individuos capaces de vivir productiva, creativa y responsablemente en comunidad.</t>
         </is>
       </c>
       <c r="CL33" t="inlineStr">
         <is>
-          <t>Consolidarnos en el 2030 como la entidad LIDER en estructuración, ejecución y conservación de proyectos integrales de infraestructura vial, transporte y movilidad multimodal para Bogotá región.</t>
+          <t>La SED garantizará el derecho a la educación de los niños, niñas y jóvenes de la ciudad, a través de colegios distritales modernos, humanos e incluyentes y de un proceso de formación democrático, participativo, permanente, personal, cultural y social.</t>
         </is>
       </c>
       <c r="CM33" t="n">
@@ -23254,12 +23254,12 @@
       </c>
       <c r="CK34" t="inlineStr">
         <is>
-          <t>El IDIGER emprende acciones y genera lineamientos para la gestión del riesgo de desastres y la adaptación al cambio climático, en el marco de la coordinación del SDGR-CC en el Distrito Capital, con el fin de proteger a las personas en situación de riesgo y lograr el desarrollo sostenible de Bogotá D.C.</t>
+          <t>La Subred Integrada de Servicios de Salud Sur E.S.E., presta Servicios de Salud a través de un Modelo de Atención Integral en Red, bajo los enfoques de gestión integral del riesgo y seguridad, fortaleciendo la formación académica orientada a la investigación científica e innovación, con un talento humano comprometido, humanizado y competente que contribuye al mejoramiento de las condiciones de salud de nuestros usuarios urbanos y rurales de las localidades de Usme, Ciudad Bolívar, Tunjuelito y Sumapaz.</t>
         </is>
       </c>
       <c r="CL34" t="inlineStr">
         <is>
-          <t>En el 2030 el Distrito contará con mejores capacidades para gestionar el riesgo de desastres y los efectos del cambio climático, mediante la intervención del territorio y coordinación efectiva del SDGR-CC por parte del IDIGER, para la construcción de una ciudad resiliente.</t>
+          <t>En el año 2024 seremos una Empresa Social del Estado referente en el Distrito por la prestación de servicios de salud con estándares superiores de calidad, consolidada, sostenible, referente en investigación, docencia e innovación, con enfoque diferencial, territorial y comunitario, que promueven el cambio, la intersectorialidad, impactando positivamente la salud y calidad de vida de nuestros usuarios.</t>
         </is>
       </c>
       <c r="CM34" t="n">
@@ -23932,12 +23932,12 @@
       </c>
       <c r="CK35" t="inlineStr">
         <is>
-          <t>Garantizar el pleno ejercicio y disfrute de los derechos culturales por parte de la ciudadanía, acercando las prácticas artísticas y la vivencia de sus diferentes dimensiones a la vida cotidiana de las personas; mediante la ejecución de las políticas públicas, proyectos, planes y programas que aporten a la construcción de un nuevo contrato social que contribuya al desarrollo de las personas como seres creativos, sensibles, solidarios y corresponsables con los otros seres vivos que les rodean.</t>
+          <t>Formar ciudadanos creativos e innovadores con oportunidades, desde un modelo pedagógico basado en los principios de afecto, alegría y libertad y un talento institucional que apropia la vocación de servicio y liderazgo para construir proyecto y sentido de vida en los niños, niñas, adolescentes y jóvenes en habitabilidad en calle, en riesgo de habitarla o en condiciones de fragilidad social de la Ciudad.</t>
         </is>
       </c>
       <c r="CL35" t="inlineStr">
         <is>
-          <t>En 2030 Idartes será la entidad líder en la gestión de las artes en la Ciudad Región, movilizando las dimensiones y procesos de las prácticas artísticas para integrarlas en la vida cotidiana de las personas, a través de: la articulación con los demás sectores de la sociedad; la ejecución de las políticas públicas culturales; la potenciación de las ciudadanías creativas; la construcción de memoria para la transformación social y la integración de las ciencias y las tecnologías, desde una mirada intercultural que reconoce el valor del territorio y su interrelación en un entorno local y global.</t>
+          <t>El IDIPRON será un referente en la ciudad y en el mundo en prácticas pedagógicas innovadoras, que desarrollan talentos, generan oportunidades y transforman la vida de los niños, niñas, adolescentes y jóvenes en ciudadanos felices.</t>
         </is>
       </c>
       <c r="CM35" t="n">
@@ -24286,7 +24286,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Instituto Distrital De Participacion Y Accion Comunal</t>
+          <t>Instituto Distrital De Participacion Y Accion Comunal Idpac</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -24610,12 +24610,12 @@
       </c>
       <c r="CK36" t="inlineStr">
         <is>
-          <t>Somos una entidad pública, del orden distrital, que genera condiciones innovadoras, institucionales, organizativas y culturales en Bogotá y la región, que incentivan, facilitan y fortalecen la participación y el empoderamiento como forma de mejorar el bienestar de la ciudadanía y sus comunidades.</t>
+          <t>Somos un organismo de control con enfoque integral e incluyente, que protege, defiende y promueve los derechos de las personas, controla la Función Pública y vigila la conducta oficial de los(as) servidores(as) públicos(as) en el Distrito Capital, para contribuir al cumplimiento de los fines del Estado. .</t>
         </is>
       </c>
       <c r="CL36" t="inlineStr">
         <is>
-          <t>En el 2030, el IDPAC será reconocido local, nacional e internacionalmente, como la entidad líder en la promoción e investigación de la participación ciudadana en el Distrito Capital, así como en producción de técnicas y metodologías de fortalecimiento organizativo, que aportan a la cultura democrática, inclusiva, intercultural y con equidad de género y a incrementar la capacidad de incidencia de la ciudadanía en la gestión pública y el control social.</t>
+          <t>La Personería de Bogotá, D. C., en el 2024, apoyada en el uso de tecnologías eficientes, un talento humano honesto y comprometido, a través del control y la colaboración armónica interinstitucional, será una Entidad garante de los derechos de las personas, donde prevalecerá el interés público, con atención oportuna, integral y efectiva; referente en innovación e investigación.</t>
         </is>
       </c>
       <c r="CM36" t="n">
@@ -25288,12 +25288,12 @@
       </c>
       <c r="CK37" t="inlineStr">
         <is>
-          <t>El Instituto Distrital de Patrimonio Cultural promueve procesos de investigación, valoración, activación, salvaguardia, recuperación y divulgación del patrimonio cultural, material, inmaterial, natural y arqueológico, desde una perspectiva integral en la que el patrimonio se convierte en determinante del ordenamiento territorial, fortalece los vínculos sociales y cotidianos y contribuye al reconocimiento de Bogotá como una sociedad diversa y plural.</t>
+          <t>Defender los derechos ciudadanos y lo público mediante el control preventivo y la promoción de una activa participación ciudadana, con el propósito de garantizar la transparencia en beneficio del mejoramiento de la gestión pública distrital y la convivencia ciudadana.</t>
         </is>
       </c>
       <c r="CL37" t="inlineStr">
         <is>
-          <t>Para el año 2024, el Instituto Distrital de Patrimonio Cultural se habrá consolidado como una plataforma de activación, apropiación, debate y salvaguardia del patrimonio cultural desde una perspectiva de integralidad, que reconoce las diversas maneras en que las poblaciones, sectores y territorios conciben sus patrimonios, como aporte al nuevo contrato social y a los procesos de ordenamiento territorial de Bogotá-Región.</t>
+          <t>A 2024, la Veeduría Distrital será reconocida por su alta capacidad para garantizar los derechos de los ciudadanos de Bogotá, ejerciendo un control preventivo de la gestión de las entidades del distrito y empoderando a la ciudadanía para el ejercicio del control social.</t>
         </is>
       </c>
       <c r="CM37" t="n">
@@ -25966,12 +25966,12 @@
       </c>
       <c r="CK38" t="inlineStr">
         <is>
-          <t>Somos la primera entidad pública encargada de la protección y el bienestar animal, garantes de la vida de la Fauna en el Distrito Capital a través, de la formulación, implementación, seguimiento y evaluación de políticas públicas sectoriales e intersectoriales.</t>
+          <t>El Instituto Distrital de Turismo promueve el desarrollo integral y fortalecimiento económico de Bogotá, a través del turismo como integrador social, económico y mitigante del impacto ambiental; mediante políticas, planes y proyectos desde las vocaciones locales, la generación de información, la promoción de ciudad a nivel nacional e internacional como destino competitivo, sostenible, seguro, accesible e incluyente, que se articula con la región para mejorar la calidad de vida de sus habitantes y los actores de la cadena de valor del sector.</t>
         </is>
       </c>
       <c r="CL38" t="inlineStr">
         <is>
-          <t>El Instituto Distrital de Protección y Bienestar Animal será referente a 2024, como la entidad rectora, modelo de gestión pública para la promoción del bienestar y prevención del maltrato animal en corresponsabilidad con la sociedad civil.</t>
+          <t>El Instituto Distrital de Turismo será reconocido en 2026, como la entidad referente en la gestión y la promoción de Bogotá, como destino turístico competitivo líder en Latinoamérica, caracterizándose por tener un talento humano orgulloso, íntegro y comprometido.</t>
         </is>
       </c>
       <c r="CM38" t="n">
@@ -26644,12 +26644,12 @@
       </c>
       <c r="CK39" t="inlineStr">
         <is>
-          <t>Generar y fomentar espacios para la recreación, el deporte, la actividad física y la sostenibilidad de los parques y escenarios, mejorando la calidad de vida, el sentido de pertenencia y la felicidad de los habitantes de Bogotá D.C.</t>
+          <t>La Secretaria Distrital de Ambiente, como autoridad ambiental del Distrito Capital propende por el desarrollo sostenible de la ciudad, formulando promoviendo y orientando políticas, planes y programas que permitan la conservación, protección y recuperación del ambiente y de los bienes y servicios naturales de la Estructura Ecológica Principal y de las áreas de interés ambiental; para mejorar su calidad de vida, la relación entre la población y el entorno natural, el disfrute de los derechos fundamentales y colectivos del ambiente, respondiendo a las acciones encaminadas a  la adaptación y mitigación al cambio climático, reverdeciendo a Bogotá y promoviendo la participación de la ciudadanía en todas sus dimensiones y el cambio de los hábitos de vida.</t>
         </is>
       </c>
       <c r="CL39" t="inlineStr">
         <is>
-          <t>En el 2038, el IDRD logrará que la mayor parte de la población bogotana realice actividad física  y acceda al deporte y la recreación con enfoque diferencial e incluyente,  con una infraestructura  de parques y escenarios innovadora, accesible y sostenible,  que genere bienestar, salud física y mental. Bogotá será campeona en deporte convencional y paralímpico a nivel nacional.</t>
+          <t>En el 2024 la Secretaría Distrital de Ambiente será reconocida por su gestión ambiental y el cumplimiento de los Objetivos de Desarrollo Sostenible-ODS relacionados con el uso adecuado de los recursos naturales, adaptación al cambio climático y conservación, protección y recuperación de las áreas de interés ambiental urbanas y rurales, mitigando el daño a los ecosistemas a través del crecimiento verde, la restauración y mantenimiento de áreas de la estructura ecológica principal entre otras áreas de interés ambiental, disminuyendo las afectaciones a la salud producidas por la contaminación del aire y reduciendo los factores de deterioro ambiental a través de la utilización de energías limpias, alternativas de movilización y los hábitos de producción y consumo en el Distrito, a fin de ofrecer una ciudad más sostenible, contribuyendo a la reordenación del territorio para las generaciones presentes y futuras, con estrategias de acción colectiva,  mejoramiento en la confianza y participación ciudadana.</t>
         </is>
       </c>
       <c r="CM39" t="n">
@@ -27322,12 +27322,12 @@
       </c>
       <c r="CK40" t="inlineStr">
         <is>
-          <t>El Instituto Distrital de Turismo promueve el desarrollo integral y fortalecimiento económico de Bogotá, a través del turismo como integrador social, económico y mitigante del impacto ambiental; mediante políticas, planes y proyectos desde las vocaciones locales, la generación de información, la promoción de ciudad a nivel nacional e internacional como destino competitivo, sostenible, seguro, accesible e incluyente, que se articula con la región para mejorar la calidad de vida de sus habitantes y los actores de la cadena de valor del sector.</t>
+          <t>La Secretaría Distrital de Gobierno lidera la convivencia pacífica, el ejercicio de la ciudadanía, la promoción de la organización y de la participación ciudadana, y la coordinación de las relaciones políticas de la Administración Distrital en sus distintos niveles, para fortalecer la gobernabilidad democrática en el ámbito distrital y local, y garantizar el goce efectivo de los derechos humanos y constitucionales.</t>
         </is>
       </c>
       <c r="CL40" t="inlineStr">
         <is>
-          <t>El Instituto Distrital de Turismo será reconocido en 2026, como la entidad referente en la gestión y la promoción de Bogotá, como destino turístico competitivo líder en Latinoamérica, caracterizándose por tener un talento humano orgulloso, íntegro y comprometido.</t>
+          <t>En el 2024 la Secretaría Distrital de Gobierno habrá puesto en marcha una nueva etapa renovada de participación ciudadana en Bogotá, resignificando el trabajo colaborativo entre la institucionalidad y la ciudadanía, construyendo comunidades empoderadas desde la convivencia pacífica, y fortaleciendo un gobierno local, cercano y transparente, con la implementación de mecanismos innovadores, una relación de confianza entorno al diálogo para la garantía de los derechos y el cumplimiento de los deberes de cada uno, de acuerdo con los compromisos establecidos en la alianza para el Gobierno Abierto.</t>
         </is>
       </c>
       <c r="CM40" t="n">
@@ -28000,12 +28000,12 @@
       </c>
       <c r="CK41" t="inlineStr">
         <is>
-          <t>El Instituto para la Economía Social tiene como propósito ofertar alternativas de generación de ingresos a la población de la economía informal que ejerce sus actividades en el espacio público; así como administrar y desarrollar acciones de fortalecimiento del Sistema Distrital de Plazas de Mercado, para aportar al desarrollo económico de la ciudad.</t>
+          <t>La Secretaría Distrital de Gobierno lidera la convivencia pacífica, el ejercicio de la ciudadanía, la promoción de la organización y de la participación ciudadana, y la coordinación de las relaciones políticas de la Administración Distrital en sus distintos niveles, para fortalecer la gobernabilidad democrática en el ámbito distrital y local, y garantizar el goce efectivo de los derechos humanos y constitucionales.</t>
         </is>
       </c>
       <c r="CL41" t="inlineStr">
         <is>
-          <t>En el 2025, seremos reconocidos por aportar al trabajo decente y al mejoramiento de las condiciones sociales y productivas de la población de la economía informal, que contribuyan al crecimiento económico y reducción de las desigualdades de la ciudad, así mismo, contaremos con plazas de mercado posicionadas como lugares de encuentro ciudadano, abastecimiento de productos de calidad, referentes turísticos y gastronómicos del país.</t>
+          <t>En el 2024 la Secretaría Distrital de Gobierno habrá puesto en marcha una nueva etapa renovada de participación ciudadana en Bogotá, resignificando el trabajo colaborativo entre la institucionalidad y la ciudadanía, construyendo comunidades empoderadas desde la convivencia pacífica, y fortaleciendo un gobierno local, cercano y transparente, con la implementación de mecanismos innovadores, una relación de confianza entorno al diálogo para la garantía de los derechos y el cumplimiento de los deberes de cada uno, de acuerdo con los compromisos establecidos en la alianza para el Gobierno Abierto.</t>
         </is>
       </c>
       <c r="CM41" t="n">
@@ -28678,12 +28678,12 @@
       </c>
       <c r="CK42" t="inlineStr">
         <is>
-          <t>Fortalecer y gestionar la investigación y la innovación, así como el desarrollo pedagógico y profesional docente, con miras a producir conocimiento que aporte al cierre de las brechas socioeducativas, a la garantía del derecho a la educación, a la transformación pedagógica y al reconocimiento del saber docente, para aportar en la construcción de un nuevo contrato social y ambiental.</t>
+          <t>Garantizar en el Distrito Capital la prestación, coordinación, supervisión, gestión, monitoreo y control de los servicios públicos de aseo en sus componentes (recolección, barrido y limpieza, disposición final y aprovechamiento de residuos sólidos), los residuos de construcción y demolición, los servicios funerarios y el servicio de alumbrado público; defendiendo el carácter público de la infraestructura propiedad del Distrito, promoviendo la participación ciudadana en la gestión pública, mejorando la calidad de vida de sus ciudadanos y el cuidado del medio ambiente a través de la planeación y modelación de los servicios a cargo.</t>
         </is>
       </c>
       <c r="CL42" t="inlineStr">
         <is>
-          <t>En 2030, el IDEP será reconocido a nivel distrital, nacional e internacional como un centro de investigación, innovación y desarrollo pedagógico de la más alta calidad académica que produce conocimiento relevante, pertinente y riguroso orientado a la transformación educativa y pedagógica, al desarrollo profesional docente y a la garantía del derecho a la educación.</t>
+          <t>La Unidad Administrativa Especial de Servicios Públicos, en el 2024 será una entidad líder a nivel nacional en el manejo integral de residuos sólidos en torno a un modelo de economía circular sostenible; la modernización del alumbrado público y la prestación de servicios funerarios en los cementerios propiedad del Distrito, a través de ejercicios de participación ciudadana, con enfoque poblacional y diferencial en el marco de ciudad inteligente y Bogotá-Región.</t>
         </is>
       </c>
       <c r="CM42" t="n">
@@ -29356,12 +29356,12 @@
       </c>
       <c r="CK43" t="inlineStr">
         <is>
-          <t>Formar ciudadanos creativos e innovadores con oportunidades, desde un modelo pedagógico basado en los principios de afecto, alegría y libertad y un talento institucional que apropia la vocación de servicio y liderazgo para construir proyecto y sentido de vida en los niños, niñas, adolescentes y jóvenes en habitabilidad en calle, en riesgo de habitarla o en condiciones de fragilidad social de la Ciudad.</t>
+          <t>Fortalecer y gestionar la investigación y la innovación, así como el desarrollo pedagógico y profesional docente, con miras a producir conocimiento que aporte al cierre de las brechas socioeducativas, a la garantía del derecho a la educación, a la transformación pedagógica y al reconocimiento del saber docente, para aportar en la construcción de un nuevo contrato social y ambiental.</t>
         </is>
       </c>
       <c r="CL43" t="inlineStr">
         <is>
-          <t>El IDIPRON será un referente en la ciudad y en el mundo en prácticas pedagógicas innovadoras, que desarrollan talentos, generan oportunidades y transforman la vida de los niños, niñas, adolescentes y jóvenes en ciudadanos felices.</t>
+          <t>En 2030, el IDEP será reconocido a nivel distrital, nacional e internacional como un centro de investigación, innovación y desarrollo pedagógico de la más alta calidad académica que produce conocimiento relevante, pertinente y riguroso orientado a la transformación educativa y pedagógica, al desarrollo profesional docente y a la garantía del derecho a la educación.</t>
         </is>
       </c>
       <c r="CM43" t="n">
@@ -30030,12 +30030,12 @@
       </c>
       <c r="CK44" t="inlineStr">
         <is>
-          <t>Investigar y conservar las coberturas vegetales de los ecosistemas alto andinos y de páramo, contribuyendo a la generación, aplicación y apropiación social del conocimiento para la adaptación al cambio climático, al mejoramiento de la calidad de vida y al desarrollo sostenible en el Distrito Capital y la Región.</t>
+          <t>La Secretaría Distrital de Gobierno lidera la convivencia pacífica, el ejercicio de la ciudadanía, la promoción de la organización y de la participación ciudadana, y la coordinación de las relaciones políticas de la Administración Distrital en sus distintos niveles, para fortalecer la gobernabilidad democrática en el ámbito distrital y local, y garantizar el goce efectivo de los derechos humanos y constitucionales.</t>
         </is>
       </c>
       <c r="CL44" t="inlineStr">
         <is>
-          <t>En el 2038 seremos reconocidos nacional e internacionalmente como un centro de investigación de referencia en los ecosistemas alto andinos y de páramo y como destino de naturaleza, que contribuye a la transformación del pensamiento ambiental para la sostenibilidad del territorio.</t>
+          <t>En el 2024 la Secretaría Distrital de Gobierno habrá puesto en marcha una nueva etapa renovada de participación ciudadana en Bogotá, resignificando el trabajo colaborativo entre la institucionalidad y la ciudadanía, construyendo comunidades empoderadas desde la convivencia pacífica, y fortaleciendo un gobierno local, cercano y transparente, con la implementación de mecanismos innovadores, una relación de confianza entorno al diálogo para la garantía de los derechos y el cumplimiento de los deberes de cada uno, de acuerdo con los compromisos establecidos en la alianza para el Gobierno Abierto.</t>
         </is>
       </c>
       <c r="CM44" t="n">
@@ -30708,12 +30708,12 @@
       </c>
       <c r="CK45" t="inlineStr">
         <is>
-          <t>Cultivar y enriquecer la ciudadanía, con la interpretación y enseñanza de nuestro nutrido y diverso repertorio, por medio de la música sinfónica y el canto lirico.</t>
+          <t>La Caja de la Vivienda Popular tiene como misión transformar y mejorar la vivienda, el hábitat y las condiciones de vida la población de estratos 1 y 2 de Bogotá Región, a través de la implementación de los programas de Reasentamientos, Titulación de Predios y Mejoramiento de Vivienda y de Barrios, en cuyo marco desarrolla intervenciones integrales y sostenibles que reconocen las particularidades del hábitat popular. La CVP promueve el ejercicio de los derechos ciudadanos, la participación activa de la ciudadanía y el goce efectivo de la ciudad, contribuyendo a la disminución de la segregación socio espacial de la ciudad y a la mitigación de los impactos ambientales que genera la ocupación del territorio de la ciudad y su región.</t>
         </is>
       </c>
       <c r="CL45" t="inlineStr">
         <is>
-          <t>En el año 2024 la Orquesta Filarmónica de Bogotá será un referente musical y educativo en Colombia por la calidad de sus agrupaciones musicales, de sus procesos de formación musical y por la diversidad y acogida de su repertorio musical.</t>
+          <t>En 2024 la Caja de la Vivienda Popular será reconocida por su liderazgo e impacto en el mejoramiento integral de la vivienda y la calidad de vida de los hogares de estratos 1 y 2 de Bogotá Región, y por generar, a través de su conocimiento del hábitat popular, procesos sostenibles de construcción y transformación del hábitat, que aporten a consolidar un nuevo contrato social y ambiental en la ciudad y su entorno.</t>
         </is>
       </c>
       <c r="CM45" t="n">
@@ -31386,12 +31386,12 @@
       </c>
       <c r="CK46" t="inlineStr">
         <is>
-          <t>Somos un organismo de control con enfoque integral e incluyente, que protege, defiende y promueve los derechos de las personas, controla la Función Pública y vigila la conducta oficial de los(as) servidores(as) públicos(as) en el Distrito Capital, para contribuir al cumplimiento de los fines del Estado. .</t>
+          <t>La UAECD aporta al mejoramiento de la calidad de vida de los ciudadanos, la toma de decisiones de política pública, la reducción de la inequidad y la focalización de la inversión, gestionando información georreferenciada, integral e interoperable, haciendo uso de tecnologías de punta, aplicando un modelo innovador con participación ciudadana en los procesos de formación, actualización, conservación y difusión de la información con enfoque multipropósito en calidad de gestor y operador catastral en el territorio nacional.</t>
         </is>
       </c>
       <c r="CL46" t="inlineStr">
         <is>
-          <t>La Personería de Bogotá, D. C., en el 2024, apoyada en el uso de tecnologías eficientes, un talento humano honesto y comprometido, a través del control y la colaboración armónica interinstitucional, será una Entidad garante de los derechos de las personas, donde prevalecerá el interés público, con atención oportuna, integral y efectiva; referente en innovación e investigación.</t>
+          <t>La UAECD en 2030 será referente latinoamericano y socio estratégico de las entidades nacionales y territoriales en la gestión y operación catastral multipropósito, con capacidad innovadora, experto talento humano, apropiación de tecnología y altos estándares de calidad, que consolide la Bogotá-Región inteligente y contribuya a la modernización del País en materia catastral.</t>
         </is>
       </c>
       <c r="CM46" t="n">
@@ -32064,12 +32064,12 @@
       </c>
       <c r="CK47" t="inlineStr">
         <is>
-          <t>Promover la oferta educativa en la ciudad para garantizar el acceso y la permanencia de los niños, niñas y jóvenes en el sistema educativo, en sus distintas formas, niveles y modalidades; la calidad y pertinencia de la educación, con el propósito de formar individuos capaces de vivir productiva, creativa y responsablemente en comunidad.</t>
+          <t>La Secretaría General de la Alcaldía Mayor de Bogotá, D.C., es la entidad líder del sector Gestión Pública que desarrolla condiciones para generar valor público, con el fin de lograr una ciudad moderna con un modelo de gobierno abierto, contribuir a la construcción de la paz y la reconciliación, y mejorar la calidad de vida de la ciudadanía.</t>
         </is>
       </c>
       <c r="CL47" t="inlineStr">
         <is>
-          <t>La SED garantizará el derecho a la educación de los niños, niñas y jóvenes de la ciudad, a través de colegios distritales modernos, humanos e incluyentes y de un proceso de formación democrático, participativo, permanente, personal, cultural y social.</t>
+          <t>En 2030 la Secretaría General de la Alcaldía Mayor de Bogotá, D.C., será reconocida por posicionar una gestión pública distrital moderna, eficiente, transparente y abierta, y por generar las condiciones necesarias para la consolidación de la paz y la reconciliación en Bogotá Región, a través de los valores institucionales y en diálogo permanente con la ciudadanía.</t>
         </is>
       </c>
       <c r="CM47" t="n">
@@ -32742,12 +32742,12 @@
       </c>
       <c r="CK48" t="inlineStr">
         <is>
-          <t>La Secretaria Distrital de Ambiente, como autoridad ambiental del Distrito Capital propende por el desarrollo sostenible de la ciudad, formulando promoviendo y orientando políticas, planes y programas que permitan la conservación, protección y recuperación del ambiente y de los bienes y servicios naturales de la Estructura Ecológica Principal y de las áreas de interés ambiental; para mejorar su calidad de vida, la relación entre la población y el entorno natural, el disfrute de los derechos fundamentales y colectivos del ambiente, respondiendo a las acciones encaminadas a  la adaptación y mitigación al cambio climático, reverdeciendo a Bogotá y promoviendo la participación de la ciudadanía en todas sus dimensiones y el cambio de los hábitos de vida.</t>
+          <t>La Secretaría Distrital de Gobierno lidera la convivencia pacífica, el ejercicio de la ciudadanía, la promoción de la organización y de la participación ciudadana, y la coordinación de las relaciones políticas de la Administración Distrital en sus distintos niveles, para fortalecer la gobernabilidad democrática en el ámbito distrital y local, y garantizar el goce efectivo de los derechos humanos y constitucionales.</t>
         </is>
       </c>
       <c r="CL48" t="inlineStr">
         <is>
-          <t>En el 2024 la Secretaría Distrital de Ambiente será reconocida por su gestión ambiental y el cumplimiento de los Objetivos de Desarrollo Sostenible-ODS relacionados con el uso adecuado de los recursos naturales, adaptación al cambio climático y conservación, protección y recuperación de las áreas de interés ambiental urbanas y rurales, mitigando el daño a los ecosistemas a través del crecimiento verde, la restauración y mantenimiento de áreas de la estructura ecológica principal entre otras áreas de interés ambiental, disminuyendo las afectaciones a la salud producidas por la contaminación del aire y reduciendo los factores de deterioro ambiental a través de la utilización de energías limpias, alternativas de movilización y los hábitos de producción y consumo en el Distrito, a fin de ofrecer una ciudad más sostenible, contribuyendo a la reordenación del territorio para las generaciones presentes y futuras, con estrategias de acción colectiva,  mejoramiento en la confianza y participación ciudadana.</t>
+          <t>En el 2024 la Secretaría Distrital de Gobierno habrá puesto en marcha una nueva etapa renovada de participación ciudadana en Bogotá, resignificando el trabajo colaborativo entre la institucionalidad y la ciudadanía, construyendo comunidades empoderadas desde la convivencia pacífica, y fortaleciendo un gobierno local, cercano y transparente, con la implementación de mecanismos innovadores, una relación de confianza entorno al diálogo para la garantía de los derechos y el cumplimiento de los deberes de cada uno, de acuerdo con los compromisos establecidos en la alianza para el Gobierno Abierto.</t>
         </is>
       </c>
       <c r="CM48" t="n">
@@ -33096,7 +33096,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Secretaria Distrital De Cultura, Recreacion Y Deporte</t>
+          <t>Secretaria Distrital De Cultura Recreacion Y Deporte</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -33420,12 +33420,12 @@
       </c>
       <c r="CK49" t="inlineStr">
         <is>
-          <t>"Liderar la formulación e implementación concertada de políticas públicas en arte, cultura, patrimonio, recreación y deporte, así como la transformación y sostenibilidad cultural y deportiva de la ciudad, garantizando los derechos culturales, reconociendo a los habitantes de Bogotá como creadores, agentes de cambio y el centro de todas nuestras acciones en la construcción de una ciudad creadora, cuidadora, consciente e incluyente".</t>
+          <t>Somos la Subred Integrada de Servicios de Salud Centro Oriente del Distrito Capital, prestamos servicios de salud en el marco de una gestión clínica segura con estándares superiores de calidad, trato humanizado, mejoramiento continuo, gestión interinstitucional e intersectorial, participación comunitaria y generación del conocimiento por medio de la investigación y la docencia para impactar las condiciones de salud de usuarios, familias y comunidades, con talento humano íntegro y calificado.</t>
         </is>
       </c>
       <c r="CL49" t="inlineStr">
         <is>
-          <t>“En el 2030, la Secretaría de Cultura, Recreación y Deporte será reconocida como líder en la transformación cultural de la ciudad, con capacidad de adaptación a las dinámicas de la ciudad, la democracia cultural, la inclusión de la dimensión recreo-deportiva y cultural, consolidando la internacionalización cultural y deportiva con la participación de creadores y gestores del sector, donde la cultura, el arte, el patrimonio, la recreación y el deporte seguirán siendo fundamentales en la calidad de vida de los habitantes de Bogotá, forjando una ciudad más consciente, incluyente y cuidadora”.</t>
+          <t>En el año 2024 seremos una Subred Integrada de Servicios de Salud reconocida por la gestión de las Rutas Integrales de Atención en Salud, la atención integral, diferencial, territorial, la docencia e investigación científica, el compromiso con la prestación de servicios seguros, humanizados, el cumplimiento de estándares superiores de calidad, y la satisfacción de los usuarios y sus familias.</t>
         </is>
       </c>
       <c r="CM49" t="n">
@@ -34098,12 +34098,12 @@
       </c>
       <c r="CK50" t="inlineStr">
         <is>
-          <t>Somos la entidad Distrital que lidera la formulación, gestión y ejecución de políticas de desarrollo económico, competitividad y economía rural, orientadas a promover y fortalecer las empresas y emprendedores, el abastecimiento alimentario y la promoción de empleo y de nuevos ingresos para los ciudadanos y ciudadanas en la Bogotá -Región.</t>
+          <t>Somos la primera entidad pública encargada de la protección y el bienestar animal, garantes de la vida de la Fauna en el Distrito Capital a través, de la formulación, implementación, seguimiento y evaluación de políticas públicas sectoriales e intersectoriales.</t>
         </is>
       </c>
       <c r="CL50" t="inlineStr">
         <is>
-          <t>La SDDE será reconocida en el año 2024 como una entidad efectiva en la implementación y en la gestión de políticas de desarrollo económico, orientadas a la inclusión productiva, el emprendimiento y la empleabilidad para alcanzar la reactivación y adaptación económica, a través del fortalecimiento y promoción de los corazones productivos y desarrollo de sectores de alto impacto, la innovación y la creatividad en la Bogotá-Región.</t>
+          <t>El Instituto Distrital de Protección y Bienestar Animal será referente a 2024, como la entidad rectora, modelo de gestión pública para la promoción del bienestar y prevención del maltrato animal en corresponsabilidad con la sociedad civil.</t>
         </is>
       </c>
       <c r="CM50" t="n">
@@ -34776,12 +34776,12 @@
       </c>
       <c r="CK51" t="inlineStr">
         <is>
-          <t>La Secretaría Distrital de Gobierno lidera la convivencia pacífica, el ejercicio de la ciudadanía, la promoción de la organización y de la participación ciudadana, y la coordinación de las relaciones políticas de la Administración Distrital en sus distintos niveles, para fortalecer la gobernabilidad democrática en el ámbito distrital y local, y garantizar el goce efectivo de los derechos humanos y constitucionales.</t>
+          <t>Proteger la vida, el ambiente y el patrimonio, a través de la gestión integral de riesgos de incendios, atención de rescates en todas sus modalidades e incidentes con materiales peligrosos en Bogotá y su entorno</t>
         </is>
       </c>
       <c r="CL51" t="inlineStr">
         <is>
-          <t>En el 2024 la Secretaría Distrital de Gobierno habrá puesto en marcha una nueva etapa renovada de participación ciudadana en Bogotá, resignificando el trabajo colaborativo entre la institucionalidad y la ciudadanía, construyendo comunidades empoderadas desde la convivencia pacífica, y fortaleciendo un gobierno local, cercano y transparente, con la implementación de mecanismos innovadores, una relación de confianza entorno al diálogo para la garantía de los derechos y el cumplimiento de los deberes de cada uno, de acuerdo con los compromisos establecidos en la alianza para el Gobierno Abierto.</t>
+          <t>Al 2030, ser el mejor cuerpo de bomberos de Colombia soportado en el compromiso de sus colaboradores y la confianza de los ciudadanos, reconocido a nivel mundial por su fortaleza técnica y capacidad de gestión.</t>
         </is>
       </c>
       <c r="CM51" t="n">
@@ -35454,12 +35454,12 @@
       </c>
       <c r="CK52" t="inlineStr">
         <is>
-          <t>Liderar la formulación e implementación de políticas de gestión del territorio urbano y rural, en el marco de un enfoque de desarrollo sostenible con el fin de facilitar el acceso a la vivienda y promover el mejoramiento integral del Hábitat en el Distrito Capital.</t>
+          <t>El Instituto para la Economía Social tiene como propósito ofertar alternativas de generación de ingresos a la población de la economía informal que ejerce sus actividades en el espacio público; así como administrar y desarrollar acciones de fortalecimiento del Sistema Distrital de Plazas de Mercado, para aportar al desarrollo económico de la ciudad.</t>
         </is>
       </c>
       <c r="CL52" t="inlineStr">
         <is>
-          <t>Ser la entidad líder en la transformación y sostenibilidad del Hábitat, a través de la innovación y el trabajo colaborativo, que permita mejorar las condiciones del territorio, promoviendo el acceso a soluciones habitacionales y a la prestación de servicios públicos en el Distrito Capital.</t>
+          <t>En el 2025, seremos reconocidos por aportar al trabajo decente y al mejoramiento de las condiciones sociales y productivas de la población de la economía informal, que contribuyan al crecimiento económico y reducción de las desigualdades de la ciudad, así mismo, contaremos con plazas de mercado posicionadas como lugares de encuentro ciudadano, abastecimiento de productos de calidad, referentes turísticos y gastronómicos del país.</t>
         </is>
       </c>
       <c r="CM52" t="n">
@@ -36128,12 +36128,12 @@
       </c>
       <c r="CK53" t="inlineStr">
         <is>
-          <t>La Secretaría Distrital de Hacienda tiene la misión de contribuir al desarrollo sostenible de Bogotá y al mejoramiento de la calidad de vida de sus habitantes, mediante una recaudación eficiente y distribución efectiva de recursos, para la implementación de políticas y proyectos de alto impacto.</t>
+          <t>La Secretaría Distrital de Gobierno lidera la convivencia pacífica, el ejercicio de la ciudadanía, la promoción de la organización y de la participación ciudadana, y la coordinación de las relaciones políticas de la Administración Distrital en sus distintos niveles, para fortalecer la gobernabilidad democrática en el ámbito distrital y local, y garantizar el goce efectivo de los derechos humanos y constitucionales.</t>
         </is>
       </c>
       <c r="CL53" t="inlineStr">
         <is>
-          <t>Para el 2030, la Secretaría Distrital de Hacienda fortalecerá la confianza de los ciudadanos y contribuyentes a través de la visibilización de un gasto público efectivo, de calidad y transparente, para la construcción colectiva de una ciudad desarrollada y sostenible.</t>
+          <t>En el 2024 la Secretaría Distrital de Gobierno habrá puesto en marcha una nueva etapa renovada de participación ciudadana en Bogotá, resignificando el trabajo colaborativo entre la institucionalidad y la ciudadanía, construyendo comunidades empoderadas desde la convivencia pacífica, y fortaleciendo un gobierno local, cercano y transparente, con la implementación de mecanismos innovadores, una relación de confianza entorno al diálogo para la garantía de los derechos y el cumplimiento de los deberes de cada uno, de acuerdo con los compromisos establecidos en la alianza para el Gobierno Abierto.</t>
         </is>
       </c>
       <c r="CM53" t="n">
@@ -36806,12 +36806,12 @@
       </c>
       <c r="CK54" t="inlineStr">
         <is>
-          <t>La Secretaría Distrital de Integración Social, es una entidad pública de nivel central de la ciudad de Bogotá, líder del sector social, responsable de la formulación e implementación de políticas públicas poblacionales orientadas al ejercicio de derechos, ofrece servicios sociales y promueve de forma articulada, la inclusión social, el desarrollo de capacidades y la mejora en la calidad de vida de la población en mayor condición de vulnerabilidad, con un enfoque territorial.</t>
+          <t>Gestionar el desarrollo del Sistema Integrado de Transporte Público en Bogotá, en el marco del Plan Maestro de Movilidad, con estándares de calidad, dignidad y comodidad, con criterios de intermodalidad, con sostenibilidad financiera y ambiental, con una orientación hacia el mejoramiento de la calidad de vida de los usuarios y procurando la integración de la ciudad con la Región.</t>
         </is>
       </c>
       <c r="CL54" t="inlineStr">
         <is>
-          <t>La Secretaría Distrital de Integración Social será en el año 2030, una entidad líder, a nivel nacional, en materia de política social y un referente en la promoción de derechos, por contribuir a la inclusión social, al desarrollo de capacidades y a la prestación de los servicios sociales de alta calidad, a través de la transformación de los servicios sociales, la modernización institucional y una estrategia territorial integral social que responde a las necesidades sociales mediante acciones transectoriales, integradoras e innovadoras. Lo anterior para hacer de Bogotá una ciudad más cuidadora, incluyente, sostenible y consciente.</t>
+          <t>En el 2023, el Sistema Integrado de Transporte Público gestionado por TRANSMILENIO S.A. tendrá cobertura en toda la ciudad. La sostenibilidad operacional, financiera y ambiental de este Sistema estará asegurada mediante políticas públicas Distritales y Nacionales de movilidad y fuentes de financiamiento determinadas por las autoridades competentes.</t>
         </is>
       </c>
       <c r="CM54" t="n">
@@ -37484,12 +37484,12 @@
       </c>
       <c r="CK55" t="inlineStr">
         <is>
-          <t>Liderar, orientar y coordinar la formulación, implementación, seguimiento y evaluación de la Política Pública de Mujeres y Equidad de Género, así como la transversalización de los enfoques de derechos de las mujeres, de género y diferencial, en los planes, programas, proyectos y políticas públicas distritales, para la protección, garantía y materialización de los derechos humanos de las mujeres en las diferencias y diversidades que las constituyen, promoviendo su autonomía y el ejercicio pleno de su ciudadanía en el Distrito Capital</t>
+          <t>La Secretaría Distrital de Gobierno lidera la convivencia pacífica, el ejercicio de la ciudadanía, la promoción de la organización y de la participación ciudadana, y la coordinación de las relaciones políticas de la Administración Distrital en sus distintos niveles, para fortalecer la gobernabilidad democrática en el ámbito distrital y local, y garantizar el goce efectivo de los derechos humanos y constitucionales.</t>
         </is>
       </c>
       <c r="CL55" t="inlineStr">
         <is>
-          <t>La Secretaría Distrital de la Mujer en el año 2027 será reconocida distrital, nacional e internacionalmente por su contribución al reconocimiento, la garantía y el restablecimiento de los derechos humanos de las mujeres y al logro de la igualdad de género, incorporando efectivamente los enfoques de derechos de las mujeres, de género y diferencial en las políticas públicas y el quehacer institucional de la Administración distrital.</t>
+          <t>En el 2024 la Secretaría Distrital de Gobierno habrá puesto en marcha una nueva etapa renovada de participación ciudadana en Bogotá, resignificando el trabajo colaborativo entre la institucionalidad y la ciudadanía, construyendo comunidades empoderadas desde la convivencia pacífica, y fortaleciendo un gobierno local, cercano y transparente, con la implementación de mecanismos innovadores, una relación de confianza entorno al diálogo para la garantía de los derechos y el cumplimiento de los deberes de cada uno, de acuerdo con los compromisos establecidos en la alianza para el Gobierno Abierto.</t>
         </is>
       </c>
       <c r="CM55" t="n">
@@ -38162,12 +38162,12 @@
       </c>
       <c r="CK56" t="inlineStr">
         <is>
-          <t>La Secretaría Distrital de Movilidad como líder del sector, formula políticas e implementa estrategias de movilidad multimodal, incluyente y sostenible que contribuyen a la equidad y mejoran la calidad de vida de la ciudadanía y la seguridad de los actores viales, potenciando la productividad, la competitividad y la integración de Bogotá y la región, con una gestión íntegra y transparente.</t>
+          <t>La Secretaría Distrital de Gobierno lidera la convivencia pacífica, el ejercicio de la ciudadanía, la promoción de la organización y de la participación ciudadana, y la coordinación de las relaciones políticas de la Administración Distrital en sus distintos niveles, para fortalecer la gobernabilidad democrática en el ámbito distrital y local, y garantizar el goce efectivo de los derechos humanos y constitucionales.</t>
         </is>
       </c>
       <c r="CL56" t="inlineStr">
         <is>
-          <t>A 2030 la Secretaría Distrital de Movilidad de Bogotá D.C. será referente mundial en movilidad sostenible, accesible, equitativa, y segura mediante la promoción de cambios comportamentales en la ciudadanía y los actores viales, la incorporación de enfoques territorial, de género y diferencial, la distribución eficiente y equitativa del espacio público, el incremento de la satisfacción en las experiencias de viaje, y la transformación digital y virtual de los trámites y servicios, con un equipo humano comprometido y competente</t>
+          <t>En el 2024 la Secretaría Distrital de Gobierno habrá puesto en marcha una nueva etapa renovada de participación ciudadana en Bogotá, resignificando el trabajo colaborativo entre la institucionalidad y la ciudadanía, construyendo comunidades empoderadas desde la convivencia pacífica, y fortaleciendo un gobierno local, cercano y transparente, con la implementación de mecanismos innovadores, una relación de confianza entorno al diálogo para la garantía de los derechos y el cumplimiento de los deberes de cada uno, de acuerdo con los compromisos establecidos en la alianza para el Gobierno Abierto.</t>
         </is>
       </c>
       <c r="CM56" t="n">
@@ -38836,12 +38836,12 @@
       </c>
       <c r="CK57" t="inlineStr">
         <is>
-          <t>En la SDP planeamos y orientamos la transformación - territorial, económica, social y ambiental – del distrito capital para mejorar el bienestar colectivo y la competitividad de nuestra ciudad región - incluyente, cuidadora, equitativa y solidaria -, a través de las políticas públicas, la participación ciudadana y una gestión pública efectiva, digital e innovadora.</t>
+          <t>El Instituto Distrital de Patrimonio Cultural promueve procesos de investigación, valoración, activación, salvaguardia, recuperación y divulgación del patrimonio cultural, material, inmaterial, natural y arqueológico, desde una perspectiva integral en la que el patrimonio se convierte en determinante del ordenamiento territorial, fortalece los vínculos sociales y cotidianos y contribuye al reconocimiento de Bogotá como una sociedad diversa y plural.</t>
         </is>
       </c>
       <c r="CL57" t="inlineStr">
         <is>
-          <t>En 2024 la SDP será reconocida por su gestión pública efectiva en la recuperación social y económica de Bogotá, en el contexto de la post-pandemia, gracias a una planeación integral del territorio, la articulación de políticas públicas y las acciones intersectoriales para el desarrollo sostenible del Distrito Capital.</t>
+          <t>Para el año 2024, el Instituto Distrital de Patrimonio Cultural se habrá consolidado como una plataforma de activación, apropiación, debate y salvaguardia del patrimonio cultural desde una perspectiva de integralidad, que reconoce las diversas maneras en que las poblaciones, sectores y territorios conciben sus patrimonios, como aporte al nuevo contrato social y a los procesos de ordenamiento territorial de Bogotá-Región.</t>
         </is>
       </c>
       <c r="CM57" t="n">
@@ -39514,12 +39514,12 @@
       </c>
       <c r="CK58" t="inlineStr">
         <is>
-          <t>Garantizar el derecho a la salud a través del modelo de atención integral incluyente, con enfoques poblacional-diferencial, de cultura ciudadana, de género, participativo, territorial y resolutivo, que contribuya al mejoramiento de la calidad de vida y de la salud de la población de la ciudad-región de Bogotá.</t>
+          <t>Somos el Fondo de Prestaciones Económicas, Cesantías y Pensiones de Bogotá, FONCEP, que garantiza el reconocimiento de los derechos prestacionales y el pago de las obligaciones pensionales a nuestros afiliados, con el fin de brindarles amparo en la vejez, invalidez y sobrevivencia a favor de sus beneficiarios.</t>
         </is>
       </c>
       <c r="CL58" t="inlineStr">
         <is>
-          <t>A 2024 la Secretaría Distrital de Salud será reconocida por la población de ​la ciudad-región de Bogotá por su liderazgo en el mejoramiento de las condiciones de los servicios de salud y de la calidad de vida.</t>
+          <t>A 2024 FONCEP habrá fortalecido la eficiencia de la gestión pensional del Distrito, a partir de su articulación integral y efectiva y la implementación de una política pública de atención al pensionado que potencie los beneficios y oportunidades para esta población.</t>
         </is>
       </c>
       <c r="CM58" t="n">
@@ -39868,7 +39868,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Secretaria Distrital De Seguridad, Convivencia Y Justicia</t>
+          <t>Secretaria Distrital De Seguridad Convivencia Y Justicia</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -40192,12 +40192,12 @@
       </c>
       <c r="CK59" t="inlineStr">
         <is>
-          <t>Liderar, planear, implementar y evaluar la política pública en materia de seguridad, convivencia y acceso a la justicia, así como gestionar los servicios de emergencias, para garantizar el ejercicio de los derechos y libertades de los ciudadanos del Distrito Capital.</t>
+          <t>La Secretaría Distrital de Gobierno lidera la convivencia pacífica, el ejercicio de la ciudadanía, la promoción de la organización y de la participación ciudadana, y la coordinación de las relaciones políticas de la Administración Distrital en sus distintos niveles, para fortalecer la gobernabilidad democrática en el ámbito distrital y local, y garantizar el goce efectivo de los derechos humanos y constitucionales.</t>
         </is>
       </c>
       <c r="CL59" t="inlineStr">
         <is>
-          <t>En 2024 la Secretaría Distrital de Seguridad,Convivencia y Justicia estará consolidada como el organismo distrital que lidera y articula, con otras entidades distritales y nacionales, la ejecución de las políticas en materia de seguridad, convivencia, acceso a la justicia, prevención del delito, reducción de riesgos yatención de incidentes.</t>
+          <t>En el 2024 la Secretaría Distrital de Gobierno habrá puesto en marcha una nueva etapa renovada de participación ciudadana en Bogotá, resignificando el trabajo colaborativo entre la institucionalidad y la ciudadanía, construyendo comunidades empoderadas desde la convivencia pacífica, y fortaleciendo un gobierno local, cercano y transparente, con la implementación de mecanismos innovadores, una relación de confianza entorno al diálogo para la garantía de los derechos y el cumplimiento de los deberes de cada uno, de acuerdo con los compromisos establecidos en la alianza para el Gobierno Abierto.</t>
         </is>
       </c>
       <c r="CM59" t="n">
@@ -40870,12 +40870,12 @@
       </c>
       <c r="CK60" t="inlineStr">
         <is>
-          <t>La Secretaría General de la Alcaldía Mayor de Bogotá, D.C., es la entidad líder del sector Gestión Pública que desarrolla condiciones para generar valor público, con el fin de lograr una ciudad moderna con un modelo de gobierno abierto, contribuir a la construcción de la paz y la reconciliación, y mejorar la calidad de vida de la ciudadanía.</t>
+          <t>La Secretaría Distrital de Gobierno lidera la convivencia pacífica, el ejercicio de la ciudadanía, la promoción de la organización y de la participación ciudadana, y la coordinación de las relaciones políticas de la Administración Distrital en sus distintos niveles, para fortalecer la gobernabilidad democrática en el ámbito distrital y local, y garantizar el goce efectivo de los derechos humanos y constitucionales.</t>
         </is>
       </c>
       <c r="CL60" t="inlineStr">
         <is>
-          <t>En 2030 la Secretaría General de la Alcaldía Mayor de Bogotá, D.C., será reconocida por posicionar una gestión pública distrital moderna, eficiente, transparente y abierta, y por generar las condiciones necesarias para la consolidación de la paz y la reconciliación en Bogotá Región, a través de los valores institucionales y en diálogo permanente con la ciudadanía.</t>
+          <t>En el 2024 la Secretaría Distrital de Gobierno habrá puesto en marcha una nueva etapa renovada de participación ciudadana en Bogotá, resignificando el trabajo colaborativo entre la institucionalidad y la ciudadanía, construyendo comunidades empoderadas desde la convivencia pacífica, y fortaleciendo un gobierno local, cercano y transparente, con la implementación de mecanismos innovadores, una relación de confianza entorno al diálogo para la garantía de los derechos y el cumplimiento de los deberes de cada uno, de acuerdo con los compromisos establecidos en la alianza para el Gobierno Abierto.</t>
         </is>
       </c>
       <c r="CM60" t="n">
@@ -41548,12 +41548,12 @@
       </c>
       <c r="CK61" t="inlineStr">
         <is>
-          <t>Somos la Secretaría Jurídica Distrital, que trabaja en defensa de los intereses de la ciudad, de manera íntegra, responsable y comprometida con el desarrollo sostenible de Bogotá D.C. Contamos con un equipo humano confiable, experto e innovador, que genera soluciones oportunas y efectivas, para el bienestar de todos los ciudadanos.</t>
+          <t>La Secretaría Distrital de Gobierno lidera la convivencia pacífica, el ejercicio de la ciudadanía, la promoción de la organización y de la participación ciudadana, y la coordinación de las relaciones políticas de la Administración Distrital en sus distintos niveles, para fortalecer la gobernabilidad democrática en el ámbito distrital y local, y garantizar el goce efectivo de los derechos humanos y constitucionales.</t>
         </is>
       </c>
       <c r="CL61" t="inlineStr">
         <is>
-          <t>Contribuir a la protección de los intereses y patrimonio público distrital, con soluciones jurídicas integrales para el bienestar de todos los habitantes de la ciudad.</t>
+          <t>En el 2024 la Secretaría Distrital de Gobierno habrá puesto en marcha una nueva etapa renovada de participación ciudadana en Bogotá, resignificando el trabajo colaborativo entre la institucionalidad y la ciudadanía, construyendo comunidades empoderadas desde la convivencia pacífica, y fortaleciendo un gobierno local, cercano y transparente, con la implementación de mecanismos innovadores, una relación de confianza entorno al diálogo para la garantía de los derechos y el cumplimiento de los deberes de cada uno, de acuerdo con los compromisos establecidos en la alianza para el Gobierno Abierto.</t>
         </is>
       </c>
       <c r="CM61" t="n">
@@ -42222,12 +42222,12 @@
       </c>
       <c r="CK62" t="inlineStr">
         <is>
-          <t>Somos la Subred Integrada de Servicios de Salud Centro Oriente del Distrito Capital, prestamos servicios de salud en el marco de una gestión clínica segura con estándares superiores de calidad, trato humanizado, mejoramiento continuo, gestión interinstitucional e intersectorial, participación comunitaria y generación del conocimiento por medio de la investigación y la docencia para impactar las condiciones de salud de usuarios, familias y comunidades, con talento humano íntegro y calificado.</t>
+          <t>La Secretaría Distrital de Gobierno lidera la convivencia pacífica, el ejercicio de la ciudadanía, la promoción de la organización y de la participación ciudadana, y la coordinación de las relaciones políticas de la Administración Distrital en sus distintos niveles, para fortalecer la gobernabilidad democrática en el ámbito distrital y local, y garantizar el goce efectivo de los derechos humanos y constitucionales.</t>
         </is>
       </c>
       <c r="CL62" t="inlineStr">
         <is>
-          <t>En el año 2024 seremos una Subred Integrada de Servicios de Salud reconocida por la gestión de las Rutas Integrales de Atención en Salud, la atención integral, diferencial, territorial, la docencia e investigación científica, el compromiso con la prestación de servicios seguros, humanizados, el cumplimiento de estándares superiores de calidad, y la satisfacción de los usuarios y sus familias.</t>
+          <t>En el 2024 la Secretaría Distrital de Gobierno habrá puesto en marcha una nueva etapa renovada de participación ciudadana en Bogotá, resignificando el trabajo colaborativo entre la institucionalidad y la ciudadanía, construyendo comunidades empoderadas desde la convivencia pacífica, y fortaleciendo un gobierno local, cercano y transparente, con la implementación de mecanismos innovadores, una relación de confianza entorno al diálogo para la garantía de los derechos y el cumplimiento de los deberes de cada uno, de acuerdo con los compromisos establecidos en la alianza para el Gobierno Abierto.</t>
         </is>
       </c>
       <c r="CM62" t="n">
@@ -42900,12 +42900,12 @@
       </c>
       <c r="CK63" t="inlineStr">
         <is>
-          <t>Somos una Empresa Social del Estado innovadora y socialmente responsable, que presta servicios de salud integrales y de calidad, con participación activa en la formación de talento humano y desarrollo de la docencia y la investigación, contribuyendo al mejoramiento de la calidad de vida de la población.</t>
+          <t>La Secretaría Distrital de Gobierno lidera la convivencia pacífica, el ejercicio de la ciudadanía, la promoción de la organización y de la participación ciudadana, y la coordinación de las relaciones políticas de la Administración Distrital en sus distintos niveles, para fortalecer la gobernabilidad democrática en el ámbito distrital y local, y garantizar el goce efectivo de los derechos humanos y constitucionales.</t>
         </is>
       </c>
       <c r="CL63" t="inlineStr">
         <is>
-          <t>Para el 2030, la Subred Norte será reconocida como la Empresa Social del Estado, líder en la prestación de servicios asistenciales de excelencia, centrada en la persona, con atención humanizada, a través de la formación del talento humano asistencial y administrativo de alta calidad, inspirada por la docencia, la investigación y el desarrollo. Tendremos un modelo de gestión económico, ambientalmente sostenible, generador de equidad y legitimidad social..</t>
+          <t>En el 2024 la Secretaría Distrital de Gobierno habrá puesto en marcha una nueva etapa renovada de participación ciudadana en Bogotá, resignificando el trabajo colaborativo entre la institucionalidad y la ciudadanía, construyendo comunidades empoderadas desde la convivencia pacífica, y fortaleciendo un gobierno local, cercano y transparente, con la implementación de mecanismos innovadores, una relación de confianza entorno al diálogo para la garantía de los derechos y el cumplimiento de los deberes de cada uno, de acuerdo con los compromisos establecidos en la alianza para el Gobierno Abierto.</t>
         </is>
       </c>
       <c r="CM63" t="n">
@@ -43578,12 +43578,12 @@
       </c>
       <c r="CK64" t="inlineStr">
         <is>
-          <t>La Subred Integrada de Servicios de Salud Sur E.S.E., presta Servicios de Salud a través de un Modelo de Atención Integral en Red, bajo los enfoques de gestión integral del riesgo y seguridad, fortaleciendo la formación académica orientada a la investigación científica e innovación, con un talento humano comprometido, humanizado y competente que contribuye al mejoramiento de las condiciones de salud de nuestros usuarios urbanos y rurales de las localidades de Usme, Ciudad Bolívar, Tunjuelito y Sumapaz.</t>
+          <t>La Secretaría Distrital de Gobierno lidera la convivencia pacífica, el ejercicio de la ciudadanía, la promoción de la organización y de la participación ciudadana, y la coordinación de las relaciones políticas de la Administración Distrital en sus distintos niveles, para fortalecer la gobernabilidad democrática en el ámbito distrital y local, y garantizar el goce efectivo de los derechos humanos y constitucionales.</t>
         </is>
       </c>
       <c r="CL64" t="inlineStr">
         <is>
-          <t>En el año 2024 seremos una Empresa Social del Estado referente en el Distrito por la prestación de servicios de salud con estándares superiores de calidad, consolidada, sostenible, referente en investigación, docencia e innovación, con enfoque diferencial, territorial y comunitario, que promueven el cambio, la intersectorialidad, impactando positivamente la salud y calidad de vida de nuestros usuarios.</t>
+          <t>En el 2024 la Secretaría Distrital de Gobierno habrá puesto en marcha una nueva etapa renovada de participación ciudadana en Bogotá, resignificando el trabajo colaborativo entre la institucionalidad y la ciudadanía, construyendo comunidades empoderadas desde la convivencia pacífica, y fortaleciendo un gobierno local, cercano y transparente, con la implementación de mecanismos innovadores, una relación de confianza entorno al diálogo para la garantía de los derechos y el cumplimiento de los deberes de cada uno, de acuerdo con los compromisos establecidos en la alianza para el Gobierno Abierto.</t>
         </is>
       </c>
       <c r="CM64" t="n">
@@ -44256,12 +44256,12 @@
       </c>
       <c r="CK65" t="inlineStr">
         <is>
-          <t>Brindar servicios de salud con altos estándares de calidad, a través del Modelo de Atención Integral basado en Atención Primaria en Salud, gestión asistencial excelente, segura, humanizada, eficiente, promoción de la docencia, investigación e innovación con talento humano íntegro para contribuir al bienestar y calidad de vida de la población.</t>
+          <t>La Secretaría Distrital de Gobierno lidera la convivencia pacífica, el ejercicio de la ciudadanía, la promoción de la organización y de la participación ciudadana, y la coordinación de las relaciones políticas de la Administración Distrital en sus distintos niveles, para fortalecer la gobernabilidad democrática en el ámbito distrital y local, y garantizar el goce efectivo de los derechos humanos y constitucionales.</t>
         </is>
       </c>
       <c r="CL65" t="inlineStr">
         <is>
-          <t>En el año 2030, la Subred Sur Occidente será reconocida a nivel nacional por su modelo de atención con enfoque diferencial, de género, territorial y participativo, logrando estándares superiores de calidad, promoviendo la docencia, investigación e innovación, auto sostenibilidad y gestión ambiental, fomentando el bienestar de los colaboradores de tal manera que impacté positivamente en la calidad de vida de la ciudadanía.</t>
+          <t>En el 2024 la Secretaría Distrital de Gobierno habrá puesto en marcha una nueva etapa renovada de participación ciudadana en Bogotá, resignificando el trabajo colaborativo entre la institucionalidad y la ciudadanía, construyendo comunidades empoderadas desde la convivencia pacífica, y fortaleciendo un gobierno local, cercano y transparente, con la implementación de mecanismos innovadores, una relación de confianza entorno al diálogo para la garantía de los derechos y el cumplimiento de los deberes de cada uno, de acuerdo con los compromisos establecidos en la alianza para el Gobierno Abierto.</t>
         </is>
       </c>
       <c r="CM65" t="n">
@@ -44934,12 +44934,12 @@
       </c>
       <c r="CK66" t="inlineStr">
         <is>
-          <t>Proteger la vida, el ambiente y el patrimonio, a través de la gestión integral de riesgos de incendios, atención de rescates en todas sus modalidades e incidentes con materiales peligrosos en Bogotá y su entorno</t>
+          <t>La Secretaría Distrital de Gobierno lidera la convivencia pacífica, el ejercicio de la ciudadanía, la promoción de la organización y de la participación ciudadana, y la coordinación de las relaciones políticas de la Administración Distrital en sus distintos niveles, para fortalecer la gobernabilidad democrática en el ámbito distrital y local, y garantizar el goce efectivo de los derechos humanos y constitucionales.</t>
         </is>
       </c>
       <c r="CL66" t="inlineStr">
         <is>
-          <t>Al 2030, ser el mejor cuerpo de bomberos de Colombia soportado en el compromiso de sus colaboradores y la confianza de los ciudadanos, reconocido a nivel mundial por su fortaleza técnica y capacidad de gestión.</t>
+          <t>En el 2024 la Secretaría Distrital de Gobierno habrá puesto en marcha una nueva etapa renovada de participación ciudadana en Bogotá, resignificando el trabajo colaborativo entre la institucionalidad y la ciudadanía, construyendo comunidades empoderadas desde la convivencia pacífica, y fortaleciendo un gobierno local, cercano y transparente, con la implementación de mecanismos innovadores, una relación de confianza entorno al diálogo para la garantía de los derechos y el cumplimiento de los deberes de cada uno, de acuerdo con los compromisos establecidos en la alianza para el Gobierno Abierto.</t>
         </is>
       </c>
       <c r="CM66" t="n">
@@ -45612,12 +45612,12 @@
       </c>
       <c r="CK67" t="inlineStr">
         <is>
-          <t>La UAECD aporta al mejoramiento de la calidad de vida de los ciudadanos, la toma de decisiones de política pública, la reducción de la inequidad y la focalización de la inversión, gestionando información georreferenciada, integral e interoperable, haciendo uso de tecnologías de punta, aplicando un modelo innovador con participación ciudadana en los procesos de formación, actualización, conservación y difusión de la información con enfoque multipropósito en calidad de gestor y operador catastral en el territorio nacional.</t>
+          <t>La Secretaría Distrital de Gobierno lidera la convivencia pacífica, el ejercicio de la ciudadanía, la promoción de la organización y de la participación ciudadana, y la coordinación de las relaciones políticas de la Administración Distrital en sus distintos niveles, para fortalecer la gobernabilidad democrática en el ámbito distrital y local, y garantizar el goce efectivo de los derechos humanos y constitucionales.</t>
         </is>
       </c>
       <c r="CL67" t="inlineStr">
         <is>
-          <t>La UAECD en 2030 será referente latinoamericano y socio estratégico de las entidades nacionales y territoriales en la gestión y operación catastral multipropósito, con capacidad innovadora, experto talento humano, apropiación de tecnología y altos estándares de calidad, que consolide la Bogotá-Región inteligente y contribuya a la modernización del País en materia catastral.</t>
+          <t>En el 2024 la Secretaría Distrital de Gobierno habrá puesto en marcha una nueva etapa renovada de participación ciudadana en Bogotá, resignificando el trabajo colaborativo entre la institucionalidad y la ciudadanía, construyendo comunidades empoderadas desde la convivencia pacífica, y fortaleciendo un gobierno local, cercano y transparente, con la implementación de mecanismos innovadores, una relación de confianza entorno al diálogo para la garantía de los derechos y el cumplimiento de los deberes de cada uno, de acuerdo con los compromisos establecidos en la alianza para el Gobierno Abierto.</t>
         </is>
       </c>
       <c r="CM67" t="n">
@@ -46290,12 +46290,12 @@
       </c>
       <c r="CK68" t="inlineStr">
         <is>
-          <t>Somos una entidad técnica descentralizada y adscrita al sector movilidad de Bogotá D.C, encargada de conservar la malla vial local, intermedia y rural, así como la ciclo-infraestructura y de atender situaciones imprevistas que dificultan la movilidad. Además, brindamos apoyo interinstitucional y realizamos obras complementarias para la mejora de la seguridad vial y la adecuación del espacio público peatonal cuando sea requerido, con el fin de mejorar la calidad de vida de los ciudadanos.</t>
+          <t>"Liderar la formulación e implementación concertada de políticas públicas en arte, cultura, patrimonio, recreación y deporte, así como la transformación y sostenibilidad cultural y deportiva de la ciudad, garantizando los derechos culturales, reconociendo a los habitantes de Bogotá como creadores, agentes de cambio y el centro de todas nuestras acciones en la construcción de una ciudad creadora, cuidadora, consciente e incluyente".</t>
         </is>
       </c>
       <c r="CL68" t="inlineStr">
         <is>
-          <t>En el 2030 seremos una entidad reconocida por su gestión eficiente para el mejoramiento del subsistema vial, con total autonomía presupuestal y referente nacional e internacional por el desarrollo de un modelo sostenible de conservación que genera valor público y facilita la conectividad multimodal para el uso y disfrute de los habitantes de la ciudad-región</t>
+          <t>“En el 2030, la Secretaría de Cultura, Recreación y Deporte será reconocida como líder en la transformación cultural de la ciudad, con capacidad de adaptación a las dinámicas de la ciudad, la democracia cultural, la inclusión de la dimensión recreo-deportiva y cultural, consolidando la internacionalización cultural y deportiva con la participación de creadores y gestores del sector, donde la cultura, el arte, el patrimonio, la recreación y el deporte seguirán siendo fundamentales en la calidad de vida de los habitantes de Bogotá, forjando una ciudad más consciente, incluyente y cuidadora”.</t>
         </is>
       </c>
       <c r="CM68" t="n">
@@ -46968,12 +46968,12 @@
       </c>
       <c r="CK69" t="inlineStr">
         <is>
-          <t>Garantizar en el Distrito Capital la prestación, coordinación, supervisión, gestión, monitoreo y control de los servicios públicos de aseo en sus componentes (recolección, barrido y limpieza, disposición final y aprovechamiento de residuos sólidos), los residuos de construcción y demolición, los servicios funerarios y el servicio de alumbrado público; defendiendo el carácter público de la infraestructura propiedad del Distrito, promoviendo la participación ciudadana en la gestión pública, mejorando la calidad de vida de sus ciudadanos y el cuidado del medio ambiente a través de la planeación y modelación de los servicios a cargo.</t>
+          <t>El IDIGER emprende acciones y genera lineamientos para la gestión del riesgo de desastres y la adaptación al cambio climático, en el marco de la coordinación del SDGR-CC en el Distrito Capital, con el fin de proteger a las personas en situación de riesgo y lograr el desarrollo sostenible de Bogotá D.C.</t>
         </is>
       </c>
       <c r="CL69" t="inlineStr">
         <is>
-          <t>La Unidad Administrativa Especial de Servicios Públicos, en el 2024 será una entidad líder a nivel nacional en el manejo integral de residuos sólidos en torno a un modelo de economía circular sostenible; la modernización del alumbrado público y la prestación de servicios funerarios en los cementerios propiedad del Distrito, a través de ejercicios de participación ciudadana, con enfoque poblacional y diferencial en el marco de ciudad inteligente y Bogotá-Región.</t>
+          <t>En el 2030 el Distrito contará con mejores capacidades para gestionar el riesgo de desastres y los efectos del cambio climático, mediante la intervención del territorio y coordinación efectiva del SDGR-CC por parte del IDIGER, para la construcción de una ciudad resiliente.</t>
         </is>
       </c>
       <c r="CM69" t="n">
@@ -48300,12 +48300,12 @@
       </c>
       <c r="CK71" t="inlineStr">
         <is>
-          <t>Defender los derechos ciudadanos y lo público mediante el control preventivo y la promoción de una activa participación ciudadana, con el propósito de garantizar la transparencia en beneficio del mejoramiento de la gestión pública distrital y la convivencia ciudadana.</t>
+          <t>Somos una entidad pública, del orden distrital, que genera condiciones innovadoras, institucionales, organizativas y culturales en Bogotá y la región, que incentivan, facilitan y fortalecen la participación y el empoderamiento como forma de mejorar el bienestar de la ciudadanía y sus comunidades.</t>
         </is>
       </c>
       <c r="CL71" t="inlineStr">
         <is>
-          <t>A 2024, la Veeduría Distrital será reconocida por su alta capacidad para garantizar los derechos de los ciudadanos de Bogotá, ejerciendo un control preventivo de la gestión de las entidades del distrito y empoderando a la ciudadanía para el ejercicio del control social.</t>
+          <t>En el 2030, el IDPAC será reconocido local, nacional e internacionalmente, como la entidad líder en la promoción e investigación de la participación ciudadana en el Distrito Capital, así como en producción de técnicas y metodologías de fortalecimiento organizativo, que aportan a la cultura democrática, inclusiva, intercultural y con equidad de género y a incrementar la capacidad de incidencia de la ciudadanía en la gestión pública y el control social.</t>
         </is>
       </c>
       <c r="CM71" t="n">

--- a/files/respuestas/2023/respuestas_2023.xlsx
+++ b/files/respuestas/2023/respuestas_2023.xlsx
@@ -24286,7 +24286,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Instituto Distrital De Participacion Y Accion Comunal Idpac</t>
+          <t>Instituto Distrital De Participacion Y Accion Comunal</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">

--- a/files/respuestas/2023/respuestas_2023.xlsx
+++ b/files/respuestas/2023/respuestas_2023.xlsx
@@ -23570,79 +23570,79 @@
         <v>0</v>
       </c>
       <c r="CN34">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="CO34">
         <v>0</v>
       </c>
       <c r="CP34">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="CQ34">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="CR34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT34">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="CU34">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="CV34">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="CW34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY34">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="CZ34">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="DA34">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="DB34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DC34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DD34">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="DE34">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="DF34">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="DG34">
         <v>0</v>
       </c>
       <c r="DH34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DI34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DJ34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DK34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DL34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DM34">
         <v>0</v>
@@ -32812,16 +32812,16 @@
         <v>0</v>
       </c>
       <c r="CN50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CO50">
         <v>0</v>
       </c>
       <c r="CP50">
-        <v>0</v>
+        <v>0.9333333333333332</v>
       </c>
       <c r="CQ50">
-        <v>0</v>
+        <v>3.93</v>
       </c>
       <c r="CR50">
         <v>0</v>
@@ -39158,7 +39158,7 @@
         <v>0</v>
       </c>
       <c r="CN61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CO61">
         <v>0</v>
@@ -39167,7 +39167,7 @@
         <v>0</v>
       </c>
       <c r="CQ61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CR61">
         <v>0</v>

--- a/files/respuestas/2023/respuestas_2023.xlsx
+++ b/files/respuestas/2023/respuestas_2023.xlsx
@@ -27820,22 +27820,22 @@
         <v>0</v>
       </c>
       <c r="CN41" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="CO41" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="CP41" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="CQ41" t="n">
-        <v>0</v>
+        <v>2.87</v>
       </c>
       <c r="CR41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT41" t="n">
         <v>0</v>
@@ -27847,19 +27847,19 @@
         <v>0</v>
       </c>
       <c r="CW41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY41" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="CZ41" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="DA41" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="DB41" t="n">
         <v>0</v>

--- a/files/respuestas/2023/respuestas_2023.xlsx
+++ b/files/respuestas/2023/respuestas_2023.xlsx
@@ -44604,16 +44604,16 @@
         <v>0</v>
       </c>
       <c r="CN72">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="CO72">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="CP72">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="CQ72">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CR72">
         <v>0</v>

--- a/files/respuestas/2023/respuestas_2023.xlsx
+++ b/files/respuestas/2023/respuestas_2023.xlsx
@@ -44619,37 +44619,37 @@
         <v>0</v>
       </c>
       <c r="CS72">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="CT72">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="CU72">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CV72">
         <v>0</v>
       </c>
       <c r="CW72">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="CX72">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="CY72">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="CZ72">
         <v>0</v>
       </c>
       <c r="DA72">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="DB72">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="DC72">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DD72">
         <v>0</v>
@@ -44658,25 +44658,25 @@
         <v>0</v>
       </c>
       <c r="DF72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DG72">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="DH72">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="DI72">
         <v>0</v>
       </c>
       <c r="DJ72">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="DK72">
-        <v>0</v>
+        <v>0.07777777777777778</v>
       </c>
       <c r="DL72">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="DM72">
         <v>0</v>
@@ -44760,34 +44760,34 @@
         <v>0</v>
       </c>
       <c r="EN72">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="EO72">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="EP72">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="EQ72">
-        <v>0</v>
+        <v>0.3333</v>
       </c>
       <c r="ER72">
-        <v>0</v>
+        <v>3.49</v>
       </c>
       <c r="ES72">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="ET72">
         <v>0</v>
       </c>
       <c r="EU72">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="EV72">
         <v>0</v>
       </c>
       <c r="EW72">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="EX72">
         <v>0</v>
@@ -44813,23 +44813,20 @@
       <c r="FE72">
         <v>0</v>
       </c>
-      <c r="FF72">
-        <v>0</v>
-      </c>
       <c r="FG72">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FH72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FI72">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="FJ72">
         <v>0</v>
       </c>
       <c r="FK72">
-        <v>0</v>
+        <v>6.67</v>
       </c>
       <c r="FL72">
         <v>0</v>

--- a/files/respuestas/2023/respuestas_2023.xlsx
+++ b/files/respuestas/2023/respuestas_2023.xlsx
@@ -38591,7 +38591,7 @@
         <v>0</v>
       </c>
       <c r="ES61">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="ET61">
         <v>0</v>
@@ -38599,8 +38599,11 @@
       <c r="EU61">
         <v>0</v>
       </c>
+      <c r="EV61">
+        <v>0</v>
+      </c>
       <c r="EW61">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="EX61">
         <v>0</v>
@@ -44604,52 +44607,52 @@
         <v>0</v>
       </c>
       <c r="CN72">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="CO72">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="CP72">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="CQ72">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CR72">
         <v>0</v>
       </c>
       <c r="CS72">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="CT72">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="CU72">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CV72">
         <v>0</v>
       </c>
       <c r="CW72">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="CX72">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="CY72">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="CZ72">
         <v>0</v>
       </c>
       <c r="DA72">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="DB72">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="DC72">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="DD72">
         <v>0</v>
@@ -44658,25 +44661,25 @@
         <v>0</v>
       </c>
       <c r="DF72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DG72">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="DH72">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="DI72">
         <v>0</v>
       </c>
       <c r="DJ72">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="DK72">
-        <v>0.07777777777777778</v>
+        <v>0</v>
       </c>
       <c r="DL72">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="DM72">
         <v>0</v>
@@ -44760,34 +44763,34 @@
         <v>0</v>
       </c>
       <c r="EN72">
-        <v>2.33</v>
+        <v>0</v>
       </c>
       <c r="EO72">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="EP72">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="EQ72">
-        <v>0.3333</v>
+        <v>0</v>
       </c>
       <c r="ER72">
-        <v>3.49</v>
+        <v>0</v>
       </c>
       <c r="ES72">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="ET72">
         <v>0</v>
       </c>
       <c r="EU72">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="EV72">
         <v>0</v>
       </c>
       <c r="EW72">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="EX72">
         <v>0</v>
@@ -44813,20 +44816,23 @@
       <c r="FE72">
         <v>0</v>
       </c>
+      <c r="FF72">
+        <v>0</v>
+      </c>
       <c r="FG72">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FH72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FI72">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="FJ72">
         <v>0</v>
       </c>
       <c r="FK72">
-        <v>6.67</v>
+        <v>0</v>
       </c>
       <c r="FL72">
         <v>0</v>

--- a/files/respuestas/2023/respuestas_2023.xlsx
+++ b/files/respuestas/2023/respuestas_2023.xlsx
@@ -16825,16 +16825,16 @@
         <v>0</v>
       </c>
       <c r="CN23">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="CO23">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="CP23">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="CQ23">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="CR23">
         <v>0</v>
@@ -16852,25 +16852,25 @@
         <v>0</v>
       </c>
       <c r="CW23">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="CX23">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="CY23">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="CZ23">
         <v>0</v>
       </c>
       <c r="DA23">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="DB23">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="DC23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DD23">
         <v>0</v>
@@ -16879,106 +16879,106 @@
         <v>0</v>
       </c>
       <c r="DF23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DG23">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="DH23">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="DI23">
         <v>0</v>
       </c>
       <c r="DJ23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DK23">
-        <v>0</v>
+        <v>1.766666666666667</v>
       </c>
       <c r="DL23">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="DM23">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="DN23">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="DO23">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="DP23">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="DQ23">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="DR23">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="DS23">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="DT23">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="DU23">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="DV23">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="DW23">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="DX23">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="DY23">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="DZ23">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="EA23">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="EB23">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="EC23">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="ED23">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="EE23">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="EF23">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="EG23">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="EH23">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="EI23">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="EJ23">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="EK23">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="EL23">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="EM23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EN23">
         <v>0</v>

--- a/files/respuestas/2023/respuestas_2023.xlsx
+++ b/files/respuestas/2023/respuestas_2023.xlsx
@@ -16981,19 +16981,19 @@
         <v>1</v>
       </c>
       <c r="EN23">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="EO23">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="EP23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="ES23">
         <v>0</v>
@@ -17002,37 +17002,37 @@
         <v>0</v>
       </c>
       <c r="EU23">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="EV23">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="EW23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EX23">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="EY23">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="EZ23">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="FA23">
         <v>0</v>
       </c>
       <c r="FB23">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="FC23">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="FD23">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="FE23">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="FF23">
         <v>0</v>

--- a/files/respuestas/2023/respuestas_2023.xlsx
+++ b/files/respuestas/2023/respuestas_2023.xlsx
@@ -17035,13 +17035,13 @@
         <v>0.5</v>
       </c>
       <c r="FF23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FG23">
         <v>0</v>
       </c>
       <c r="FH23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FI23">
         <v>0</v>
@@ -17050,7 +17050,7 @@
         <v>0</v>
       </c>
       <c r="FK23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FL23">
         <v>0</v>

--- a/files/respuestas/2023/respuestas_2023.xlsx
+++ b/files/respuestas/2023/respuestas_2023.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Shared drives\VDLab\2023\ComponentesProyectoInversionLABcapital\3.ComponenteCoCreacion\2.Índice de Innovación Pública 2023\Seguimentos\000. Análisis 2023\app\files\respuestas\2023\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE20252-7AE7-4A47-896F-997CC4682D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -4303,11 +4309,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4371,13 +4377,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4415,7 +4429,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -4449,6 +4463,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4483,9 +4498,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4658,14 +4674,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:GN72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="BS49" workbookViewId="0">
+      <selection activeCell="CR27" sqref="CR27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:196">
+    <row r="1" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5255,12 +5273,12 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:196">
+    <row r="2" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45044.93631380787</v>
       </c>
       <c r="B2" s="2">
-        <v>45045.00013354167</v>
+        <v>45045.000133541667</v>
       </c>
       <c r="C2" t="s">
         <v>196</v>
@@ -5815,12 +5833,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:196">
+    <row r="3" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45026.54495221065</v>
       </c>
       <c r="B3" s="2">
-        <v>45026.57419282407</v>
+        <v>45026.574192824068</v>
       </c>
       <c r="C3" t="s">
         <v>197</v>
@@ -6354,12 +6372,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:196">
+    <row r="4" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45041.76510481482</v>
+        <v>45041.765104814818</v>
       </c>
       <c r="B4" s="2">
-        <v>45044.75104409723</v>
+        <v>45044.751044097233</v>
       </c>
       <c r="C4" t="s">
         <v>198</v>
@@ -6914,12 +6932,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:196">
+    <row r="5" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45041.45620697916</v>
+        <v>45041.456206979157</v>
       </c>
       <c r="B5" s="2">
-        <v>45042.54159910879</v>
+        <v>45042.541599108787</v>
       </c>
       <c r="C5" t="s">
         <v>199</v>
@@ -7453,12 +7471,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:196">
+    <row r="6" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45077.39844070602</v>
       </c>
       <c r="B6" s="2">
-        <v>45077.62087923611</v>
+        <v>45077.620879236107</v>
       </c>
       <c r="C6" t="s">
         <v>200</v>
@@ -7818,12 +7836,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:196">
+    <row r="7" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45037.44936074074</v>
+        <v>45037.449360740742</v>
       </c>
       <c r="B7" s="2">
-        <v>45043.70756351852</v>
+        <v>45043.707563518517</v>
       </c>
       <c r="C7" t="s">
         <v>200</v>
@@ -8324,12 +8342,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:196">
+    <row r="8" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45029.61037707176</v>
       </c>
       <c r="B8" s="2">
-        <v>45033.5908930787</v>
+        <v>45033.590893078697</v>
       </c>
       <c r="C8" t="s">
         <v>201</v>
@@ -8878,12 +8896,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:196">
+    <row r="9" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45044.8578365162</v>
+        <v>45044.857836516203</v>
       </c>
       <c r="B9" s="2">
-        <v>45044.93951991898</v>
+        <v>45044.939519918982</v>
       </c>
       <c r="C9" t="s">
         <v>202</v>
@@ -9438,12 +9456,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:196">
+    <row r="10" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45044.71532305556</v>
+        <v>45044.715323055563</v>
       </c>
       <c r="B10" s="2">
-        <v>45044.91229527778</v>
+        <v>45044.912295277783</v>
       </c>
       <c r="C10" t="s">
         <v>203</v>
@@ -9998,9 +10016,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:196">
+    <row r="11" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>45046.79635021991</v>
+        <v>45046.796350219913</v>
       </c>
       <c r="B11" s="2">
         <v>45046.8075193287</v>
@@ -10525,12 +10543,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:196">
+    <row r="12" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>44992.45036047454</v>
+        <v>44992.450360474541</v>
       </c>
       <c r="B12" s="2">
-        <v>44992.49751329861</v>
+        <v>44992.497513298607</v>
       </c>
       <c r="C12" t="s">
         <v>205</v>
@@ -11052,12 +11070,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:196">
+    <row r="13" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>45028.35961217593</v>
+        <v>45028.359612175933</v>
       </c>
       <c r="B13" s="2">
-        <v>45028.59017283565</v>
+        <v>45028.590172835648</v>
       </c>
       <c r="C13" t="s">
         <v>206</v>
@@ -11612,12 +11630,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:196">
+    <row r="14" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45044.75109943287</v>
       </c>
       <c r="B14" s="2">
-        <v>45044.9403215625</v>
+        <v>45044.940321562499</v>
       </c>
       <c r="C14" t="s">
         <v>207</v>
@@ -12172,12 +12190,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:196">
+    <row r="15" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>45044.53629361111</v>
+        <v>45044.536293611112</v>
       </c>
       <c r="B15" s="2">
-        <v>45044.69032594907</v>
+        <v>45044.690325949072</v>
       </c>
       <c r="C15" t="s">
         <v>208</v>
@@ -12732,12 +12750,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:196">
+    <row r="16" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>45044.965281875</v>
+        <v>45044.965281874996</v>
       </c>
       <c r="B16" s="2">
-        <v>45044.97005828704</v>
+        <v>45044.970058287043</v>
       </c>
       <c r="C16" t="s">
         <v>209</v>
@@ -13259,9 +13277,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:196">
+    <row r="17" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>45044.42249104167</v>
+        <v>45044.422491041667</v>
       </c>
       <c r="B17" s="2">
         <v>45044.76219134259</v>
@@ -13819,12 +13837,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:196">
+    <row r="18" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>44998.58608329861</v>
+        <v>44998.586083298607</v>
       </c>
       <c r="B18" s="2">
-        <v>44998.61791946759</v>
+        <v>44998.617919467593</v>
       </c>
       <c r="C18" t="s">
         <v>211</v>
@@ -13854,7 +13872,7 @@
         <v>547</v>
       </c>
       <c r="M18">
-        <v>2.789955953</v>
+        <v>2.7899559530000002</v>
       </c>
       <c r="N18">
         <v>3066764000</v>
@@ -14379,12 +14397,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:196">
+    <row r="19" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>45044.87554599537</v>
+        <v>45044.875545995368</v>
       </c>
       <c r="B19" s="2">
-        <v>45046.67649532407</v>
+        <v>45046.676495324071</v>
       </c>
       <c r="C19" t="s">
         <v>212</v>
@@ -14417,7 +14435,7 @@
         <v>3108420000</v>
       </c>
       <c r="N19">
-        <v>3.812474</v>
+        <v>3.8124739999999999</v>
       </c>
       <c r="O19" t="s">
         <v>564</v>
@@ -14927,12 +14945,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:196">
+    <row r="20" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>45045.38266</v>
+        <v>45045.382660000003</v>
       </c>
       <c r="B20" s="2">
-        <v>45045.47108498843</v>
+        <v>45045.471084988429</v>
       </c>
       <c r="C20" t="s">
         <v>213</v>
@@ -15487,12 +15505,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:196">
+    <row r="21" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>45043.32795006945</v>
+        <v>45043.327950069448</v>
       </c>
       <c r="B21" s="2">
-        <v>45043.36392701389</v>
+        <v>45043.363927013888</v>
       </c>
       <c r="C21" t="s">
         <v>214</v>
@@ -15525,7 +15543,7 @@
         <v>79.310164</v>
       </c>
       <c r="N21">
-        <v>74.549815</v>
+        <v>74.549814999999995</v>
       </c>
       <c r="O21" t="s">
         <v>566</v>
@@ -16026,12 +16044,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:196">
+    <row r="22" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>45028.5558618287</v>
+        <v>45028.555861828703</v>
       </c>
       <c r="B22" s="2">
-        <v>45044.86339704861</v>
+        <v>45044.863397048612</v>
       </c>
       <c r="C22" t="s">
         <v>215</v>
@@ -16580,12 +16598,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:196">
+    <row r="23" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>45015.40979217592</v>
+        <v>45015.409792175917</v>
       </c>
       <c r="B23" s="2">
-        <v>45043.53732634259</v>
+        <v>45043.537326342594</v>
       </c>
       <c r="C23" t="s">
         <v>216</v>
@@ -16894,7 +16912,7 @@
         <v>1</v>
       </c>
       <c r="DK23">
-        <v>1.766666666666667</v>
+        <v>1.7666666666666671</v>
       </c>
       <c r="DL23">
         <v>2.77</v>
@@ -17035,13 +17053,13 @@
         <v>0.5</v>
       </c>
       <c r="FF23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FG23">
         <v>0</v>
       </c>
       <c r="FH23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FI23">
         <v>0</v>
@@ -17050,7 +17068,7 @@
         <v>0</v>
       </c>
       <c r="FK23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FL23">
         <v>0</v>
@@ -17140,12 +17158,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:196">
+    <row r="24" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>45014.7137655787</v>
+        <v>45014.713765578701</v>
       </c>
       <c r="B24" s="2">
-        <v>45027.45004537037</v>
+        <v>45027.450045370373</v>
       </c>
       <c r="C24" t="s">
         <v>217</v>
@@ -17700,12 +17718,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:196">
+    <row r="25" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>45029.36165971064</v>
+        <v>45029.361659710637</v>
       </c>
       <c r="B25" s="2">
-        <v>45030.76774020834</v>
+        <v>45030.767740208343</v>
       </c>
       <c r="C25" t="s">
         <v>218</v>
@@ -18254,12 +18272,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:196">
+    <row r="26" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>45021.40911384259</v>
+        <v>45021.409113842587</v>
       </c>
       <c r="B26" s="2">
-        <v>45033.67735788194</v>
+        <v>45033.677357881941</v>
       </c>
       <c r="C26" t="s">
         <v>219</v>
@@ -18814,12 +18832,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:196">
+    <row r="27" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>45013.2965321412</v>
+        <v>45013.296532141198</v>
       </c>
       <c r="B27" s="2">
-        <v>45026.34906961805</v>
+        <v>45026.349069618052</v>
       </c>
       <c r="C27" t="s">
         <v>220</v>
@@ -19374,12 +19392,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:196">
+    <row r="28" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>45034.36042753472</v>
+        <v>45034.360427534717</v>
       </c>
       <c r="B28" s="2">
-        <v>45034.68700057871</v>
+        <v>45034.687000578713</v>
       </c>
       <c r="C28" t="s">
         <v>221</v>
@@ -19934,12 +19952,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:196">
+    <row r="29" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>45026.66386196759</v>
+        <v>45026.663861967587</v>
       </c>
       <c r="B29" s="2">
-        <v>45034.43459993056</v>
+        <v>45034.434599930559</v>
       </c>
       <c r="C29" t="s">
         <v>222</v>
@@ -20494,12 +20512,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:196">
+    <row r="30" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>45044.38643167824</v>
+        <v>45044.386431678242</v>
       </c>
       <c r="B30" s="2">
-        <v>45044.76830839121</v>
+        <v>45044.768308391212</v>
       </c>
       <c r="C30" t="s">
         <v>223</v>
@@ -20529,7 +20547,7 @@
         <v>547</v>
       </c>
       <c r="M30">
-        <v>152.129</v>
+        <v>152.12899999999999</v>
       </c>
       <c r="N30">
         <v>142.246557</v>
@@ -20547,10 +20565,10 @@
         <v>644</v>
       </c>
       <c r="U30">
-        <v>5.139862</v>
+        <v>5.1398619999999999</v>
       </c>
       <c r="V30">
-        <v>6.334562764</v>
+        <v>6.3345627640000002</v>
       </c>
       <c r="W30" t="s">
         <v>713</v>
@@ -21027,12 +21045,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:196">
+    <row r="31" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>45008.64189537037</v>
+        <v>45008.641895370369</v>
       </c>
       <c r="B31" s="2">
-        <v>45013.52313037037</v>
+        <v>45013.523130370369</v>
       </c>
       <c r="C31" t="s">
         <v>224</v>
@@ -21587,12 +21605,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:196">
+    <row r="32" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>45044.43303299769</v>
+        <v>45044.433032997687</v>
       </c>
       <c r="B32" s="2">
-        <v>45044.79629171296</v>
+        <v>45044.796291712963</v>
       </c>
       <c r="C32" t="s">
         <v>225</v>
@@ -21622,16 +21640,16 @@
         <v>547</v>
       </c>
       <c r="M32">
-        <v>259.965248563</v>
+        <v>259.96524856299999</v>
       </c>
       <c r="N32">
-        <v>655.182941424</v>
+        <v>655.18294142399998</v>
       </c>
       <c r="O32" t="s">
         <v>577</v>
       </c>
       <c r="Q32">
-        <v>44.750317</v>
+        <v>44.750317000000003</v>
       </c>
       <c r="R32">
         <v>33</v>
@@ -21640,19 +21658,19 @@
         <v>646</v>
       </c>
       <c r="U32">
-        <v>4.622788142</v>
+        <v>4.6227881420000001</v>
       </c>
       <c r="V32">
-        <v>5.238003413</v>
+        <v>5.2380034130000004</v>
       </c>
       <c r="W32" t="s">
         <v>715</v>
       </c>
       <c r="Y32">
-        <v>777.7741</v>
+        <v>777.77409999999998</v>
       </c>
       <c r="Z32">
-        <v>1.284940021</v>
+        <v>1.2849400209999999</v>
       </c>
       <c r="AA32" t="s">
         <v>784</v>
@@ -22147,9 +22165,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:196">
+    <row r="33" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>44992.84975866898</v>
+        <v>44992.849758668977</v>
       </c>
       <c r="B33" s="2">
         <v>45029.65544101852</v>
@@ -22707,12 +22725,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:196">
+    <row r="34" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>45028.60760491898</v>
       </c>
       <c r="B34" s="2">
-        <v>45034.49286185185</v>
+        <v>45034.492861851853</v>
       </c>
       <c r="C34" t="s">
         <v>227</v>
@@ -23267,12 +23285,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:196">
+    <row r="35" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>45048.46819488426</v>
+        <v>45048.468194884263</v>
       </c>
       <c r="B35" s="2">
-        <v>45048.58014174768</v>
+        <v>45048.580141747683</v>
       </c>
       <c r="C35" t="s">
         <v>228</v>
@@ -23827,9 +23845,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:196">
+    <row r="36" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>45027.37757625</v>
+        <v>45027.377576250001</v>
       </c>
       <c r="B36" s="2">
         <v>45028.67876185185</v>
@@ -24387,9 +24405,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:196">
+    <row r="37" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>45058.74154253472</v>
+        <v>45058.741542534721</v>
       </c>
       <c r="B37" s="2">
         <v>45059.01928803241</v>
@@ -24947,7 +24965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:196">
+    <row r="38" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>45044.31058675926</v>
       </c>
@@ -25507,12 +25525,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:196">
+    <row r="39" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>45044.21076591435</v>
+        <v>45044.210765914351</v>
       </c>
       <c r="B39" s="2">
-        <v>45044.30586908565</v>
+        <v>45044.305869085649</v>
       </c>
       <c r="C39" t="s">
         <v>232</v>
@@ -25551,10 +25569,10 @@
         <v>584</v>
       </c>
       <c r="Q39">
-        <v>48.03726</v>
+        <v>48.037260000000003</v>
       </c>
       <c r="R39">
-        <v>51.524772</v>
+        <v>51.524771999999999</v>
       </c>
       <c r="S39" t="s">
         <v>653</v>
@@ -26067,12 +26085,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:196">
+    <row r="40" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>45029.48608826389</v>
       </c>
       <c r="B40" s="2">
-        <v>45030.74920788194</v>
+        <v>45030.749207881941</v>
       </c>
       <c r="C40" t="s">
         <v>233</v>
@@ -26627,12 +26645,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:196">
+    <row r="41" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>45016.56805759259</v>
+        <v>45016.568057592587</v>
       </c>
       <c r="B41" s="2">
-        <v>45040.94498439815</v>
+        <v>45040.944984398149</v>
       </c>
       <c r="C41" t="s">
         <v>234</v>
@@ -27187,12 +27205,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:196">
+    <row r="42" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>45029.71845775463</v>
+        <v>45029.718457754629</v>
       </c>
       <c r="B42" s="2">
-        <v>45044.66664341436</v>
+        <v>45044.666643414363</v>
       </c>
       <c r="C42" t="s">
         <v>235</v>
@@ -27747,12 +27765,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:196">
+    <row r="43" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>45041.72987288194</v>
+        <v>45041.729872881937</v>
       </c>
       <c r="B43" s="2">
-        <v>45042.77404789352</v>
+        <v>45042.774047893523</v>
       </c>
       <c r="C43" t="s">
         <v>236</v>
@@ -28307,12 +28325,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:196">
+    <row r="44" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>45030.62050314815</v>
+        <v>45030.620503148151</v>
       </c>
       <c r="B44" s="2">
-        <v>45035.62809655093</v>
+        <v>45035.628096550929</v>
       </c>
       <c r="C44" t="s">
         <v>237</v>
@@ -28867,12 +28885,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:196">
+    <row r="45" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>45026.61464026621</v>
+        <v>45026.614640266213</v>
       </c>
       <c r="B45" s="2">
-        <v>45034.69658042824</v>
+        <v>45034.696580428237</v>
       </c>
       <c r="C45" t="s">
         <v>238</v>
@@ -29421,12 +29439,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:196">
+    <row r="46" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>45014.32431655093</v>
+        <v>45014.324316550927</v>
       </c>
       <c r="B46" s="2">
-        <v>45030.58562149305</v>
+        <v>45030.585621493054</v>
       </c>
       <c r="C46" t="s">
         <v>239</v>
@@ -29981,12 +29999,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:196">
+    <row r="47" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>45029.35591835648</v>
+        <v>45029.355918356479</v>
       </c>
       <c r="B47" s="2">
-        <v>45040.3811208912</v>
+        <v>45040.381120891201</v>
       </c>
       <c r="C47" t="s">
         <v>240</v>
@@ -30541,12 +30559,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:196">
+    <row r="48" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>45033.43972828703</v>
+        <v>45033.439728287027</v>
       </c>
       <c r="B48" s="2">
-        <v>45034.7366072338</v>
+        <v>45034.736607233797</v>
       </c>
       <c r="C48" t="s">
         <v>241</v>
@@ -31101,12 +31119,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:196">
+    <row r="49" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>45026.41111607639</v>
+        <v>45026.411116076393</v>
       </c>
       <c r="B49" s="2">
-        <v>45041.67916086806</v>
+        <v>45041.679160868058</v>
       </c>
       <c r="C49" t="s">
         <v>242</v>
@@ -31661,12 +31679,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:196">
+    <row r="50" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>45043.61438125</v>
+        <v>45043.614381250001</v>
       </c>
       <c r="B50" s="2">
-        <v>45043.79626310185</v>
+        <v>45043.796263101853</v>
       </c>
       <c r="C50" t="s">
         <v>243</v>
@@ -31705,7 +31723,7 @@
         <v>595</v>
       </c>
       <c r="Q50">
-        <v>56.295715</v>
+        <v>56.295715000000001</v>
       </c>
       <c r="R50">
         <v>0</v>
@@ -32221,12 +32239,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:196">
+    <row r="51" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>45019.46467957176</v>
+        <v>45019.464679571764</v>
       </c>
       <c r="B51" s="2">
-        <v>45030.50343957176</v>
+        <v>45030.503439571759</v>
       </c>
       <c r="C51" t="s">
         <v>244</v>
@@ -32781,12 +32799,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:196">
+    <row r="52" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>45020.74115945602</v>
+        <v>45020.741159456018</v>
       </c>
       <c r="B52" s="2">
-        <v>45041.78015706019</v>
+        <v>45041.780157060188</v>
       </c>
       <c r="C52" t="s">
         <v>245</v>
@@ -33341,12 +33359,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:196">
+    <row r="53" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>45028.44605721065</v>
+        <v>45028.446057210647</v>
       </c>
       <c r="B53" s="2">
-        <v>45029.60339363426</v>
+        <v>45029.603393634257</v>
       </c>
       <c r="C53" t="s">
         <v>246</v>
@@ -33901,12 +33919,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:196">
+    <row r="54" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>45026.27056137731</v>
+        <v>45026.270561377307</v>
       </c>
       <c r="B54" s="2">
-        <v>45030.73539201389</v>
+        <v>45030.735392013892</v>
       </c>
       <c r="C54" t="s">
         <v>247</v>
@@ -34455,12 +34473,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:196">
+    <row r="55" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>45019.54696771991</v>
+        <v>45019.546967719907</v>
       </c>
       <c r="B55" s="2">
-        <v>45028.69465225694</v>
+        <v>45028.694652256941</v>
       </c>
       <c r="C55" t="s">
         <v>248</v>
@@ -35015,12 +35033,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:196">
+    <row r="56" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>45026.43763770833</v>
+        <v>45026.437637708332</v>
       </c>
       <c r="B56" s="2">
-        <v>45029.66128623843</v>
+        <v>45029.661286238428</v>
       </c>
       <c r="C56" t="s">
         <v>249</v>
@@ -35575,12 +35593,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:196">
+    <row r="57" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>45027.63778914352</v>
+        <v>45027.637789143519</v>
       </c>
       <c r="B57" s="2">
-        <v>45028.6114855787</v>
+        <v>45028.611485578702</v>
       </c>
       <c r="C57" t="s">
         <v>250</v>
@@ -36135,12 +36153,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:196">
+    <row r="58" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>45029.6011887963</v>
+        <v>45029.601188796303</v>
       </c>
       <c r="B58" s="2">
-        <v>45030.94405268518</v>
+        <v>45030.944052685183</v>
       </c>
       <c r="C58" t="s">
         <v>251</v>
@@ -36689,12 +36707,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:196">
+    <row r="59" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>45030.33399065972</v>
+        <v>45030.333990659718</v>
       </c>
       <c r="B59" s="2">
-        <v>45030.75465861111</v>
+        <v>45030.754658611113</v>
       </c>
       <c r="C59" t="s">
         <v>252</v>
@@ -37249,12 +37267,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:196">
+    <row r="60" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>45030.75163368056</v>
+        <v>45030.751633680557</v>
       </c>
       <c r="B60" s="2">
-        <v>45034.71520811343</v>
+        <v>45034.715208113434</v>
       </c>
       <c r="C60" t="s">
         <v>253</v>
@@ -37809,12 +37827,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:196">
+    <row r="61" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>45033.38066274305</v>
+        <v>45033.380662743053</v>
       </c>
       <c r="B61" s="2">
-        <v>45043.70734321759</v>
+        <v>45043.707343217589</v>
       </c>
       <c r="C61" t="s">
         <v>254</v>
@@ -38369,12 +38387,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:196">
+    <row r="62" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>45013.47197569445</v>
+        <v>45013.471975694447</v>
       </c>
       <c r="B62" s="2">
-        <v>45033.48315553241</v>
+        <v>45033.483155532413</v>
       </c>
       <c r="C62" t="s">
         <v>255</v>
@@ -38929,12 +38947,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:196">
+    <row r="63" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>45043.76051346065</v>
+        <v>45043.760513460649</v>
       </c>
       <c r="B63" s="2">
-        <v>45043.79319537037</v>
+        <v>45043.793195370366</v>
       </c>
       <c r="C63" t="s">
         <v>256</v>
@@ -39483,12 +39501,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:196">
+    <row r="64" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>45019.60150523148</v>
+        <v>45019.601505231483</v>
       </c>
       <c r="B64" s="2">
-        <v>45021.57958415509</v>
+        <v>45021.579584155093</v>
       </c>
       <c r="C64" t="s">
         <v>257</v>
@@ -40043,12 +40061,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:196">
+    <row r="65" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>44988.36609487268</v>
+        <v>44988.366094872683</v>
       </c>
       <c r="B65" s="2">
-        <v>45035.49596179398</v>
+        <v>45035.495961793982</v>
       </c>
       <c r="C65" t="s">
         <v>258</v>
@@ -40603,12 +40621,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:196">
+    <row r="66" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>45015.34381532407</v>
+        <v>45015.343815324071</v>
       </c>
       <c r="B66" s="2">
-        <v>45029.46740008102</v>
+        <v>45029.467400081019</v>
       </c>
       <c r="C66" t="s">
         <v>259</v>
@@ -40638,16 +40656,16 @@
         <v>547</v>
       </c>
       <c r="M66">
-        <v>465387170886.36</v>
+        <v>465387170886.35999</v>
       </c>
       <c r="N66">
-        <v>497795443877.033</v>
+        <v>497795443877.03302</v>
       </c>
       <c r="O66" t="s">
         <v>611</v>
       </c>
       <c r="Q66">
-        <v>581291232.1799999</v>
+        <v>581291232.17999995</v>
       </c>
       <c r="R66">
         <v>476099562</v>
@@ -41163,12 +41181,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:196">
+    <row r="67" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>45027.4773121875</v>
+        <v>45027.477312187497</v>
       </c>
       <c r="B67" s="2">
-        <v>45044.66146899306</v>
+        <v>45044.661468993057</v>
       </c>
       <c r="C67" t="s">
         <v>260</v>
@@ -41723,12 +41741,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:196">
+    <row r="68" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>45001.41802800926</v>
+        <v>45001.418028009262</v>
       </c>
       <c r="B68" s="2">
-        <v>45029.62545501158</v>
+        <v>45029.625455011577</v>
       </c>
       <c r="C68" t="s">
         <v>261</v>
@@ -42283,12 +42301,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:196">
+    <row r="69" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>45029.60631516204</v>
       </c>
       <c r="B69" s="2">
-        <v>45030.51157659722</v>
+        <v>45030.511576597222</v>
       </c>
       <c r="C69" t="s">
         <v>262</v>
@@ -42843,12 +42861,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:196">
+    <row r="70" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>45020.42523467592</v>
+        <v>45020.425234675917</v>
       </c>
       <c r="B70" s="2">
-        <v>45042.65397114583</v>
+        <v>45042.653971145832</v>
       </c>
       <c r="C70" t="s">
         <v>263</v>
@@ -43403,12 +43421,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:196">
+    <row r="71" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>45057.67078225694</v>
+        <v>45057.670782256937</v>
       </c>
       <c r="B71" s="2">
-        <v>45057.91457854167</v>
+        <v>45057.914578541669</v>
       </c>
       <c r="C71" t="s">
         <v>264</v>
@@ -43930,12 +43948,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:196">
+    <row r="72" spans="1:196" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>45040.50409518518</v>
+        <v>45040.504095185177</v>
       </c>
       <c r="B72" s="2">
-        <v>45041.33638376158</v>
+        <v>45041.336383761583</v>
       </c>
       <c r="C72" t="s">
         <v>265</v>
@@ -44244,7 +44262,7 @@
         <v>1.38</v>
       </c>
       <c r="DK72">
-        <v>2.121111111111111</v>
+        <v>2.1211111111111109</v>
       </c>
       <c r="DL72">
         <v>3.5</v>
@@ -44283,7 +44301,7 @@
         <v>0.6</v>
       </c>
       <c r="DX72">
-        <v>1.09</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="DY72">
         <v>0.6</v>
@@ -44310,7 +44328,7 @@
         <v>0.6</v>
       </c>
       <c r="EG72">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="EH72">
         <v>0.43</v>
@@ -44340,7 +44358,7 @@
         <v>0.33</v>
       </c>
       <c r="EQ72">
-        <v>0.3333</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="ER72">
         <v>3.49</v>
@@ -44367,7 +44385,7 @@
         <v>0.2</v>
       </c>
       <c r="EZ72">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="FA72">
         <v>0.43</v>
@@ -44379,52 +44397,52 @@
         <v>0.53</v>
       </c>
       <c r="FD72">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="FE72">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="FF72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FG72">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FH72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FI72">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FJ72">
-        <v>3.47</v>
+        <v>0</v>
       </c>
       <c r="FK72">
-        <v>13.47</v>
+        <v>0</v>
       </c>
       <c r="FL72">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="FM72">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="FN72">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="FO72">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="FP72">
         <v>0</v>
       </c>
       <c r="FQ72">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="FR72">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="FS72">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="FT72">
         <v>0</v>
@@ -44481,13 +44499,13 @@
         <v>0</v>
       </c>
       <c r="GL72">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="GM72">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="GN72">
-        <v>4.2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/files/respuestas/2023/respuestas_2023.xlsx
+++ b/files/respuestas/2023/respuestas_2023.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Shared drives\VDLab\2023\ComponentesProyectoInversionLABcapital\3.ComponenteCoCreacion\2.Índice de Innovación Pública 2023\Seguimentos\000. Análisis 2023\app\files\respuestas\2023\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE20252-7AE7-4A47-896F-997CC4682D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -466,16 +460,16 @@
     <t>p23_nota_pregunta</t>
   </si>
   <si>
-    <t>cri_p24_p24_1</t>
-  </si>
-  <si>
-    <t>cri_p24_p24_2</t>
-  </si>
-  <si>
-    <t>cri_p24_p24_3</t>
-  </si>
-  <si>
-    <t>cri_p24_p24_4</t>
+    <t>cri_p24_c1</t>
+  </si>
+  <si>
+    <t>cri_p24_c2</t>
+  </si>
+  <si>
+    <t>cri_p24_c3</t>
+  </si>
+  <si>
+    <t>cri_p24_c4</t>
   </si>
   <si>
     <t>p24_nota_pregunta</t>
@@ -4309,11 +4303,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4377,21 +4371,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4429,7 +4415,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -4463,7 +4449,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4498,10 +4483,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4674,16 +4658,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:GN72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BS49" workbookViewId="0">
-      <selection activeCell="CR27" sqref="CR27"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:196">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5273,12 +5255,12 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:196">
       <c r="A2" s="2">
         <v>45044.93631380787</v>
       </c>
       <c r="B2" s="2">
-        <v>45045.000133541667</v>
+        <v>45045.00013354167</v>
       </c>
       <c r="C2" t="s">
         <v>196</v>
@@ -5833,12 +5815,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:196">
       <c r="A3" s="2">
         <v>45026.54495221065</v>
       </c>
       <c r="B3" s="2">
-        <v>45026.574192824068</v>
+        <v>45026.57419282407</v>
       </c>
       <c r="C3" t="s">
         <v>197</v>
@@ -6372,12 +6354,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:196">
       <c r="A4" s="2">
-        <v>45041.765104814818</v>
+        <v>45041.76510481482</v>
       </c>
       <c r="B4" s="2">
-        <v>45044.751044097233</v>
+        <v>45044.75104409723</v>
       </c>
       <c r="C4" t="s">
         <v>198</v>
@@ -6932,12 +6914,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:196">
       <c r="A5" s="2">
-        <v>45041.456206979157</v>
+        <v>45041.45620697916</v>
       </c>
       <c r="B5" s="2">
-        <v>45042.541599108787</v>
+        <v>45042.54159910879</v>
       </c>
       <c r="C5" t="s">
         <v>199</v>
@@ -7471,12 +7453,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:196">
       <c r="A6" s="2">
         <v>45077.39844070602</v>
       </c>
       <c r="B6" s="2">
-        <v>45077.620879236107</v>
+        <v>45077.62087923611</v>
       </c>
       <c r="C6" t="s">
         <v>200</v>
@@ -7836,12 +7818,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:196">
       <c r="A7" s="2">
-        <v>45037.449360740742</v>
+        <v>45037.44936074074</v>
       </c>
       <c r="B7" s="2">
-        <v>45043.707563518517</v>
+        <v>45043.70756351852</v>
       </c>
       <c r="C7" t="s">
         <v>200</v>
@@ -8342,12 +8324,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:196">
       <c r="A8" s="2">
         <v>45029.61037707176</v>
       </c>
       <c r="B8" s="2">
-        <v>45033.590893078697</v>
+        <v>45033.5908930787</v>
       </c>
       <c r="C8" t="s">
         <v>201</v>
@@ -8896,12 +8878,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:196">
       <c r="A9" s="2">
-        <v>45044.857836516203</v>
+        <v>45044.8578365162</v>
       </c>
       <c r="B9" s="2">
-        <v>45044.939519918982</v>
+        <v>45044.93951991898</v>
       </c>
       <c r="C9" t="s">
         <v>202</v>
@@ -9456,12 +9438,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:196">
       <c r="A10" s="2">
-        <v>45044.715323055563</v>
+        <v>45044.71532305556</v>
       </c>
       <c r="B10" s="2">
-        <v>45044.912295277783</v>
+        <v>45044.91229527778</v>
       </c>
       <c r="C10" t="s">
         <v>203</v>
@@ -10016,9 +9998,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:196">
       <c r="A11" s="2">
-        <v>45046.796350219913</v>
+        <v>45046.79635021991</v>
       </c>
       <c r="B11" s="2">
         <v>45046.8075193287</v>
@@ -10543,12 +10525,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:196">
       <c r="A12" s="2">
-        <v>44992.450360474541</v>
+        <v>44992.45036047454</v>
       </c>
       <c r="B12" s="2">
-        <v>44992.497513298607</v>
+        <v>44992.49751329861</v>
       </c>
       <c r="C12" t="s">
         <v>205</v>
@@ -11070,12 +11052,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:196">
       <c r="A13" s="2">
-        <v>45028.359612175933</v>
+        <v>45028.35961217593</v>
       </c>
       <c r="B13" s="2">
-        <v>45028.590172835648</v>
+        <v>45028.59017283565</v>
       </c>
       <c r="C13" t="s">
         <v>206</v>
@@ -11630,12 +11612,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:196">
       <c r="A14" s="2">
         <v>45044.75109943287</v>
       </c>
       <c r="B14" s="2">
-        <v>45044.940321562499</v>
+        <v>45044.9403215625</v>
       </c>
       <c r="C14" t="s">
         <v>207</v>
@@ -12190,12 +12172,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:196">
       <c r="A15" s="2">
-        <v>45044.536293611112</v>
+        <v>45044.53629361111</v>
       </c>
       <c r="B15" s="2">
-        <v>45044.690325949072</v>
+        <v>45044.69032594907</v>
       </c>
       <c r="C15" t="s">
         <v>208</v>
@@ -12750,12 +12732,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:196">
       <c r="A16" s="2">
-        <v>45044.965281874996</v>
+        <v>45044.965281875</v>
       </c>
       <c r="B16" s="2">
-        <v>45044.970058287043</v>
+        <v>45044.97005828704</v>
       </c>
       <c r="C16" t="s">
         <v>209</v>
@@ -13277,9 +13259,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:196">
       <c r="A17" s="2">
-        <v>45044.422491041667</v>
+        <v>45044.42249104167</v>
       </c>
       <c r="B17" s="2">
         <v>45044.76219134259</v>
@@ -13837,12 +13819,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:196">
       <c r="A18" s="2">
-        <v>44998.586083298607</v>
+        <v>44998.58608329861</v>
       </c>
       <c r="B18" s="2">
-        <v>44998.617919467593</v>
+        <v>44998.61791946759</v>
       </c>
       <c r="C18" t="s">
         <v>211</v>
@@ -13872,7 +13854,7 @@
         <v>547</v>
       </c>
       <c r="M18">
-        <v>2.7899559530000002</v>
+        <v>2.789955953</v>
       </c>
       <c r="N18">
         <v>3066764000</v>
@@ -14397,12 +14379,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:196">
       <c r="A19" s="2">
-        <v>45044.875545995368</v>
+        <v>45044.87554599537</v>
       </c>
       <c r="B19" s="2">
-        <v>45046.676495324071</v>
+        <v>45046.67649532407</v>
       </c>
       <c r="C19" t="s">
         <v>212</v>
@@ -14435,7 +14417,7 @@
         <v>3108420000</v>
       </c>
       <c r="N19">
-        <v>3.8124739999999999</v>
+        <v>3.812474</v>
       </c>
       <c r="O19" t="s">
         <v>564</v>
@@ -14945,12 +14927,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:196">
       <c r="A20" s="2">
-        <v>45045.382660000003</v>
+        <v>45045.38266</v>
       </c>
       <c r="B20" s="2">
-        <v>45045.471084988429</v>
+        <v>45045.47108498843</v>
       </c>
       <c r="C20" t="s">
         <v>213</v>
@@ -15505,12 +15487,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:196">
       <c r="A21" s="2">
-        <v>45043.327950069448</v>
+        <v>45043.32795006945</v>
       </c>
       <c r="B21" s="2">
-        <v>45043.363927013888</v>
+        <v>45043.36392701389</v>
       </c>
       <c r="C21" t="s">
         <v>214</v>
@@ -15543,7 +15525,7 @@
         <v>79.310164</v>
       </c>
       <c r="N21">
-        <v>74.549814999999995</v>
+        <v>74.549815</v>
       </c>
       <c r="O21" t="s">
         <v>566</v>
@@ -16044,12 +16026,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:196">
       <c r="A22" s="2">
-        <v>45028.555861828703</v>
+        <v>45028.5558618287</v>
       </c>
       <c r="B22" s="2">
-        <v>45044.863397048612</v>
+        <v>45044.86339704861</v>
       </c>
       <c r="C22" t="s">
         <v>215</v>
@@ -16598,12 +16580,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:196">
       <c r="A23" s="2">
-        <v>45015.409792175917</v>
+        <v>45015.40979217592</v>
       </c>
       <c r="B23" s="2">
-        <v>45043.537326342594</v>
+        <v>45043.53732634259</v>
       </c>
       <c r="C23" t="s">
         <v>216</v>
@@ -16843,16 +16825,16 @@
         <v>0</v>
       </c>
       <c r="CN23">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="CO23">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="CP23">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="CQ23">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="CR23">
         <v>0</v>
@@ -16870,25 +16852,25 @@
         <v>0</v>
       </c>
       <c r="CW23">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="CX23">
-        <v>2.35</v>
+        <v>0</v>
       </c>
       <c r="CY23">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="CZ23">
         <v>0</v>
       </c>
       <c r="DA23">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="DB23">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="DC23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DD23">
         <v>0</v>
@@ -16897,121 +16879,121 @@
         <v>0</v>
       </c>
       <c r="DF23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DG23">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="DH23">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="DI23">
         <v>0</v>
       </c>
       <c r="DJ23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DK23">
-        <v>1.7666666666666671</v>
+        <v>0</v>
       </c>
       <c r="DL23">
-        <v>2.77</v>
+        <v>0</v>
       </c>
       <c r="DM23">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="DN23">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="DO23">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="DP23">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="DQ23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="DR23">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="DS23">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="DT23">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="DU23">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="DV23">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="DW23">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="DX23">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="DY23">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="DZ23">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="EA23">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="EB23">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="EC23">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="ED23">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="EE23">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="EF23">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="EG23">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="EH23">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="EI23">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="EJ23">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="EK23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="EL23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="EM23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EN23">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="EO23">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="EP23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ER23">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="ES23">
         <v>0</v>
@@ -17020,37 +17002,37 @@
         <v>0</v>
       </c>
       <c r="EU23">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="EV23">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="EW23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EX23">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="EY23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="EZ23">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="FA23">
         <v>0</v>
       </c>
       <c r="FB23">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="FC23">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="FD23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="FE23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="FF23">
         <v>0</v>
@@ -17158,12 +17140,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:196">
       <c r="A24" s="2">
-        <v>45014.713765578701</v>
+        <v>45014.7137655787</v>
       </c>
       <c r="B24" s="2">
-        <v>45027.450045370373</v>
+        <v>45027.45004537037</v>
       </c>
       <c r="C24" t="s">
         <v>217</v>
@@ -17718,12 +17700,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:196">
       <c r="A25" s="2">
-        <v>45029.361659710637</v>
+        <v>45029.36165971064</v>
       </c>
       <c r="B25" s="2">
-        <v>45030.767740208343</v>
+        <v>45030.76774020834</v>
       </c>
       <c r="C25" t="s">
         <v>218</v>
@@ -18272,12 +18254,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:196">
       <c r="A26" s="2">
-        <v>45021.409113842587</v>
+        <v>45021.40911384259</v>
       </c>
       <c r="B26" s="2">
-        <v>45033.677357881941</v>
+        <v>45033.67735788194</v>
       </c>
       <c r="C26" t="s">
         <v>219</v>
@@ -18832,12 +18814,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:196">
       <c r="A27" s="2">
-        <v>45013.296532141198</v>
+        <v>45013.2965321412</v>
       </c>
       <c r="B27" s="2">
-        <v>45026.349069618052</v>
+        <v>45026.34906961805</v>
       </c>
       <c r="C27" t="s">
         <v>220</v>
@@ -19392,12 +19374,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:196">
       <c r="A28" s="2">
-        <v>45034.360427534717</v>
+        <v>45034.36042753472</v>
       </c>
       <c r="B28" s="2">
-        <v>45034.687000578713</v>
+        <v>45034.68700057871</v>
       </c>
       <c r="C28" t="s">
         <v>221</v>
@@ -19952,12 +19934,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:196">
       <c r="A29" s="2">
-        <v>45026.663861967587</v>
+        <v>45026.66386196759</v>
       </c>
       <c r="B29" s="2">
-        <v>45034.434599930559</v>
+        <v>45034.43459993056</v>
       </c>
       <c r="C29" t="s">
         <v>222</v>
@@ -20512,12 +20494,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:196">
       <c r="A30" s="2">
-        <v>45044.386431678242</v>
+        <v>45044.38643167824</v>
       </c>
       <c r="B30" s="2">
-        <v>45044.768308391212</v>
+        <v>45044.76830839121</v>
       </c>
       <c r="C30" t="s">
         <v>223</v>
@@ -20547,7 +20529,7 @@
         <v>547</v>
       </c>
       <c r="M30">
-        <v>152.12899999999999</v>
+        <v>152.129</v>
       </c>
       <c r="N30">
         <v>142.246557</v>
@@ -20565,10 +20547,10 @@
         <v>644</v>
       </c>
       <c r="U30">
-        <v>5.1398619999999999</v>
+        <v>5.139862</v>
       </c>
       <c r="V30">
-        <v>6.3345627640000002</v>
+        <v>6.334562764</v>
       </c>
       <c r="W30" t="s">
         <v>713</v>
@@ -21045,12 +21027,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:196">
       <c r="A31" s="2">
-        <v>45008.641895370369</v>
+        <v>45008.64189537037</v>
       </c>
       <c r="B31" s="2">
-        <v>45013.523130370369</v>
+        <v>45013.52313037037</v>
       </c>
       <c r="C31" t="s">
         <v>224</v>
@@ -21605,12 +21587,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:196">
       <c r="A32" s="2">
-        <v>45044.433032997687</v>
+        <v>45044.43303299769</v>
       </c>
       <c r="B32" s="2">
-        <v>45044.796291712963</v>
+        <v>45044.79629171296</v>
       </c>
       <c r="C32" t="s">
         <v>225</v>
@@ -21640,16 +21622,16 @@
         <v>547</v>
       </c>
       <c r="M32">
-        <v>259.96524856299999</v>
+        <v>259.965248563</v>
       </c>
       <c r="N32">
-        <v>655.18294142399998</v>
+        <v>655.182941424</v>
       </c>
       <c r="O32" t="s">
         <v>577</v>
       </c>
       <c r="Q32">
-        <v>44.750317000000003</v>
+        <v>44.750317</v>
       </c>
       <c r="R32">
         <v>33</v>
@@ -21658,19 +21640,19 @@
         <v>646</v>
       </c>
       <c r="U32">
-        <v>4.6227881420000001</v>
+        <v>4.622788142</v>
       </c>
       <c r="V32">
-        <v>5.2380034130000004</v>
+        <v>5.238003413</v>
       </c>
       <c r="W32" t="s">
         <v>715</v>
       </c>
       <c r="Y32">
-        <v>777.77409999999998</v>
+        <v>777.7741</v>
       </c>
       <c r="Z32">
-        <v>1.2849400209999999</v>
+        <v>1.284940021</v>
       </c>
       <c r="AA32" t="s">
         <v>784</v>
@@ -22165,9 +22147,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:196">
       <c r="A33" s="2">
-        <v>44992.849758668977</v>
+        <v>44992.84975866898</v>
       </c>
       <c r="B33" s="2">
         <v>45029.65544101852</v>
@@ -22725,12 +22707,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:196">
       <c r="A34" s="2">
         <v>45028.60760491898</v>
       </c>
       <c r="B34" s="2">
-        <v>45034.492861851853</v>
+        <v>45034.49286185185</v>
       </c>
       <c r="C34" t="s">
         <v>227</v>
@@ -23285,12 +23267,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:196">
       <c r="A35" s="2">
-        <v>45048.468194884263</v>
+        <v>45048.46819488426</v>
       </c>
       <c r="B35" s="2">
-        <v>45048.580141747683</v>
+        <v>45048.58014174768</v>
       </c>
       <c r="C35" t="s">
         <v>228</v>
@@ -23845,9 +23827,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:196">
       <c r="A36" s="2">
-        <v>45027.377576250001</v>
+        <v>45027.37757625</v>
       </c>
       <c r="B36" s="2">
         <v>45028.67876185185</v>
@@ -24405,9 +24387,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:196">
       <c r="A37" s="2">
-        <v>45058.741542534721</v>
+        <v>45058.74154253472</v>
       </c>
       <c r="B37" s="2">
         <v>45059.01928803241</v>
@@ -24965,7 +24947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:196">
       <c r="A38" s="2">
         <v>45044.31058675926</v>
       </c>
@@ -25525,12 +25507,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:196">
       <c r="A39" s="2">
-        <v>45044.210765914351</v>
+        <v>45044.21076591435</v>
       </c>
       <c r="B39" s="2">
-        <v>45044.305869085649</v>
+        <v>45044.30586908565</v>
       </c>
       <c r="C39" t="s">
         <v>232</v>
@@ -25569,10 +25551,10 @@
         <v>584</v>
       </c>
       <c r="Q39">
-        <v>48.037260000000003</v>
+        <v>48.03726</v>
       </c>
       <c r="R39">
-        <v>51.524771999999999</v>
+        <v>51.524772</v>
       </c>
       <c r="S39" t="s">
         <v>653</v>
@@ -26085,12 +26067,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:196">
       <c r="A40" s="2">
         <v>45029.48608826389</v>
       </c>
       <c r="B40" s="2">
-        <v>45030.749207881941</v>
+        <v>45030.74920788194</v>
       </c>
       <c r="C40" t="s">
         <v>233</v>
@@ -26645,12 +26627,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:196">
       <c r="A41" s="2">
-        <v>45016.568057592587</v>
+        <v>45016.56805759259</v>
       </c>
       <c r="B41" s="2">
-        <v>45040.944984398149</v>
+        <v>45040.94498439815</v>
       </c>
       <c r="C41" t="s">
         <v>234</v>
@@ -27205,12 +27187,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:196">
       <c r="A42" s="2">
-        <v>45029.718457754629</v>
+        <v>45029.71845775463</v>
       </c>
       <c r="B42" s="2">
-        <v>45044.666643414363</v>
+        <v>45044.66664341436</v>
       </c>
       <c r="C42" t="s">
         <v>235</v>
@@ -27765,12 +27747,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:196">
       <c r="A43" s="2">
-        <v>45041.729872881937</v>
+        <v>45041.72987288194</v>
       </c>
       <c r="B43" s="2">
-        <v>45042.774047893523</v>
+        <v>45042.77404789352</v>
       </c>
       <c r="C43" t="s">
         <v>236</v>
@@ -28325,12 +28307,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:196">
       <c r="A44" s="2">
-        <v>45030.620503148151</v>
+        <v>45030.62050314815</v>
       </c>
       <c r="B44" s="2">
-        <v>45035.628096550929</v>
+        <v>45035.62809655093</v>
       </c>
       <c r="C44" t="s">
         <v>237</v>
@@ -28885,12 +28867,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:196">
       <c r="A45" s="2">
-        <v>45026.614640266213</v>
+        <v>45026.61464026621</v>
       </c>
       <c r="B45" s="2">
-        <v>45034.696580428237</v>
+        <v>45034.69658042824</v>
       </c>
       <c r="C45" t="s">
         <v>238</v>
@@ -29439,12 +29421,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:196">
       <c r="A46" s="2">
-        <v>45014.324316550927</v>
+        <v>45014.32431655093</v>
       </c>
       <c r="B46" s="2">
-        <v>45030.585621493054</v>
+        <v>45030.58562149305</v>
       </c>
       <c r="C46" t="s">
         <v>239</v>
@@ -29999,12 +29981,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:196">
       <c r="A47" s="2">
-        <v>45029.355918356479</v>
+        <v>45029.35591835648</v>
       </c>
       <c r="B47" s="2">
-        <v>45040.381120891201</v>
+        <v>45040.3811208912</v>
       </c>
       <c r="C47" t="s">
         <v>240</v>
@@ -30559,12 +30541,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:196">
       <c r="A48" s="2">
-        <v>45033.439728287027</v>
+        <v>45033.43972828703</v>
       </c>
       <c r="B48" s="2">
-        <v>45034.736607233797</v>
+        <v>45034.7366072338</v>
       </c>
       <c r="C48" t="s">
         <v>241</v>
@@ -31119,12 +31101,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:196">
       <c r="A49" s="2">
-        <v>45026.411116076393</v>
+        <v>45026.41111607639</v>
       </c>
       <c r="B49" s="2">
-        <v>45041.679160868058</v>
+        <v>45041.67916086806</v>
       </c>
       <c r="C49" t="s">
         <v>242</v>
@@ -31679,12 +31661,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:196">
       <c r="A50" s="2">
-        <v>45043.614381250001</v>
+        <v>45043.61438125</v>
       </c>
       <c r="B50" s="2">
-        <v>45043.796263101853</v>
+        <v>45043.79626310185</v>
       </c>
       <c r="C50" t="s">
         <v>243</v>
@@ -31723,7 +31705,7 @@
         <v>595</v>
       </c>
       <c r="Q50">
-        <v>56.295715000000001</v>
+        <v>56.295715</v>
       </c>
       <c r="R50">
         <v>0</v>
@@ -32239,12 +32221,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:196">
       <c r="A51" s="2">
-        <v>45019.464679571764</v>
+        <v>45019.46467957176</v>
       </c>
       <c r="B51" s="2">
-        <v>45030.503439571759</v>
+        <v>45030.50343957176</v>
       </c>
       <c r="C51" t="s">
         <v>244</v>
@@ -32799,12 +32781,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:196">
       <c r="A52" s="2">
-        <v>45020.741159456018</v>
+        <v>45020.74115945602</v>
       </c>
       <c r="B52" s="2">
-        <v>45041.780157060188</v>
+        <v>45041.78015706019</v>
       </c>
       <c r="C52" t="s">
         <v>245</v>
@@ -33359,12 +33341,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:196">
       <c r="A53" s="2">
-        <v>45028.446057210647</v>
+        <v>45028.44605721065</v>
       </c>
       <c r="B53" s="2">
-        <v>45029.603393634257</v>
+        <v>45029.60339363426</v>
       </c>
       <c r="C53" t="s">
         <v>246</v>
@@ -33919,12 +33901,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:196">
       <c r="A54" s="2">
-        <v>45026.270561377307</v>
+        <v>45026.27056137731</v>
       </c>
       <c r="B54" s="2">
-        <v>45030.735392013892</v>
+        <v>45030.73539201389</v>
       </c>
       <c r="C54" t="s">
         <v>247</v>
@@ -34473,12 +34455,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:196">
       <c r="A55" s="2">
-        <v>45019.546967719907</v>
+        <v>45019.54696771991</v>
       </c>
       <c r="B55" s="2">
-        <v>45028.694652256941</v>
+        <v>45028.69465225694</v>
       </c>
       <c r="C55" t="s">
         <v>248</v>
@@ -35033,12 +35015,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:196">
       <c r="A56" s="2">
-        <v>45026.437637708332</v>
+        <v>45026.43763770833</v>
       </c>
       <c r="B56" s="2">
-        <v>45029.661286238428</v>
+        <v>45029.66128623843</v>
       </c>
       <c r="C56" t="s">
         <v>249</v>
@@ -35593,12 +35575,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:196">
       <c r="A57" s="2">
-        <v>45027.637789143519</v>
+        <v>45027.63778914352</v>
       </c>
       <c r="B57" s="2">
-        <v>45028.611485578702</v>
+        <v>45028.6114855787</v>
       </c>
       <c r="C57" t="s">
         <v>250</v>
@@ -36153,12 +36135,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:196">
       <c r="A58" s="2">
-        <v>45029.601188796303</v>
+        <v>45029.6011887963</v>
       </c>
       <c r="B58" s="2">
-        <v>45030.944052685183</v>
+        <v>45030.94405268518</v>
       </c>
       <c r="C58" t="s">
         <v>251</v>
@@ -36707,12 +36689,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:196">
       <c r="A59" s="2">
-        <v>45030.333990659718</v>
+        <v>45030.33399065972</v>
       </c>
       <c r="B59" s="2">
-        <v>45030.754658611113</v>
+        <v>45030.75465861111</v>
       </c>
       <c r="C59" t="s">
         <v>252</v>
@@ -37267,12 +37249,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:196">
       <c r="A60" s="2">
-        <v>45030.751633680557</v>
+        <v>45030.75163368056</v>
       </c>
       <c r="B60" s="2">
-        <v>45034.715208113434</v>
+        <v>45034.71520811343</v>
       </c>
       <c r="C60" t="s">
         <v>253</v>
@@ -37827,12 +37809,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:196">
       <c r="A61" s="2">
-        <v>45033.380662743053</v>
+        <v>45033.38066274305</v>
       </c>
       <c r="B61" s="2">
-        <v>45043.707343217589</v>
+        <v>45043.70734321759</v>
       </c>
       <c r="C61" t="s">
         <v>254</v>
@@ -38387,12 +38369,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:196">
       <c r="A62" s="2">
-        <v>45013.471975694447</v>
+        <v>45013.47197569445</v>
       </c>
       <c r="B62" s="2">
-        <v>45033.483155532413</v>
+        <v>45033.48315553241</v>
       </c>
       <c r="C62" t="s">
         <v>255</v>
@@ -38947,12 +38929,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:196">
       <c r="A63" s="2">
-        <v>45043.760513460649</v>
+        <v>45043.76051346065</v>
       </c>
       <c r="B63" s="2">
-        <v>45043.793195370366</v>
+        <v>45043.79319537037</v>
       </c>
       <c r="C63" t="s">
         <v>256</v>
@@ -39501,12 +39483,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:196">
       <c r="A64" s="2">
-        <v>45019.601505231483</v>
+        <v>45019.60150523148</v>
       </c>
       <c r="B64" s="2">
-        <v>45021.579584155093</v>
+        <v>45021.57958415509</v>
       </c>
       <c r="C64" t="s">
         <v>257</v>
@@ -40061,12 +40043,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:196">
       <c r="A65" s="2">
-        <v>44988.366094872683</v>
+        <v>44988.36609487268</v>
       </c>
       <c r="B65" s="2">
-        <v>45035.495961793982</v>
+        <v>45035.49596179398</v>
       </c>
       <c r="C65" t="s">
         <v>258</v>
@@ -40621,12 +40603,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:196">
       <c r="A66" s="2">
-        <v>45015.343815324071</v>
+        <v>45015.34381532407</v>
       </c>
       <c r="B66" s="2">
-        <v>45029.467400081019</v>
+        <v>45029.46740008102</v>
       </c>
       <c r="C66" t="s">
         <v>259</v>
@@ -40656,16 +40638,16 @@
         <v>547</v>
       </c>
       <c r="M66">
-        <v>465387170886.35999</v>
+        <v>465387170886.36</v>
       </c>
       <c r="N66">
-        <v>497795443877.03302</v>
+        <v>497795443877.033</v>
       </c>
       <c r="O66" t="s">
         <v>611</v>
       </c>
       <c r="Q66">
-        <v>581291232.17999995</v>
+        <v>581291232.1799999</v>
       </c>
       <c r="R66">
         <v>476099562</v>
@@ -41181,12 +41163,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:196">
       <c r="A67" s="2">
-        <v>45027.477312187497</v>
+        <v>45027.4773121875</v>
       </c>
       <c r="B67" s="2">
-        <v>45044.661468993057</v>
+        <v>45044.66146899306</v>
       </c>
       <c r="C67" t="s">
         <v>260</v>
@@ -41741,12 +41723,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:196">
       <c r="A68" s="2">
-        <v>45001.418028009262</v>
+        <v>45001.41802800926</v>
       </c>
       <c r="B68" s="2">
-        <v>45029.625455011577</v>
+        <v>45029.62545501158</v>
       </c>
       <c r="C68" t="s">
         <v>261</v>
@@ -42301,12 +42283,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:196">
       <c r="A69" s="2">
         <v>45029.60631516204</v>
       </c>
       <c r="B69" s="2">
-        <v>45030.511576597222</v>
+        <v>45030.51157659722</v>
       </c>
       <c r="C69" t="s">
         <v>262</v>
@@ -42861,12 +42843,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:196">
       <c r="A70" s="2">
-        <v>45020.425234675917</v>
+        <v>45020.42523467592</v>
       </c>
       <c r="B70" s="2">
-        <v>45042.653971145832</v>
+        <v>45042.65397114583</v>
       </c>
       <c r="C70" t="s">
         <v>263</v>
@@ -43421,12 +43403,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:196">
       <c r="A71" s="2">
-        <v>45057.670782256937</v>
+        <v>45057.67078225694</v>
       </c>
       <c r="B71" s="2">
-        <v>45057.914578541669</v>
+        <v>45057.91457854167</v>
       </c>
       <c r="C71" t="s">
         <v>264</v>
@@ -43948,12 +43930,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:196" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:196">
       <c r="A72" s="2">
-        <v>45040.504095185177</v>
+        <v>45040.50409518518</v>
       </c>
       <c r="B72" s="2">
-        <v>45041.336383761583</v>
+        <v>45041.33638376158</v>
       </c>
       <c r="C72" t="s">
         <v>265</v>
@@ -44262,7 +44244,7 @@
         <v>1.38</v>
       </c>
       <c r="DK72">
-        <v>2.1211111111111109</v>
+        <v>2.121111111111111</v>
       </c>
       <c r="DL72">
         <v>3.5</v>
@@ -44286,13 +44268,13 @@
         <v>0.43</v>
       </c>
       <c r="DS72">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="DT72">
         <v>0.8</v>
       </c>
       <c r="DU72">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="DV72">
         <v>0.49</v>
@@ -44301,7 +44283,7 @@
         <v>0.6</v>
       </c>
       <c r="DX72">
-        <v>1.0900000000000001</v>
+        <v>1.09</v>
       </c>
       <c r="DY72">
         <v>0.6</v>
@@ -44328,7 +44310,7 @@
         <v>0.6</v>
       </c>
       <c r="EG72">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="EH72">
         <v>0.43</v>
@@ -44358,13 +44340,13 @@
         <v>0.33</v>
       </c>
       <c r="EQ72">
-        <v>0.33329999999999999</v>
+        <v>0.3333</v>
       </c>
       <c r="ER72">
         <v>3.49</v>
       </c>
       <c r="ES72">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="ET72">
         <v>0</v>
@@ -44376,7 +44358,7 @@
         <v>0</v>
       </c>
       <c r="EW72">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="EX72">
         <v>0.9</v>
@@ -44385,7 +44367,7 @@
         <v>0.2</v>
       </c>
       <c r="EZ72">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="FA72">
         <v>0.43</v>
@@ -44397,52 +44379,52 @@
         <v>0.53</v>
       </c>
       <c r="FD72">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="FE72">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="FF72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FG72">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FH72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FI72">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FJ72">
-        <v>0</v>
+        <v>3.47</v>
       </c>
       <c r="FK72">
-        <v>0</v>
+        <v>13.47</v>
       </c>
       <c r="FL72">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="FM72">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="FN72">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="FO72">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="FP72">
         <v>0</v>
       </c>
       <c r="FQ72">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="FR72">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="FS72">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="FT72">
         <v>0</v>
@@ -44499,13 +44481,13 @@
         <v>0</v>
       </c>
       <c r="GL72">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="GM72">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="GN72">
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
   </sheetData>

--- a/files/respuestas/2023/respuestas_2023.xlsx
+++ b/files/respuestas/2023/respuestas_2023.xlsx
@@ -16825,16 +16825,16 @@
         <v>0</v>
       </c>
       <c r="CN23">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="CO23">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="CP23">
         <v>0</v>
       </c>
       <c r="CQ23">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="CR23">
         <v>0</v>

--- a/files/respuestas/2023/respuestas_2023.xlsx
+++ b/files/respuestas/2023/respuestas_2023.xlsx
@@ -15434,91 +15434,91 @@
         <v>0</v>
       </c>
       <c r="FF23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FG23" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="FH23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FI23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FJ23" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="FK23" t="n">
-        <v>0</v>
+        <v>10.1</v>
       </c>
       <c r="FL23" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="FM23" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="FN23" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="FO23" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="FP23" t="n">
         <v>0</v>
       </c>
       <c r="FQ23" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="FR23" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="FS23" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="FT23" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="FU23" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="FV23" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="FW23" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="FX23" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="FY23" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="FZ23" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="GA23" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="GB23" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="GC23" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="GD23" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="GE23" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="GF23" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="GG23" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="GH23" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="GI23" t="n">
         <v>0</v>
@@ -15530,13 +15530,13 @@
         <v>0</v>
       </c>
       <c r="GL23" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="GM23" t="n">
         <v>0</v>
       </c>
       <c r="GN23" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="24">
@@ -16540,40 +16540,40 @@
         <v>0</v>
       </c>
       <c r="CN25" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="CO25" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="CP25" t="n">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="CQ25" t="n">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="CR25" t="n">
         <v>0</v>
       </c>
       <c r="CS25" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="CT25" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="CU25" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="CV25" t="n">
         <v>0</v>
       </c>
       <c r="CW25" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="CX25" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="CY25" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="CZ25" t="n">
         <v>0</v>

--- a/files/respuestas/2023/respuestas_2023.xlsx
+++ b/files/respuestas/2023/respuestas_2023.xlsx
@@ -16606,13 +16606,13 @@
         <v>0</v>
       </c>
       <c r="DJ25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DK25" t="n">
         <v>0</v>
       </c>
       <c r="DL25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DM25" t="n">
         <v>0</v>

--- a/files/respuestas/2023/respuestas_2023.xlsx
+++ b/files/respuestas/2023/respuestas_2023.xlsx
@@ -16609,64 +16609,64 @@
         <v>1</v>
       </c>
       <c r="DK25" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="DL25" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="DM25" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="DN25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DO25" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="DP25" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="DQ25" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="DR25" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="DS25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DT25" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="DU25" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="DV25" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="DW25" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="DX25" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="DY25" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="DZ25" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="EA25" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="EB25" t="n">
         <v>1</v>
       </c>
-      <c r="DM25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB25" t="n">
-        <v>0</v>
-      </c>
       <c r="EC25" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="ED25" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="EE25" t="n">
         <v>0</v>
@@ -16678,37 +16678,37 @@
         <v>0</v>
       </c>
       <c r="EH25" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="EI25" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="EJ25" t="n">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="EK25" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="EL25" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="EM25" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="EN25" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="EO25" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="EP25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ25" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="ER25" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="ES25" t="n">
         <v>0</v>
@@ -16717,61 +16717,61 @@
         <v>0</v>
       </c>
       <c r="EU25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EV25" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="EW25" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="EX25" t="n">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="EY25" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="EZ25" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="FA25" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="FB25" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="FC25" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="FD25" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="FE25" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="FF25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG25" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="FH25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FI25" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="FJ25" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="FK25" t="n">
-        <v>0</v>
+        <v>11.1</v>
       </c>
       <c r="FL25" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="FM25" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="FN25" t="n">
         <v>0</v>
@@ -16783,76 +16783,76 @@
         <v>0</v>
       </c>
       <c r="FQ25" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="FR25" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="FS25" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="FT25" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="FU25" t="n">
         <v>0</v>
       </c>
       <c r="FV25" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="FW25" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="FX25" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="FY25" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="FZ25" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="GA25" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="GB25" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="GC25" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="GD25" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="GE25" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="GF25" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="GG25" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="GH25" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="GI25" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="GJ25" t="n">
         <v>0</v>
       </c>
       <c r="GK25" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="GL25" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="GM25" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="GN25" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="26">
@@ -17860,16 +17860,16 @@
         <v>0</v>
       </c>
       <c r="CN27" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="CO27" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="CP27" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="CQ27" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="CR27" t="n">
         <v>0</v>
@@ -17887,25 +17887,25 @@
         <v>0</v>
       </c>
       <c r="CW27" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="CX27" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="CY27" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="CZ27" t="n">
         <v>0</v>
       </c>
       <c r="DA27" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="DB27" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="DC27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DD27" t="n">
         <v>0</v>
@@ -17914,70 +17914,70 @@
         <v>0</v>
       </c>
       <c r="DF27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DG27" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="DH27" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="DI27" t="n">
         <v>0</v>
       </c>
       <c r="DJ27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DK27" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="DL27" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="DM27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DN27" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="DO27" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="DP27" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="DQ27" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="DR27" t="n">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="DS27" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="DT27" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="DU27" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="DV27" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="DW27" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="DX27" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="DY27" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="DZ27" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="EA27" t="n">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="EB27" t="n">
         <v>0</v>
@@ -17998,37 +17998,37 @@
         <v>0</v>
       </c>
       <c r="EH27" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="EI27" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="EJ27" t="n">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="EK27" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="EL27" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="EM27" t="n">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="EN27" t="n">
         <v>0</v>
       </c>
       <c r="EO27" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="EP27" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="EQ27" t="n">
         <v>0</v>
       </c>
       <c r="ER27" t="n">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="ES27" t="n">
         <v>0</v>

--- a/files/respuestas/2023/respuestas_2023.xlsx
+++ b/files/respuestas/2023/respuestas_2023.xlsx
@@ -18016,19 +18016,19 @@
         <v>0.88</v>
       </c>
       <c r="EN27" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="EO27" t="n">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="EP27" t="n">
         <v>0.45</v>
       </c>
       <c r="EQ27" t="n">
-        <v>0</v>
+        <v>0.1364</v>
       </c>
       <c r="ER27" t="n">
-        <v>0.95</v>
+        <v>3.03</v>
       </c>
       <c r="ES27" t="n">
         <v>0</v>
@@ -18037,22 +18037,22 @@
         <v>0</v>
       </c>
       <c r="EU27" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="EV27" t="n">
         <v>0</v>
       </c>
       <c r="EW27" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="EX27" t="n">
         <v>0</v>
       </c>
       <c r="EY27" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="EZ27" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="FA27" t="n">
         <v>0</v>

--- a/files/respuestas/2023/respuestas_2023.xlsx
+++ b/files/respuestas/2023/respuestas_2023.xlsx
@@ -18016,7 +18016,7 @@
         <v>0.88</v>
       </c>
       <c r="EN27" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="EO27" t="n">
         <v>0.55</v>
@@ -18028,7 +18028,7 @@
         <v>0.1364</v>
       </c>
       <c r="ER27" t="n">
-        <v>3.03</v>
+        <v>2.99</v>
       </c>
       <c r="ES27" t="n">
         <v>0</v>
@@ -18046,22 +18046,22 @@
         <v>1.5</v>
       </c>
       <c r="EX27" t="n">
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="EY27" t="n">
         <v>1.4</v>
       </c>
       <c r="EZ27" t="n">
-        <v>1.4</v>
+        <v>2.16</v>
       </c>
       <c r="FA27" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="FB27" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="FC27" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="FD27" t="n">
         <v>0</v>
@@ -18070,22 +18070,22 @@
         <v>0</v>
       </c>
       <c r="FF27" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="FG27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FH27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FI27" t="n">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="FJ27" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="FK27" t="n">
-        <v>0</v>
+        <v>11.45</v>
       </c>
       <c r="FL27" t="n">
         <v>0</v>

--- a/files/respuestas/2023/respuestas_2023.xlsx
+++ b/files/respuestas/2023/respuestas_2023.xlsx
@@ -18079,37 +18079,37 @@
         <v>1</v>
       </c>
       <c r="FI27" t="n">
-        <v>0.91</v>
+        <v>3.27</v>
       </c>
       <c r="FJ27" t="n">
-        <v>2.04</v>
+        <v>2.25</v>
       </c>
       <c r="FK27" t="n">
-        <v>11.45</v>
+        <v>14.02</v>
       </c>
       <c r="FL27" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="FM27" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="FN27" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="FO27" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="FP27" t="n">
         <v>0</v>
       </c>
       <c r="FQ27" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="FR27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="FS27" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="FT27" t="n">
         <v>0</v>

--- a/files/respuestas/2023/respuestas_2023.xlsx
+++ b/files/respuestas/2023/respuestas_2023.xlsx
@@ -19847,16 +19847,16 @@
         <v>0</v>
       </c>
       <c r="FL28">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="FM28">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="FN28">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="FO28">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="FP28">
         <v>0</v>

--- a/files/respuestas/2023/respuestas_2023.xlsx
+++ b/files/respuestas/2023/respuestas_2023.xlsx
@@ -18169,10 +18169,10 @@
         <v>1.8</v>
       </c>
       <c r="GM27" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="GN27" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -18520,16 +18520,16 @@
         <v>0</v>
       </c>
       <c r="CN28" t="n">
+        <v>5</v>
+      </c>
+      <c r="CO28" t="n">
         <v>1.2</v>
       </c>
-      <c r="CO28" t="n">
-        <v>1.6</v>
-      </c>
       <c r="CP28" t="n">
-        <v>0.4</v>
+        <v>0.93</v>
       </c>
       <c r="CQ28" t="n">
-        <v>3.2</v>
+        <v>7.13</v>
       </c>
       <c r="CR28" t="n">
         <v>0</v>
@@ -18748,16 +18748,16 @@
         <v>0</v>
       </c>
       <c r="FL28" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="FM28" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="FN28" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="FO28" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="FP28" t="n">
         <v>0</v>

--- a/files/respuestas/2023/respuestas_2023.xlsx
+++ b/files/respuestas/2023/respuestas_2023.xlsx
@@ -18520,7 +18520,7 @@
         <v>0</v>
       </c>
       <c r="CN28" t="n">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="CO28" t="n">
         <v>1.2</v>
@@ -18529,7 +18529,7 @@
         <v>0.93</v>
       </c>
       <c r="CQ28" t="n">
-        <v>7.13</v>
+        <v>3.33</v>
       </c>
       <c r="CR28" t="n">
         <v>0</v>

--- a/files/respuestas/2023/respuestas_2023.xlsx
+++ b/files/respuestas/2023/respuestas_2023.xlsx
@@ -18526,46 +18526,46 @@
         <v>1.2</v>
       </c>
       <c r="CP28" t="n">
-        <v>0.93</v>
+        <v>0.84</v>
       </c>
       <c r="CQ28" t="n">
-        <v>3.33</v>
+        <v>3.24</v>
       </c>
       <c r="CR28" t="n">
         <v>0</v>
       </c>
       <c r="CS28" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="CT28" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="CU28" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="CV28" t="n">
         <v>0</v>
       </c>
       <c r="CW28" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="CX28" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="CY28" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="CZ28" t="n">
         <v>0</v>
       </c>
       <c r="DA28" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="DB28" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="DC28" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="DD28" t="n">
         <v>0</v>
@@ -18574,169 +18574,169 @@
         <v>0</v>
       </c>
       <c r="DF28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DG28" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="DH28" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="DI28" t="n">
         <v>0</v>
       </c>
       <c r="DJ28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DK28" t="n">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="DL28" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="DM28" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="DN28" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="DO28" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="DP28" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="DQ28" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="DR28" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="DS28" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="DT28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DU28" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="DV28" t="n">
         <v>0</v>
       </c>
       <c r="DW28" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="DX28" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="DY28" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="DZ28" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="EA28" t="n">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="EB28" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="EC28" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="ED28" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="EE28" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="EF28" t="n">
         <v>0</v>
       </c>
       <c r="EG28" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="EH28" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="EI28" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="EJ28" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="EK28" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="EL28" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="EM28" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="EN28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EO28" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="EP28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ28" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="ER28" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="ES28" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="ET28" t="n">
         <v>0</v>
       </c>
       <c r="EU28" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="EV28" t="n">
         <v>0</v>
       </c>
       <c r="EW28" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="EX28" t="n">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="EY28" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="EZ28" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="FA28" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="FB28" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="FC28" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="FD28" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="FE28" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="FF28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG28" t="n">
         <v>0</v>
       </c>
       <c r="FH28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FI28" t="n">
         <v>0</v>
@@ -18745,58 +18745,58 @@
         <v>0</v>
       </c>
       <c r="FK28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FL28" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="FM28" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="FN28" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="FO28" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="FP28" t="n">
         <v>0</v>
       </c>
       <c r="FQ28" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="FR28" t="n">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="FS28" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="FT28" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="FU28" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="FV28" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="FW28" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="FX28" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="FY28" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="FZ28" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="GA28" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="GB28" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="GC28" t="n">
         <v>0</v>
@@ -18808,31 +18808,31 @@
         <v>0</v>
       </c>
       <c r="GF28" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="GG28" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="GH28" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="GI28" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="GJ28" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="GK28" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="GL28" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="GM28" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="GN28" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="29">
@@ -19820,52 +19820,52 @@
         <v>0</v>
       </c>
       <c r="CN30" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="CO30" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="CP30" t="n">
         <v>0</v>
       </c>
       <c r="CQ30" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="CR30" t="n">
         <v>0</v>
       </c>
       <c r="CS30" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="CT30" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="CU30" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="CV30" t="n">
         <v>0</v>
       </c>
       <c r="CW30" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="CX30" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="CY30" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="CZ30" t="n">
         <v>0</v>
       </c>
       <c r="DA30" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="DB30" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="DC30" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="DD30" t="n">
         <v>0</v>
@@ -19874,70 +19874,70 @@
         <v>0</v>
       </c>
       <c r="DF30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DG30" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="DH30" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="DI30" t="n">
         <v>0</v>
       </c>
       <c r="DJ30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DK30" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="DL30" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="DM30" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="DN30" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="DO30" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="DP30" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="DQ30" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="DR30" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="DS30" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="DT30" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="DU30" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="DV30" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="DW30" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="DX30" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="DY30" t="n">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="DZ30" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="EA30" t="n">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="EB30" t="n">
         <v>0</v>
@@ -19949,46 +19949,46 @@
         <v>0</v>
       </c>
       <c r="EE30" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="EF30" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="EG30" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="EH30" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="EI30" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="EJ30" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="EK30" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="EL30" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="EM30" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="EN30" t="n">
         <v>0</v>
       </c>
       <c r="EO30" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="EP30" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="EQ30" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="ER30" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="ES30" t="n">
         <v>0</v>
@@ -20006,22 +20006,22 @@
         <v>0</v>
       </c>
       <c r="EX30" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="EY30" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="EZ30" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="FA30" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="FB30" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="FC30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FD30" t="n">
         <v>0</v>
@@ -20033,25 +20033,25 @@
         <v>0</v>
       </c>
       <c r="FG30" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="FH30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FI30" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="FJ30" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="FK30" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="FL30" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="FM30" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="FN30" t="n">
         <v>0</v>
@@ -20063,13 +20063,13 @@
         <v>0</v>
       </c>
       <c r="FQ30" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="FR30" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="FS30" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="FT30" t="n">
         <v>0</v>
@@ -20081,31 +20081,31 @@
         <v>0</v>
       </c>
       <c r="FW30" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="FX30" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="FY30" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="FZ30" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="GA30" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="GB30" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="GC30" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="GD30" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="GE30" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="GF30" t="n">
         <v>0</v>
@@ -20126,13 +20126,13 @@
         <v>0</v>
       </c>
       <c r="GL30" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="GM30" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="GN30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -20480,52 +20480,52 @@
         <v>0</v>
       </c>
       <c r="CN31" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="CO31" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="CP31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ31" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="CR31" t="n">
         <v>0</v>
       </c>
       <c r="CS31" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="CT31" t="n">
         <v>0</v>
       </c>
       <c r="CU31" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="CV31" t="n">
         <v>0</v>
       </c>
       <c r="CW31" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="CX31" t="n">
         <v>0</v>
       </c>
       <c r="CY31" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="CZ31" t="n">
         <v>0</v>
       </c>
       <c r="DA31" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="DB31" t="n">
         <v>0</v>
       </c>
       <c r="DC31" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="DD31" t="n">
         <v>0</v>
@@ -20534,70 +20534,70 @@
         <v>0</v>
       </c>
       <c r="DF31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DG31" t="n">
         <v>0</v>
       </c>
       <c r="DH31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DI31" t="n">
         <v>0</v>
       </c>
       <c r="DJ31" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="DK31" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="DL31" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="DM31" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="DN31" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="DO31" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="DP31" t="n">
         <v>0</v>
       </c>
       <c r="DQ31" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="DR31" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="DS31" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="DT31" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="DU31" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="DV31" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="DW31" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="DX31" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="DY31" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="DZ31" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="EA31" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="EB31" t="n">
         <v>0</v>
@@ -20609,127 +20609,127 @@
         <v>0</v>
       </c>
       <c r="EE31" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="EF31" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="EG31" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="EH31" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="EI31" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="EJ31" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="EK31" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="EL31" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="EM31" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="EN31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EO31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EP31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ31" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="ER31" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="ES31" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="ET31" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="EU31" t="n">
         <v>0</v>
       </c>
       <c r="EV31" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="EW31" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="EX31" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="EY31" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="EZ31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FA31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FB31" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="FC31" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="FD31" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="FE31" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="FF31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG31" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="FH31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FI31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FJ31" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="FK31" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="FL31" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="FM31" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="FN31" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="FO31" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="FP31" t="n">
         <v>0</v>
       </c>
       <c r="FQ31" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="FR31" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="FS31" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="FT31" t="n">
         <v>0</v>
@@ -20741,13 +20741,13 @@
         <v>0</v>
       </c>
       <c r="FW31" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="FX31" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="FY31" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="FZ31" t="n">
         <v>0</v>
@@ -20759,31 +20759,31 @@
         <v>0</v>
       </c>
       <c r="GC31" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="GD31" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="GE31" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="GF31" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="GG31" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="GH31" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="GI31" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="GJ31" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="GK31" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="GL31" t="n">
         <v>0</v>
@@ -21140,52 +21140,52 @@
         <v>0</v>
       </c>
       <c r="CN32" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="CO32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP32" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="CQ32" t="n">
-        <v>0</v>
+        <v>3.41</v>
       </c>
       <c r="CR32" t="n">
         <v>0</v>
       </c>
       <c r="CS32" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="CT32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CU32" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="CV32" t="n">
         <v>0</v>
       </c>
       <c r="CW32" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="CX32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CY32" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="CZ32" t="n">
         <v>0</v>
       </c>
       <c r="DA32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DB32" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="DC32" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="DD32" t="n">
         <v>0</v>
@@ -21194,25 +21194,25 @@
         <v>0</v>
       </c>
       <c r="DF32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DG32" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="DH32" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="DI32" t="n">
         <v>0</v>
       </c>
       <c r="DJ32" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="DK32" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="DL32" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="DM32" t="n">
         <v>0</v>
@@ -21224,82 +21224,82 @@
         <v>0</v>
       </c>
       <c r="DP32" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="DQ32" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="DR32" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="DS32" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="DT32" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="DU32" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="DV32" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="DW32" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="DX32" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="DY32" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="DZ32" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="EA32" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="EB32" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="EC32" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="ED32" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="EE32" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="EF32" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="EG32" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="EH32" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="EI32" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="EJ32" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="EK32" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="EL32" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="EM32" t="n">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="EN32" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="EO32" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="EP32" t="n">
         <v>0</v>
@@ -21308,13 +21308,13 @@
         <v>0</v>
       </c>
       <c r="ER32" t="n">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="ES32" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="ET32" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="EU32" t="n">
         <v>0</v>
@@ -21323,25 +21323,25 @@
         <v>0</v>
       </c>
       <c r="EW32" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="EX32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY32" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="EZ32" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="FA32" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="FB32" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="FC32" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="FD32" t="n">
         <v>0</v>
@@ -21350,109 +21350,109 @@
         <v>0</v>
       </c>
       <c r="FF32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FG32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FH32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FI32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FJ32" t="n">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="FK32" t="n">
-        <v>0</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="FL32" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="FM32" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="FN32" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="FO32" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="FP32" t="n">
         <v>0</v>
       </c>
       <c r="FQ32" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="FR32" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="FS32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FT32" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="FU32" t="n">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="FV32" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="FW32" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="FX32" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="FY32" t="n">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="FZ32" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="GA32" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="GB32" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="GC32" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="GD32" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="GE32" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="GF32" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="GG32" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="GH32" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="GI32" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="GJ32" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="GK32" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="GL32" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="GM32" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="GN32" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="33">
@@ -46840,16 +46840,16 @@
         <v>0</v>
       </c>
       <c r="CN71" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="CO71" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="CP71" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="CQ71" t="n">
-        <v>0</v>
+        <v>3.63</v>
       </c>
       <c r="CR71" t="n">
         <v>0</v>

--- a/files/respuestas/2023/respuestas_2023.xlsx
+++ b/files/respuestas/2023/respuestas_2023.xlsx
@@ -46846,10 +46846,10 @@
         <v>1.6</v>
       </c>
       <c r="CP71" t="n">
-        <v>0.43</v>
+        <v>0.97</v>
       </c>
       <c r="CQ71" t="n">
-        <v>3.63</v>
+        <v>4.17</v>
       </c>
       <c r="CR71" t="n">
         <v>0</v>

--- a/files/respuestas/2023/respuestas_2023.xlsx
+++ b/files/respuestas/2023/respuestas_2023.xlsx
@@ -22460,52 +22460,52 @@
         <v>0</v>
       </c>
       <c r="CN34" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="CO34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP34" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="CQ34" t="n">
-        <v>0</v>
+        <v>3.52</v>
       </c>
       <c r="CR34" t="n">
         <v>0</v>
       </c>
       <c r="CS34" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="CT34" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="CU34" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="CV34" t="n">
         <v>0</v>
       </c>
       <c r="CW34" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="CX34" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="CY34" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="CZ34" t="n">
         <v>0</v>
       </c>
       <c r="DA34" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="DB34" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="DC34" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="DD34" t="n">
         <v>0</v>
@@ -22514,70 +22514,70 @@
         <v>0</v>
       </c>
       <c r="DF34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DG34" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="DH34" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="DI34" t="n">
         <v>0</v>
       </c>
       <c r="DJ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DK34" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="DL34" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="DM34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DN34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DO34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DP34" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="DQ34" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="DR34" t="n">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="DS34" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="DT34" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="DU34" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="DV34" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="DW34" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="DX34" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="DY34" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="DZ34" t="n">
         <v>0</v>
       </c>
       <c r="EA34" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="EB34" t="n">
         <v>0</v>

--- a/files/respuestas/2023/respuestas_2023.xlsx
+++ b/files/respuestas/2023/respuestas_2023.xlsx
@@ -22571,55 +22571,55 @@
         <v>0.7</v>
       </c>
       <c r="DY34" t="n">
-        <v>0.15</v>
+        <v>0.4</v>
       </c>
       <c r="DZ34" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="EA34" t="n">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="EB34" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="EC34" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="ED34" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="EE34" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="EF34" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="EG34" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="EH34" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="EI34" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="EJ34" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="EK34" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="EL34" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="EM34" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="EN34" t="n">
         <v>0</v>
       </c>
       <c r="EO34" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="EP34" t="n">
         <v>0</v>
@@ -22628,7 +22628,7 @@
         <v>0</v>
       </c>
       <c r="ER34" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="ES34" t="n">
         <v>0</v>

--- a/files/respuestas/2023/respuestas_2023.xlsx
+++ b/files/respuestas/2023/respuestas_2023.xlsx
@@ -1791,25 +1791,25 @@
         <v>0</v>
       </c>
       <c r="CW2" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="CX2" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="CY2" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="CZ2" t="n">
         <v>0</v>
       </c>
       <c r="DA2" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="DB2" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="DC2" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="DD2" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DG2" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="DH2" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="DI2" t="n">
         <v>0</v>
@@ -1839,49 +1839,49 @@
         <v>0</v>
       </c>
       <c r="DM2" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="DN2" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="DO2" t="n">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="DP2" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="DR2" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="DS2" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="DT2" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="DU2" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="DV2" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="DW2" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="DX2" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="DY2" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="EA2" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="EB2" t="n">
         <v>0</v>
@@ -1893,31 +1893,31 @@
         <v>0</v>
       </c>
       <c r="EE2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EF2" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="EG2" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="EH2" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="EI2" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="EK2" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="EL2" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="EM2" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="EN2" t="n">
         <v>0</v>
@@ -1935,10 +1935,10 @@
         <v>0</v>
       </c>
       <c r="ES2" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="ET2" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="EU2" t="n">
         <v>0</v>
@@ -1947,16 +1947,16 @@
         <v>0</v>
       </c>
       <c r="EW2" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="EX2" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="EY2" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="FA2" t="n">
         <v>0</v>
@@ -1992,16 +1992,16 @@
         <v>0</v>
       </c>
       <c r="FL2" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="FM2" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="FN2" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="FO2" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="FP2" t="n">
         <v>0</v>
@@ -2492,31 +2492,31 @@
         <v>0</v>
       </c>
       <c r="DP3" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="DR3" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="DS3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DT3" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="DU3" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="DV3" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="DW3" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="DX3" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="DY3" t="n">
         <v>0</v>
@@ -2528,40 +2528,40 @@
         <v>0</v>
       </c>
       <c r="EB3" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="EC3" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="ED3" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="EE3" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="EF3" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="EH3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="EI3" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="EK3" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="EL3" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="EM3" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="EN3" t="n">
         <v>0</v>
@@ -2594,22 +2594,22 @@
         <v>0</v>
       </c>
       <c r="EX3" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="FA3" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="FB3" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="FC3" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="FD3" t="n">
         <v>0</v>
@@ -2618,46 +2618,46 @@
         <v>0</v>
       </c>
       <c r="FF3" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="FG3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FH3" t="n">
         <v>0</v>
       </c>
       <c r="FI3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="FK3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="FL3" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="FM3" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="FN3" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="FO3" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="FP3" t="n">
         <v>0</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="FR3" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="FS3" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="FT3" t="n">
         <v>0</v>
@@ -2696,22 +2696,22 @@
         <v>0</v>
       </c>
       <c r="GF3" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="GG3" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="GH3" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="GI3" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="GJ3" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="GK3" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="GL3" t="n">
         <v>0</v>
@@ -3068,52 +3068,52 @@
         <v>0</v>
       </c>
       <c r="CN4" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="CO4" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="CP4" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0</v>
+        <v>3.47</v>
       </c>
       <c r="CR4" t="n">
         <v>0</v>
       </c>
       <c r="CS4" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="CT4" t="n">
         <v>0</v>
       </c>
       <c r="CU4" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="CV4" t="n">
         <v>0</v>
       </c>
       <c r="CW4" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="CX4" t="n">
         <v>0</v>
       </c>
       <c r="CY4" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="CZ4" t="n">
         <v>0</v>
       </c>
       <c r="DA4" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="DB4" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="DC4" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="DD4" t="n">
         <v>0</v>
@@ -3122,112 +3122,112 @@
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DG4" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="DH4" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="DI4" t="n">
         <v>0</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="DK4" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="DL4" t="n">
-        <v>0</v>
+        <v>3.88</v>
       </c>
       <c r="DM4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DN4" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="DO4" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="DP4" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="DQ4" t="n">
         <v>0</v>
       </c>
       <c r="DR4" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="DS4" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="DT4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DU4" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="DV4" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="DW4" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="DX4" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="DY4" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="EA4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="EB4" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="EC4" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="ED4" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="EE4" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="EF4" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="EG4" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="EH4" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="EI4" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="EK4" t="n">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="EL4" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="EM4" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="EN4" t="n">
         <v>0</v>
       </c>
       <c r="EO4" t="n">
-        <v>0</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="EP4" t="n">
         <v>0</v>
@@ -3236,40 +3236,40 @@
         <v>0</v>
       </c>
       <c r="ER4" t="n">
-        <v>0</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="ES4" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="ET4" t="n">
         <v>0</v>
       </c>
       <c r="EU4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EV4" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="EW4" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="EX4" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="EY4" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="FA4" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="FB4" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="FC4" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="FD4" t="n">
         <v>0</v>
@@ -3278,109 +3278,109 @@
         <v>0</v>
       </c>
       <c r="FF4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="FG4" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="FH4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FI4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="FK4" t="n">
-        <v>0</v>
+        <v>13.9</v>
       </c>
       <c r="FL4" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="FM4" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="FN4" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="FO4" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="FP4" t="n">
         <v>0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="FR4" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="FS4" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="FT4" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="FU4" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="FV4" t="n">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="FW4" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="FX4" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="FY4" t="n">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="GA4" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="GB4" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="GC4" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="GD4" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="GE4" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="GF4" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="GG4" t="n">
         <v>0</v>
       </c>
       <c r="GH4" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="GI4" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="GJ4" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="GK4" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="GL4" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="GM4" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="GN4" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="5">
@@ -3778,94 +3778,94 @@
         <v>0</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="DK5" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="DL5" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="DM5" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="DN5" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="DO5" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="DP5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="DR5" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="DS5" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="DT5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="DU5" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="DV5" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="DW5" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="DX5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="DY5" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="EA5" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="EB5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="EC5" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="ED5" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="EE5" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="EF5" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="EG5" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="EH5" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="EI5" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="EK5" t="n">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="EL5" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="EM5" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="EN5" t="n">
         <v>0</v>
@@ -3940,37 +3940,37 @@
         <v>0</v>
       </c>
       <c r="FL5" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="FM5" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="FN5" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="FO5" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="FP5" t="n">
         <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="FR5" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="FS5" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="FT5" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="FU5" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="FV5" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="FW5" t="n">
         <v>0</v>
@@ -5439,25 +5439,25 @@
         <v>0</v>
       </c>
       <c r="CS8" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="CT8" t="n">
         <v>0</v>
       </c>
       <c r="CU8" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="CV8" t="n">
         <v>0</v>
       </c>
       <c r="CW8" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="CX8" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="CY8" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="CZ8" t="n">
         <v>0</v>
@@ -5478,25 +5478,25 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="DG8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DH8" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="DI8" t="n">
         <v>0</v>
       </c>
       <c r="DJ8" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="DK8" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="DL8" t="n">
-        <v>0</v>
+        <v>3.18</v>
       </c>
       <c r="DM8" t="n">
         <v>0</v>
@@ -5508,13 +5508,13 @@
         <v>0</v>
       </c>
       <c r="DP8" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="DQ8" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="DR8" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="DS8" t="n">
         <v>0</v>
@@ -5535,13 +5535,13 @@
         <v>0</v>
       </c>
       <c r="DY8" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="DZ8" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="EA8" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="EB8" t="n">
         <v>0</v>
@@ -5562,37 +5562,37 @@
         <v>0</v>
       </c>
       <c r="EH8" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="EI8" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="EJ8" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="EK8" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="EL8" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="EM8" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="EN8" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="EO8" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="EP8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ8" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="ER8" t="n">
-        <v>0</v>
+        <v>3.67</v>
       </c>
       <c r="ES8" t="n">
         <v>0</v>
@@ -5604,10 +5604,10 @@
         <v>0</v>
       </c>
       <c r="EV8" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="EW8" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="EX8" t="n">
         <v>0</v>
@@ -5637,19 +5637,19 @@
         <v>0</v>
       </c>
       <c r="FG8" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="FH8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FI8" t="n">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="FJ8" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="FK8" t="n">
-        <v>0</v>
+        <v>8.93</v>
       </c>
       <c r="FL8" t="n">
         <v>0</v>
@@ -5658,10 +5658,10 @@
         <v>0</v>
       </c>
       <c r="FN8" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="FO8" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="FP8" t="n">
         <v>0</v>
@@ -5676,13 +5676,13 @@
         <v>0</v>
       </c>
       <c r="FT8" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="FU8" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="FV8" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="FW8" t="n">
         <v>0</v>
@@ -5694,13 +5694,13 @@
         <v>0</v>
       </c>
       <c r="FZ8" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="GA8" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="GB8" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="GC8" t="n">
         <v>0</v>
@@ -6084,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="CN9" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="CO9" t="n">
         <v>0</v>
@@ -6093,7 +6093,7 @@
         <v>0</v>
       </c>
       <c r="CQ9" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="CR9" t="n">
         <v>0</v>
@@ -6168,82 +6168,82 @@
         <v>0</v>
       </c>
       <c r="DP9" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="DQ9" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="DR9" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="DS9" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="DT9" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="DU9" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="DV9" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="DW9" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="DX9" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="DY9" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="DZ9" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="EA9" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="EB9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EC9" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="ED9" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="EE9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EF9" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="EG9" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="EH9" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="EI9" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="EJ9" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="EK9" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="EL9" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="EM9" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="EN9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EO9" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="EP9" t="n">
         <v>0</v>
@@ -6252,40 +6252,40 @@
         <v>0</v>
       </c>
       <c r="ER9" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="ES9" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="ET9" t="n">
         <v>0</v>
       </c>
       <c r="EU9" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="EV9" t="n">
         <v>0</v>
       </c>
       <c r="EW9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EX9" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="EY9" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="EZ9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FA9" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="FB9" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="FC9" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="FD9" t="n">
         <v>0</v>
@@ -6294,34 +6294,34 @@
         <v>0</v>
       </c>
       <c r="FF9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG9" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="FH9" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="FI9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FJ9" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="FK9" t="n">
-        <v>0</v>
+        <v>10.8</v>
       </c>
       <c r="FL9" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="FM9" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="FN9" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="FO9" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="FP9" t="n">
         <v>0</v>
@@ -6336,67 +6336,67 @@
         <v>0</v>
       </c>
       <c r="FT9" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="FU9" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="FV9" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="FW9" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="FX9" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="FY9" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="FZ9" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="GA9" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="GB9" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="GC9" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="GD9" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="GE9" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="GF9" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="GG9" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="GH9" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="GI9" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="GJ9" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="GK9" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="GL9" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="GM9" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="GN9" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="10">
@@ -6759,37 +6759,37 @@
         <v>0</v>
       </c>
       <c r="CS10" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="CT10" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="CU10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CV10" t="n">
         <v>0</v>
       </c>
       <c r="CW10" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="CX10" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="CY10" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="CZ10" t="n">
         <v>0</v>
       </c>
       <c r="DA10" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="DB10" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="DC10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DD10" t="n">
         <v>0</v>
@@ -6798,154 +6798,154 @@
         <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DG10" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="DH10" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="DI10" t="n">
         <v>0</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="DK10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DL10" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="DM10" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="DN10" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="DO10" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="DP10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="DR10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DS10" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="DT10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DU10" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="DV10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="DW10" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="DX10" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="DY10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="EA10" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="EB10" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="EC10" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="ED10" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="EE10" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="EF10" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="EG10" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="EH10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="EI10" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="EK10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="EL10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="EM10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EN10" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="EO10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="EP10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ10" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="ER10" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="ES10" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="ET10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EU10" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="EV10" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="EW10" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="EX10" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="EY10" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="EZ10" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="FA10" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="FB10" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="FC10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FD10" t="n">
         <v>0</v>
@@ -6954,34 +6954,34 @@
         <v>0</v>
       </c>
       <c r="FF10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG10" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="FH10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FI10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="FJ10" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="FK10" t="n">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="FL10" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="FM10" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="FN10" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="FO10" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="FP10" t="n">
         <v>0</v>
@@ -6996,58 +6996,58 @@
         <v>0</v>
       </c>
       <c r="FT10" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="FU10" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="FV10" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="FW10" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="FX10" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="FY10" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="GA10" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="GB10" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="GC10" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="GD10" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="GE10" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="GF10" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="GG10" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="GH10" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="GI10" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="GJ10" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="GK10" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="GL10" t="n">
         <v>0</v>
@@ -7395,13 +7395,13 @@
         <v>0</v>
       </c>
       <c r="CS11" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="CT11" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="CU11" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="CV11" t="n">
         <v>0</v>
@@ -8118,22 +8118,22 @@
         <v>0</v>
       </c>
       <c r="DV12" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="DW12" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="DX12" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="DY12" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="EA12" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="EB12" t="n">
         <v>0</v>
@@ -8154,13 +8154,13 @@
         <v>0</v>
       </c>
       <c r="EH12" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="EI12" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="EJ12" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="EK12" t="n">
         <v>0</v>
@@ -15884,40 +15884,40 @@
         <v>0</v>
       </c>
       <c r="CN24" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="CO24" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="CP24" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="CQ24" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="CR24" t="n">
         <v>0</v>
       </c>
       <c r="CS24" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="CT24" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="CU24" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="CV24" t="n">
         <v>0</v>
       </c>
       <c r="CW24" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="CX24" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="CY24" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="CZ24" t="n">
         <v>0</v>
@@ -15938,25 +15938,25 @@
         <v>0</v>
       </c>
       <c r="DF24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DG24" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="DH24" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="DI24" t="n">
         <v>0</v>
       </c>
       <c r="DJ24" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="DK24" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="DL24" t="n">
-        <v>0</v>
+        <v>3.58</v>
       </c>
       <c r="DM24" t="n">
         <v>0</v>
@@ -15968,82 +15968,82 @@
         <v>0</v>
       </c>
       <c r="DP24" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="DQ24" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="DR24" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="DS24" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="DT24" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="DU24" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="DV24" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="DW24" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="DX24" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="DY24" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="DZ24" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="EA24" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="EB24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EC24" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="ED24" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="EE24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EF24" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="EG24" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="EH24" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="EI24" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="EJ24" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="EK24" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="EL24" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="EM24" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="EN24" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="EO24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EP24" t="n">
         <v>0</v>
@@ -16052,40 +16052,40 @@
         <v>0</v>
       </c>
       <c r="ER24" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="ES24" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="ET24" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="EU24" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="EV24" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="EW24" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="EX24" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="EY24" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="EZ24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FA24" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="FB24" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="FC24" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="FD24" t="n">
         <v>0</v>
@@ -16094,46 +16094,46 @@
         <v>0</v>
       </c>
       <c r="FF24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG24" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="FH24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FI24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FJ24" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="FK24" t="n">
-        <v>0</v>
+        <v>10.9</v>
       </c>
       <c r="FL24" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="FM24" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="FN24" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="FO24" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="FP24" t="n">
         <v>0</v>
       </c>
       <c r="FQ24" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="FR24" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="FS24" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="FT24" t="n">
         <v>0</v>
@@ -16154,13 +16154,13 @@
         <v>0</v>
       </c>
       <c r="FZ24" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="GA24" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="GB24" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="GC24" t="n">
         <v>0</v>
@@ -16172,31 +16172,31 @@
         <v>0</v>
       </c>
       <c r="GF24" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="GG24" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="GH24" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="GI24" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="GJ24" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="GK24" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="GL24" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="GM24" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="GN24" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="25">
@@ -21800,52 +21800,52 @@
         <v>0</v>
       </c>
       <c r="CN33" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="CO33" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="CP33" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="CQ33" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="CR33" t="n">
         <v>0</v>
       </c>
       <c r="CS33" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="CT33" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="CU33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CV33" t="n">
         <v>0</v>
       </c>
       <c r="CW33" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="CX33" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="CY33" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="CZ33" t="n">
         <v>0</v>
       </c>
       <c r="DA33" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="DB33" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="DC33" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="DD33" t="n">
         <v>0</v>
@@ -21854,13 +21854,13 @@
         <v>0</v>
       </c>
       <c r="DF33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DG33" t="n">
         <v>0</v>
       </c>
       <c r="DH33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DI33" t="n">
         <v>0</v>
@@ -22616,52 +22616,52 @@
         <v>0.5</v>
       </c>
       <c r="EN34" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="EO34" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="EP34" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="EQ34" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="ER34" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="ES34" t="n">
         <v>1.2</v>
       </c>
-      <c r="EP34" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER34" t="n">
+      <c r="ET34" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU34" t="n">
         <v>1.2</v>
       </c>
-      <c r="ES34" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET34" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU34" t="n">
-        <v>0</v>
-      </c>
       <c r="EV34" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="EW34" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="EX34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FA34" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="FB34" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="FC34" t="n">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="FD34" t="n">
         <v>0</v>
@@ -22670,109 +22670,109 @@
         <v>0</v>
       </c>
       <c r="FF34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FG34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FH34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FI34" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="FJ34" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="FK34" t="n">
-        <v>0</v>
+        <v>11.56</v>
       </c>
       <c r="FL34" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="FM34" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="FN34" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="FO34" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="FP34" t="n">
         <v>0</v>
       </c>
       <c r="FQ34" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="FR34" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="FS34" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="FT34" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="FU34" t="n">
         <v>0</v>
       </c>
       <c r="FV34" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="FW34" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="FX34" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="FY34" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="FZ34" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="GA34" t="n">
         <v>0</v>
       </c>
       <c r="GB34" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="GC34" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="GD34" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="GE34" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="GF34" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="GG34" t="n">
         <v>0</v>
       </c>
       <c r="GH34" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="GI34" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="GJ34" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="GK34" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="GL34" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="GM34" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="GN34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -23120,16 +23120,16 @@
         <v>0</v>
       </c>
       <c r="CN35" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="CO35" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="CP35" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="CQ35" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="CR35" t="n">
         <v>0</v>
@@ -23147,13 +23147,13 @@
         <v>0</v>
       </c>
       <c r="CW35" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="CX35" t="n">
         <v>0</v>
       </c>
       <c r="CY35" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="CZ35" t="n">
         <v>0</v>
@@ -23186,13 +23186,13 @@
         <v>0</v>
       </c>
       <c r="DJ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DK35" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="DL35" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="DM35" t="n">
         <v>0</v>
@@ -23222,22 +23222,22 @@
         <v>0</v>
       </c>
       <c r="DV35" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="DW35" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="DX35" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="DY35" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="DZ35" t="n">
         <v>0</v>
       </c>
       <c r="EA35" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="EB35" t="n">
         <v>0</v>
@@ -23291,10 +23291,10 @@
         <v>0</v>
       </c>
       <c r="ES35" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="ET35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EU35" t="n">
         <v>0</v>
@@ -23303,16 +23303,16 @@
         <v>0</v>
       </c>
       <c r="EW35" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="EX35" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="EY35" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="EZ35" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="FA35" t="n">
         <v>0</v>
@@ -23348,28 +23348,28 @@
         <v>0</v>
       </c>
       <c r="FL35" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="FM35" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="FN35" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="FO35" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="FP35" t="n">
         <v>0</v>
       </c>
       <c r="FQ35" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="FR35" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="FS35" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="FT35" t="n">
         <v>0</v>
@@ -23408,22 +23408,22 @@
         <v>0</v>
       </c>
       <c r="GF35" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="GG35" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="GH35" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="GI35" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="GJ35" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="GK35" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="GL35" t="n">
         <v>0</v>
